--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1448" uniqueCount="1448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="1165">
   <si>
     <t xml:space="preserve">Change Indicator</t>
   </si>
@@ -2686,7 +2686,7 @@
     <t xml:space="preserve">ng/mL</t>
   </si>
   <si>
-    <t xml:space="preserve">var1</t>
+    <t xml:space="preserve">Percieved_Exertion_SP</t>
   </si>
   <si>
     <t xml:space="preserve">Percieved_Exertion_P</t>
@@ -2716,36 +2716,12 @@
     <t xml:space="preserve">Calm_P</t>
   </si>
   <si>
-    <t xml:space="preserve">Appearance_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appearance_P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average_SP</t>
   </si>
   <si>
     <t xml:space="preserve">Average_P</t>
   </si>
   <si>
-    <t xml:space="preserve">Avg_Person_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg_Person_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys_Attract_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys_Attract_P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shape_SP</t>
   </si>
   <si>
@@ -2758,973 +2734,781 @@
     <t xml:space="preserve">Weight_P</t>
   </si>
   <si>
-    <t xml:space="preserve">BDNF_RawChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leptin_RawChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cortisol_RawChange</t>
-  </si>
-  <si>
     <t xml:space="preserve">BDNF_ResidChange</t>
   </si>
   <si>
+    <t xml:space="preserve">Cortisol_ResidChange</t>
+  </si>
+  <si>
     <t xml:space="preserve">Leptin_ResidChange</t>
   </si>
   <si>
-    <t xml:space="preserve">Cortisol_ResidChange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percieved_Exertion_SP</t>
+    <t xml:space="preserve">-0.90 (-1.00, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.61 (-0.99, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.96, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45 (-0.99, 0.90)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58 (-0.86, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.93, 0.98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.95 (-1.00, 0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA (NA, NA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.96, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.73 (-0.99, 0.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.75 (-0.75, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63 (-0.84, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.93 (-1.00, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.64 (-0.99, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.94, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.70 (-0.99, 0.80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.96, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.96, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.99, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87 (-0.56, 1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (-0.85, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.98, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.95, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52 (-0.88, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.96, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30 (-0.98, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.98, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.95, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (-0.87, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.75 (-0.99, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56 (-0.94, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82 (-0.24, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 (-0.53, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.95, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.82, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 (-0.56, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88 (0.00, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.78 (-0.33, 0.98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93 (0.24, 1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.77, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.93 (-1.00, -0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.83, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.68 (-0.98, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.84, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.53 (-0.96, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 (-0.68, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.73 (-0.98, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.97, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.56, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.25, 0.68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55 (-0.82, -0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.77, 0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.46, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.64, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.51, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.53, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.43, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60 (0.15, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (0.11, 0.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.35, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33 (-0.18, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.63 (0.20, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.86 (-0.98, -0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.86, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.86, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.26, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.47 (-0.03, 0.79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.53, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.34, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (-0.30, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.16, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.56, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.65, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.62, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.76 (0.42, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.50, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 (-0.01, 0.79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 (-0.05, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.37, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.96 (-1.00, -0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.76, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.68, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.47, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 (-0.31, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.45, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 (-0.67, 0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43 (-0.76, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56 (-0.83, -0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.23, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.52, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59 (0.13, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.42, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.08, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.81, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.69, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.56, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.62, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.53, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.46 (-0.78, 0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.80, -0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.48, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.72, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.49, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.11, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.06, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.93, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.91, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.58, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.71, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.71, 0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30 (-0.69, 0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (-0.41, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 (-0.73, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (-0.63, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.36, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.29, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.28, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.43, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.39, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.48, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.44, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.07, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.90, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (-0.46, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.89, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.27, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.17, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33 (-0.20, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.24, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.57, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.49, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.43, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91 (0.78, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.45, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38 (-0.91, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.76, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40 (-0.61, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40 (-0.75, 0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.61, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.68, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50 (-0.80, -0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67 (-0.88, -0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.46 (-0.78, 0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.53, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.61, 0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.60, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.55, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.56, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.68, 0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.75, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72 (-0.22, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45 (-0.92, 0.57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.70, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.40, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.46, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.36, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.16, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.37, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.66, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.47, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.40, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.58 (-0.95, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.64, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.75 (-0.97, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.34, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.55, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.42, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.41, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.50, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.52, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.42, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.40, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.56, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.39, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.79, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.90, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68 (0.28, 0.88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.66, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 (-0.09, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.51, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40 (-0.71, 0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.00, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.16, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.30, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.68 (-0.96, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.78, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58 (0.11, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.17, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50 (0.01, 0.80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52 (0.03, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.34, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 (-0.69, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52 (-0.78, -0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.45, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.50, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.76, -0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.18, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.89 (-0.99, -0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.85, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40 (-0.92, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (-0.22, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (-0.05, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.33, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.22, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.17, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.55, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.33, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 (-0.62, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.19, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.67, 0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.62, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.45, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67 (-0.96, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39 (-0.91, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.54, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 (0.25, 0.87)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (-0.04, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28 (-0.64, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.14, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.57, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.41, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (-0.46, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.87, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73 (-0.20, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.79 (-0.98, 0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.45, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28 (-0.68, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68 (0.33, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.32, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.54, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.77, -0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.29, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.54, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.20 (-0.59, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.48, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.81, 0.81)</t>
   </si>
   <si>
     <t xml:space="preserve">0.67 (0.25, 0.87)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60 (0.15, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.34, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (-0.68, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.54, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45 (-0.05, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 (-0.30, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.51, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.61, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 (0.27, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 (0.01, 0.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47 (-0.03, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.25, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.40, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03 (-0.52, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58 (0.12, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.35, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.17, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.35, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.17, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.47, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (-0.56, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 (-0.31, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.93, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.68 (-0.99, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (-0.67, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 (-0.93, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61 (-0.99, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66 (-0.53, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 (0.28, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.45, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (-0.29, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 (-0.22, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58 (0.11, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.48, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.75, 0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45 (-0.06, 0.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (-0.42, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 (-0.26, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.56, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.46, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.36, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27 (-0.68, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 (-0.27, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.71, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.53, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.95, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.86 (-1.00, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94 (0.34, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.96, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.90 (-1.00, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82 (-0.24, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.66, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.16, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 (-0.09, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.78, 0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 (-0.00, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.44, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.39, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.47, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.18, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.42, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19 (-0.63, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 (-0.94, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.97 (-1.00, -0.17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.78 (-0.33, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.95, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.95 (-1.00, 0.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (-0.55, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 (-0.01, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.16, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.56, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 (-0.39, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 (-0.31, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (-0.49, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.50, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.36, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.78, 0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43 (-0.76, 0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA (NA, NA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88 (-0.03, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93 (0.24, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66 (0.25, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20 (-0.33, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.70, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55 (-0.82, -0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.64, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55 (-0.82, -0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (-0.42, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.65, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.72, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (-0.57, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.71 (-0.89, -0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.71, 0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.62, 0.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49 (-0.99, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.93, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.99, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.44 (-0.95, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.23, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30 (-0.69, 0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.41 (-0.75, 0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.53, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.44 (-0.77, 0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29 (-0.69, 0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19 (-0.62, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42 (-0.76, 0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.80, -0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.45, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 (-0.49, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.47 (-0.99, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.76, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87 (-0.56, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.45 (-0.99, 0.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (-0.82, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (0.03, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.50 (-0.80, -0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 (-0.00, 0.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.49, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.34, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.37, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.20, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 (-0.41, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.62, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57 (-0.87, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 (-0.88, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61 (-0.85, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58 (-0.86, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.64 (-0.56, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.46, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67 (-0.88, -0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 (-0.13, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 (-0.21, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 (-0.24, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27 (-0.67, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.73, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.53, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (-0.67, 0.28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.98, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.92, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90 (0.09, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.37 (-0.98, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88 (0.00, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16 (-0.61, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.64, 0.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23 (-0.65, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.51, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.60, 0.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.44, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11 (-0.57, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.80, -0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56 (-0.83, -0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54 (-0.88, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63 (-0.56, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (-0.88, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.77, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.43, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.58, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 (-0.28, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.88 (-0.99, 0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.93 (-1.00, -0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19 (-0.63, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65 (0.22, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.33, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.15, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.79 (-1.00, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 (-0.68, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.73 (-0.99, 0.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66 (-0.54, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (0.09, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79 (0.50, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.32, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53 (0.05, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 (-0.09, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.57 (0.13, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 (-0.21, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (-0.27, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58 (0.14, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.83 (-1.00, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.85, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.79 (-1.00, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 (-0.81, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63 (0.20, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 (-0.03, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 (0.69, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.61 (0.17, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 (0.35, 0.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 (-0.00, 0.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76 (0.42, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (-0.05, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.95, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.71 (-0.99, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.78, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (-0.95, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.64 (-0.99, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 (-0.68, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.19, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69 (0.31, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 (0.34, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87 (0.68, 0.95)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (0.11, 0.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.18, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53 (-0.88, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.85 (-0.99, 0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (-0.87, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21 (-0.94, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.73 (-0.98, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 (-0.11, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59 (0.13, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 (-0.19, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69 (0.30, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.43, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.39 (-0.98, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.62 (-0.84, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.91, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.98, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67 (-0.82, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.83, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 (-0.10, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76 (0.44, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 (-0.12, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54 (0.09, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 (0.41, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.45, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.63, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44 (-0.73, 0.95)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 (-0.81, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67 (0.27, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63 (0.19, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 (-0.26, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90 (0.10, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 (0.05, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (-0.03, 0.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81 (0.53, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.34, 0.60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.49, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.53 (-0.99, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.13 (-0.97, 0.95)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.69 (-0.50, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56 (-0.99, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.97, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54 (0.05, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.92, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35 (-0.98, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.44 (-0.95, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.92, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.26 (-0.98, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (-0.93, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10 (-0.40, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.69 (-0.98, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.52 (-0.96, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.43, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.87, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.72, 0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.52, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 (-0.79, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75 (-0.98, 0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 (-0.75, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.68 (-0.98, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.92, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30 (-0.98, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.63 (-0.84, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.84, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29 (-0.98, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.94 (-1.00, 0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.93 (-1.00, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.53 (-0.96, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03 (-0.96, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00 (0.92, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67 (-0.99, 0.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00 (0.82, 1.00)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75 (-0.99, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.70 (-0.99, 0.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Control</t>
+    <t xml:space="preserve">-0.21 (-0.60, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29 (-0.65, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 (0.38, 0.88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.31, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.34, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.69, 0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.61, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.39, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.60, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.27, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.90, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.61 (-0.95, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.84, 0.78)</t>
   </si>
   <si>
     <t xml:space="preserve">0.19 (-0.27, 0.59)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12 (-0.34, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.40, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.60, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29 (-0.65, 0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 (0.38, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (-0.31, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35 (-0.69, 0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.41, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.15 (-0.56, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.36, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.60, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20 (-0.27, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.10, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.17, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.42, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.38 (-0.70, 0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 (-0.17, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.61, 0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.42, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.42, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.39, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.64 (-0.96, 0.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.41 (-0.92, 0.60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55 (-0.94, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61 (-0.95, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08 (-0.84, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.90, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 (-0.07, 0.71)</t>
+    <t xml:space="preserve">0.18 (-0.28, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (-0.16, 0.66)</t>
   </si>
   <si>
     <t xml:space="preserve">0.19 (-0.28, 0.58)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.04 (-0.48, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.28, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 (-0.16, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 (-0.22, 0.62)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.64 (-0.84, -0.27)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.27 (-0.20, 0.64)</t>
+    <t xml:space="preserve">0.08 (-0.38, 0.50)</t>
   </si>
   <si>
     <t xml:space="preserve">0.22 (-0.24, 0.61)</t>
@@ -3733,640 +3517,7 @@
     <t xml:space="preserve">0.52 (0.10, 0.78)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.47 (0.04, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 (0.05, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 (-0.12, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54 (0.12, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 (-0.06, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.38, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.45, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.18, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.73 (-0.97, 0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.92 (-0.99, -0.45)</t>
-  </si>
-  <si>
     <t xml:space="preserve">-0.35 (-0.90, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75 (-0.97, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.47, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.13 (-0.54, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.51, 0.37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.34, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44 (-0.00, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.52, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.16, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.30, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.81 (0.57, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51 (0.09, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 (-0.05, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.13, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.37, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21 (-0.25, 0.60)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.39, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.71, 0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.53, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.54 (-0.94, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.81, 0.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75 (-0.97, 0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.78, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27 (-0.89, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.68 (-0.96, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49 (-0.77, -0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (-0.64, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (-0.52, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.41, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08 (-0.50, 0.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03 (-0.47, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.48 (0.04, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.26 (-0.63, 0.21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (-0.44, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01 (-0.43, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.67, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82 (-0.98, -0.02)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.74, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.90, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.79, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 (0.33, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (-0.32, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.29, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.69, 0.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.20 (-0.59, 0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.48, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.57, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.29, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.57, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.60, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.54, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43 (-0.58, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (-0.56, 0.93)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.76, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (-0.46, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.49, 0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 (-0.04, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 (-0.14, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (-0.62, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.41, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03 (-0.46, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 (-0.35, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16 (-0.57, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.68, 0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.43, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (-0.47, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.15 (-0.86, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73 (-0.20, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.79 (-0.98, 0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.87, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.55, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.33, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.46, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.62, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.09, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00 (-0.44, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35 (-0.68, 0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.55, 0.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.19, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.67, 0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.93, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.15 (-0.86, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.86 (-0.98, -0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.39 (-0.91, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.90, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67 (-0.96, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.37, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.69, 0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.66, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.11, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49 (-0.76, -0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 (-0.35, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.75, -0.03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.52 (-0.78, -0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.45, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (-0.50, 0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.85, 0.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.89 (-0.99, -0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.13 (-0.85, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.92, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.89 (-0.99, -0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19 (-0.59, 0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16 (-0.56, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.40, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 (-0.15, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 (-0.32, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.38, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 (-0.62, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.64, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.58 (-0.95, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55 (-0.80, -0.14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.58, 0.28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23 (-0.61, 0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (-0.89, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (-0.51, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 (-0.22, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.45 (-0.92, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.75, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.68, 0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (0.03, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.53 (-0.50, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 (-0.61, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 (-0.70, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.38 (-0.91, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.43 (-0.02, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.57, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.46, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (-0.31, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 (-0.07, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 (-0.24, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.88, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.39 (-0.91, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.91 (-0.99, -0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 (-0.65, 0.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.86, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.30, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.31, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92 (0.80, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91 (0.78, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.44, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 (-0.68, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 (-0.76, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.68, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.96 (-1.00, -0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (0.02, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.84 (0.64, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73 (0.42, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.45, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.08, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.72 (-0.97, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.83, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.93 (-0.99, -0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.86, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.86, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.74 (0.45, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 (0.06, 0.77)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.38 (-0.08, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.77 (-0.97, 0.10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.73 (-0.97, 0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.65 (0.29, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.44, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.84 (-0.98, -0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.29, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.20 (-0.59, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.42 (-0.92, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.85, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.93 (-0.99, -0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.93, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.96 (-1.00, -0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.70 (0.38, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (-0.23, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.71 (-0.97, 0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.89 (0.75, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.57 (-0.94, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.68 (-0.96, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.82 (-0.98, -0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.78 (-0.97, 0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.49, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 (-0.67, 0.90)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.76, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.39, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (-0.84, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.60 (-0.95, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (-0.50, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.65 (-0.96, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.37 (-0.91, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44 (-0.58, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43 (-0.92, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.85, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56 (-0.94, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 (-0.69, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75 (-0.76, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76 (-0.13, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47 (-0.89, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.84, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34 (-0.92, 0.98)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93 (0.47, 0.99)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.97, 0.96)</t>
   </si>
 </sst>
 </file>
@@ -7026,3980 +6177,1179 @@
         <v>887</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>888</v>
       </c>
       <c r="C1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D1" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="E1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F1" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="G1" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="H1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="I1" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="J1" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="K1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="L1" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="M1" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="N1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="O1" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="P1" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="Q1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="R1" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="S1" t="s">
-        <v>904</v>
-      </c>
-      <c r="T1" t="s">
         <v>905</v>
-      </c>
-      <c r="U1" t="s">
-        <v>906</v>
-      </c>
-      <c r="V1" t="s">
-        <v>907</v>
-      </c>
-      <c r="W1" t="s">
-        <v>908</v>
-      </c>
-      <c r="X1" t="s">
-        <v>909</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>910</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>911</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>912</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>914</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>915</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>916</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D2" t="s">
+        <v>909</v>
+      </c>
+      <c r="E2" t="s">
+        <v>910</v>
+      </c>
+      <c r="F2" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2" t="s">
+        <v>912</v>
+      </c>
+      <c r="H2" t="s">
+        <v>913</v>
+      </c>
+      <c r="I2" t="s">
+        <v>914</v>
+      </c>
+      <c r="J2" t="s">
+        <v>913</v>
+      </c>
+      <c r="K2" t="s">
+        <v>915</v>
+      </c>
+      <c r="L2" t="s">
+        <v>916</v>
+      </c>
+      <c r="M2" t="s">
         <v>917</v>
       </c>
-      <c r="B2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="N2" t="s">
         <v>918</v>
       </c>
-      <c r="D2" t="s">
+      <c r="O2" t="s">
         <v>919</v>
       </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
         <v>920</v>
       </c>
-      <c r="F2" t="s">
+      <c r="Q2" t="s">
         <v>921</v>
       </c>
-      <c r="G2" t="s">
+      <c r="R2" t="s">
         <v>922</v>
       </c>
-      <c r="H2" t="s">
-        <v>923</v>
-      </c>
-      <c r="I2" t="s">
-        <v>924</v>
-      </c>
-      <c r="J2" t="s">
-        <v>925</v>
-      </c>
-      <c r="K2" t="s">
-        <v>926</v>
-      </c>
-      <c r="L2" t="s">
-        <v>927</v>
-      </c>
-      <c r="M2" t="s">
-        <v>928</v>
-      </c>
-      <c r="N2" t="s">
-        <v>929</v>
-      </c>
-      <c r="O2" t="s">
-        <v>930</v>
-      </c>
-      <c r="P2" t="s">
-        <v>931</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>932</v>
-      </c>
-      <c r="R2" t="s">
-        <v>933</v>
-      </c>
       <c r="S2" t="s">
-        <v>934</v>
-      </c>
-      <c r="T2" t="s">
-        <v>935</v>
-      </c>
-      <c r="U2" t="s">
-        <v>936</v>
-      </c>
-      <c r="V2" t="s">
-        <v>937</v>
-      </c>
-      <c r="W2" t="s">
-        <v>938</v>
-      </c>
-      <c r="X2" t="s">
-        <v>939</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>940</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>941</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>942</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>943</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>944</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>945</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>946</v>
+        <v>913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>888</v>
+        <v>923</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C3"/>
+        <v>911</v>
+      </c>
+      <c r="C3" t="s">
+        <v>924</v>
+      </c>
       <c r="D3" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
       <c r="E3" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="F3" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="G3" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="H3" t="s">
-        <v>950</v>
+        <v>913</v>
       </c>
       <c r="I3" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
       <c r="J3" t="s">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="K3" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="L3" t="s">
-        <v>954</v>
+        <v>910</v>
       </c>
       <c r="M3" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="N3" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="O3" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="P3" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="Q3" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="R3" t="s">
-        <v>937</v>
+        <v>913</v>
       </c>
       <c r="S3" t="s">
-        <v>959</v>
-      </c>
-      <c r="T3" t="s">
-        <v>932</v>
-      </c>
-      <c r="U3" t="s">
-        <v>960</v>
-      </c>
-      <c r="V3" t="s">
-        <v>961</v>
-      </c>
-      <c r="W3" t="s">
-        <v>962</v>
-      </c>
-      <c r="X3" t="s">
-        <v>963</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>938</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>964</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>965</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>966</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>967</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>968</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>969</v>
+        <v>936</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>889</v>
+        <v>937</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4"/>
+        <v>938</v>
+      </c>
+      <c r="C4" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4" t="s">
+        <v>940</v>
+      </c>
       <c r="E4" t="s">
+        <v>941</v>
+      </c>
+      <c r="F4" t="s">
+        <v>942</v>
+      </c>
+      <c r="G4" t="s">
+        <v>943</v>
+      </c>
+      <c r="H4" t="s">
+        <v>944</v>
+      </c>
+      <c r="I4" t="s">
+        <v>945</v>
+      </c>
+      <c r="J4" t="s">
+        <v>946</v>
+      </c>
+      <c r="K4" t="s">
+        <v>947</v>
+      </c>
+      <c r="L4" t="s">
+        <v>948</v>
+      </c>
+      <c r="M4" t="s">
         <v>949</v>
       </c>
-      <c r="F4" t="s">
-        <v>970</v>
-      </c>
-      <c r="G4" t="s">
-        <v>958</v>
-      </c>
-      <c r="H4" t="s">
-        <v>971</v>
-      </c>
-      <c r="I4" t="s">
-        <v>972</v>
-      </c>
-      <c r="J4" t="s">
-        <v>959</v>
-      </c>
-      <c r="K4" t="s">
-        <v>973</v>
-      </c>
-      <c r="L4" t="s">
-        <v>974</v>
-      </c>
-      <c r="M4" t="s">
-        <v>975</v>
-      </c>
       <c r="N4" t="s">
-        <v>971</v>
+        <v>950</v>
       </c>
       <c r="O4" t="s">
-        <v>925</v>
+        <v>951</v>
       </c>
       <c r="P4" t="s">
-        <v>976</v>
+        <v>952</v>
       </c>
       <c r="Q4" t="s">
-        <v>977</v>
+        <v>913</v>
       </c>
       <c r="R4" t="s">
-        <v>978</v>
+        <v>953</v>
       </c>
       <c r="S4" t="s">
-        <v>925</v>
-      </c>
-      <c r="T4" t="s">
-        <v>949</v>
-      </c>
-      <c r="U4" t="s">
-        <v>979</v>
-      </c>
-      <c r="V4" t="s">
-        <v>961</v>
-      </c>
-      <c r="W4" t="s">
-        <v>980</v>
-      </c>
-      <c r="X4" t="s">
-        <v>938</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>957</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>981</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>982</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>983</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>984</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>985</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>983</v>
+        <v>917</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>890</v>
+        <v>954</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
+        <v>955</v>
+      </c>
+      <c r="C5" t="s">
+        <v>956</v>
+      </c>
+      <c r="D5" t="s">
+        <v>957</v>
+      </c>
+      <c r="E5" t="s">
+        <v>958</v>
+      </c>
       <c r="F5" t="s">
-        <v>986</v>
+        <v>959</v>
       </c>
       <c r="G5" t="s">
-        <v>979</v>
+        <v>960</v>
       </c>
       <c r="H5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="I5" t="s">
-        <v>987</v>
+        <v>961</v>
       </c>
       <c r="J5" t="s">
-        <v>988</v>
+        <v>962</v>
       </c>
       <c r="K5" t="s">
         <v>963</v>
       </c>
       <c r="L5" t="s">
-        <v>931</v>
+        <v>964</v>
       </c>
       <c r="M5" t="s">
-        <v>932</v>
+        <v>965</v>
       </c>
       <c r="N5" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="O5" t="s">
-        <v>925</v>
+        <v>967</v>
       </c>
       <c r="P5" t="s">
-        <v>977</v>
+        <v>913</v>
       </c>
       <c r="Q5" t="s">
-        <v>922</v>
+        <v>968</v>
       </c>
       <c r="R5" t="s">
-        <v>990</v>
+        <v>969</v>
       </c>
       <c r="S5" t="s">
-        <v>991</v>
-      </c>
-      <c r="T5" t="s">
-        <v>992</v>
-      </c>
-      <c r="U5" t="s">
-        <v>925</v>
-      </c>
-      <c r="V5" t="s">
-        <v>993</v>
-      </c>
-      <c r="W5" t="s">
-        <v>994</v>
-      </c>
-      <c r="X5" t="s">
-        <v>995</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>996</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>998</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>997</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>999</v>
+        <v>970</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>891</v>
+        <v>971</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
+        <v>972</v>
+      </c>
+      <c r="C6" t="s">
+        <v>959</v>
+      </c>
+      <c r="D6" t="s">
+        <v>973</v>
+      </c>
+      <c r="E6" t="s">
+        <v>974</v>
+      </c>
+      <c r="F6" t="s">
+        <v>975</v>
+      </c>
       <c r="G6" t="s">
-        <v>1000</v>
+        <v>976</v>
       </c>
       <c r="H6" t="s">
-        <v>1001</v>
+        <v>977</v>
       </c>
       <c r="I6" t="s">
-        <v>935</v>
+        <v>978</v>
       </c>
       <c r="J6" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="K6" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="L6" t="s">
-        <v>931</v>
+        <v>981</v>
       </c>
       <c r="M6" t="s">
-        <v>1003</v>
+        <v>982</v>
       </c>
       <c r="N6" t="s">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="O6" t="s">
-        <v>1005</v>
+        <v>913</v>
       </c>
       <c r="P6" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
       <c r="Q6" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
       <c r="R6" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
       <c r="S6" t="s">
-        <v>1009</v>
-      </c>
-      <c r="T6" t="s">
-        <v>1003</v>
-      </c>
-      <c r="U6" t="s">
-        <v>1010</v>
-      </c>
-      <c r="V6" t="s">
-        <v>952</v>
-      </c>
-      <c r="W6" t="s">
-        <v>1011</v>
-      </c>
-      <c r="X6" t="s">
-        <v>1012</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>925</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>1013</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>1015</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>892</v>
+        <v>988</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
+        <v>989</v>
+      </c>
+      <c r="C7" t="s">
+        <v>960</v>
+      </c>
+      <c r="D7" t="s">
+        <v>990</v>
+      </c>
+      <c r="E7" t="s">
+        <v>973</v>
+      </c>
+      <c r="F7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G7" t="s">
+        <v>954</v>
+      </c>
       <c r="H7" t="s">
-        <v>1019</v>
+        <v>992</v>
       </c>
       <c r="I7" t="s">
-        <v>928</v>
+        <v>993</v>
       </c>
       <c r="J7" t="s">
-        <v>957</v>
+        <v>994</v>
       </c>
       <c r="K7" t="s">
-        <v>1020</v>
+        <v>958</v>
       </c>
       <c r="L7" t="s">
-        <v>930</v>
+        <v>995</v>
       </c>
       <c r="M7" t="s">
-        <v>1021</v>
+        <v>996</v>
       </c>
       <c r="N7" t="s">
-        <v>1022</v>
+        <v>913</v>
       </c>
       <c r="O7" t="s">
-        <v>1023</v>
+        <v>997</v>
       </c>
       <c r="P7" t="s">
-        <v>950</v>
+        <v>998</v>
       </c>
       <c r="Q7" t="s">
-        <v>1024</v>
+        <v>999</v>
       </c>
       <c r="R7" t="s">
-        <v>1025</v>
+        <v>936</v>
       </c>
       <c r="S7" t="s">
-        <v>922</v>
-      </c>
-      <c r="T7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="U7" t="s">
-        <v>1027</v>
-      </c>
-      <c r="V7" t="s">
-        <v>958</v>
-      </c>
-      <c r="W7" t="s">
-        <v>1020</v>
-      </c>
-      <c r="X7" t="s">
-        <v>957</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>1028</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>1029</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>1031</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>1032</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>893</v>
+        <v>961</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>979</v>
+      </c>
+      <c r="D8" t="s">
+        <v>954</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G8" t="s">
+        <v>988</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1004</v>
+      </c>
       <c r="I8" t="s">
-        <v>1035</v>
+        <v>1005</v>
       </c>
       <c r="J8" t="s">
-        <v>931</v>
+        <v>1006</v>
       </c>
       <c r="K8" t="s">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="L8" t="s">
-        <v>1037</v>
+        <v>1007</v>
       </c>
       <c r="M8" t="s">
-        <v>1038</v>
+        <v>913</v>
       </c>
       <c r="N8" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="O8" t="s">
-        <v>958</v>
+        <v>1009</v>
       </c>
       <c r="P8" t="s">
-        <v>1019</v>
+        <v>1010</v>
       </c>
       <c r="Q8" t="s">
-        <v>952</v>
+        <v>1011</v>
       </c>
       <c r="R8" t="s">
-        <v>1040</v>
+        <v>1012</v>
       </c>
       <c r="S8" t="s">
-        <v>990</v>
-      </c>
-      <c r="T8" t="s">
-        <v>1007</v>
-      </c>
-      <c r="U8" t="s">
-        <v>925</v>
-      </c>
-      <c r="V8" t="s">
-        <v>1041</v>
-      </c>
-      <c r="W8" t="s">
-        <v>1042</v>
-      </c>
-      <c r="X8" t="s">
-        <v>1043</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>1022</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>1044</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>943</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>1046</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>1048</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>894</v>
+        <v>1014</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9"/>
-      <c r="I9"/>
+        <v>988</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1021</v>
+      </c>
       <c r="J9" t="s">
-        <v>1049</v>
+        <v>1022</v>
       </c>
       <c r="K9" t="s">
-        <v>1050</v>
+        <v>1023</v>
       </c>
       <c r="L9" t="s">
-        <v>1051</v>
+        <v>913</v>
       </c>
       <c r="M9" t="s">
-        <v>960</v>
+        <v>1024</v>
       </c>
       <c r="N9" t="s">
-        <v>924</v>
+        <v>1025</v>
       </c>
       <c r="O9" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="P9" t="s">
-        <v>1052</v>
+        <v>1027</v>
       </c>
       <c r="Q9" t="s">
-        <v>920</v>
+        <v>1028</v>
       </c>
       <c r="R9" t="s">
-        <v>956</v>
+        <v>1029</v>
       </c>
       <c r="S9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="T9" t="s">
-        <v>1054</v>
-      </c>
-      <c r="U9" t="s">
-        <v>921</v>
-      </c>
-      <c r="V9" t="s">
-        <v>1053</v>
-      </c>
-      <c r="W9" t="s">
-        <v>1055</v>
-      </c>
-      <c r="X9" t="s">
-        <v>1056</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>1060</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>1062</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>895</v>
+        <v>1031</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
+        <v>1032</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D10" t="s">
+        <v>958</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H10" t="s">
+        <v>981</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J10" t="s">
+        <v>957</v>
+      </c>
       <c r="K10" t="s">
-        <v>961</v>
+        <v>913</v>
       </c>
       <c r="L10" t="s">
-        <v>1063</v>
+        <v>1036</v>
       </c>
       <c r="M10" t="s">
-        <v>1064</v>
+        <v>1009</v>
       </c>
       <c r="N10" t="s">
-        <v>1065</v>
+        <v>1037</v>
       </c>
       <c r="O10" t="s">
-        <v>963</v>
+        <v>1038</v>
       </c>
       <c r="P10" t="s">
-        <v>948</v>
+        <v>1039</v>
       </c>
       <c r="Q10" t="s">
-        <v>1066</v>
+        <v>1040</v>
       </c>
       <c r="R10" t="s">
-        <v>979</v>
+        <v>1041</v>
       </c>
       <c r="S10" t="s">
-        <v>994</v>
-      </c>
-      <c r="T10" t="s">
-        <v>1067</v>
-      </c>
-      <c r="U10" t="s">
-        <v>1068</v>
-      </c>
-      <c r="V10" t="s">
-        <v>1069</v>
-      </c>
-      <c r="W10" t="s">
-        <v>949</v>
-      </c>
-      <c r="X10" t="s">
-        <v>1070</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>1071</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>1072</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>1074</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>1075</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>1077</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>896</v>
+        <v>1043</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11"/>
-      <c r="K11"/>
+        <v>1044</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H11" t="s">
+        <v>961</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1031</v>
+      </c>
+      <c r="J11" t="s">
+        <v>913</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1049</v>
+      </c>
       <c r="L11" t="s">
-        <v>1069</v>
+        <v>1050</v>
       </c>
       <c r="M11" t="s">
-        <v>1019</v>
+        <v>1051</v>
       </c>
       <c r="N11" t="s">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="O11" t="s">
-        <v>1078</v>
+        <v>1053</v>
       </c>
       <c r="P11" t="s">
-        <v>1023</v>
+        <v>1054</v>
       </c>
       <c r="Q11" t="s">
-        <v>1023</v>
+        <v>1055</v>
       </c>
       <c r="R11" t="s">
-        <v>993</v>
+        <v>1056</v>
       </c>
       <c r="S11" t="s">
-        <v>1079</v>
-      </c>
-      <c r="T11" t="s">
-        <v>931</v>
-      </c>
-      <c r="U11" t="s">
-        <v>993</v>
-      </c>
-      <c r="V11" t="s">
-        <v>1023</v>
-      </c>
-      <c r="W11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="X11" t="s">
-        <v>952</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>1019</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>997</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>997</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>997</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>997</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>1082</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>897</v>
+        <v>1006</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
+        <v>960</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D12" t="s">
+        <v>954</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I12" t="s">
+        <v>913</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="L12" t="s">
+        <v>997</v>
+      </c>
       <c r="M12" t="s">
-        <v>1051</v>
+        <v>1008</v>
       </c>
       <c r="N12" t="s">
-        <v>947</v>
+        <v>1065</v>
       </c>
       <c r="O12" t="s">
-        <v>934</v>
+        <v>1053</v>
       </c>
       <c r="P12" t="s">
-        <v>934</v>
+        <v>1066</v>
       </c>
       <c r="Q12" t="s">
-        <v>1083</v>
+        <v>1067</v>
       </c>
       <c r="R12" t="s">
-        <v>1084</v>
+        <v>1068</v>
       </c>
       <c r="S12" t="s">
-        <v>1085</v>
-      </c>
-      <c r="T12" t="s">
-        <v>930</v>
-      </c>
-      <c r="U12" t="s">
-        <v>992</v>
-      </c>
-      <c r="V12" t="s">
-        <v>1086</v>
-      </c>
-      <c r="W12" t="s">
-        <v>989</v>
-      </c>
-      <c r="X12" t="s">
-        <v>949</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>928</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>1091</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>898</v>
+        <v>1070</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
+        <v>1070</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1071</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F13" t="s">
+        <v>982</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H13" t="s">
+        <v>913</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="M13" t="s">
+        <v>997</v>
+      </c>
       <c r="N13" t="s">
-        <v>1092</v>
+        <v>1077</v>
       </c>
       <c r="O13" t="s">
-        <v>1093</v>
+        <v>1078</v>
       </c>
       <c r="P13" t="s">
-        <v>986</v>
+        <v>1079</v>
       </c>
       <c r="Q13" t="s">
-        <v>1094</v>
+        <v>1080</v>
       </c>
       <c r="R13" t="s">
-        <v>1095</v>
+        <v>999</v>
       </c>
       <c r="S13" t="s">
-        <v>1096</v>
-      </c>
-      <c r="T13" t="s">
-        <v>1092</v>
-      </c>
-      <c r="U13" t="s">
-        <v>1097</v>
-      </c>
-      <c r="V13" t="s">
-        <v>1098</v>
-      </c>
-      <c r="W13" t="s">
-        <v>1099</v>
-      </c>
-      <c r="X13" t="s">
-        <v>988</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>1100</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>1105</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>899</v>
+        <v>1082</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
+        <v>963</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D14" t="s">
+        <v>958</v>
+      </c>
+      <c r="E14" t="s">
+        <v>976</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G14" t="s">
+        <v>913</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="L14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="M14" t="s">
+        <v>1087</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1049</v>
+      </c>
       <c r="O14" t="s">
-        <v>1106</v>
+        <v>1088</v>
       </c>
       <c r="P14" t="s">
-        <v>1107</v>
+        <v>1089</v>
       </c>
       <c r="Q14" t="s">
-        <v>987</v>
+        <v>1090</v>
       </c>
       <c r="R14" t="s">
-        <v>1108</v>
+        <v>1091</v>
       </c>
       <c r="S14" t="s">
-        <v>1109</v>
-      </c>
-      <c r="T14" t="s">
-        <v>1110</v>
-      </c>
-      <c r="U14" t="s">
-        <v>1111</v>
-      </c>
-      <c r="V14" t="s">
-        <v>1112</v>
-      </c>
-      <c r="W14" t="s">
-        <v>993</v>
-      </c>
-      <c r="X14" t="s">
-        <v>987</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>1113</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>1114</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>1115</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>1117</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>1118</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>1119</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>900</v>
+        <v>1092</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
+        <v>975</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F15" t="s">
+        <v>913</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1085</v>
+      </c>
+      <c r="I15" t="s">
+        <v>984</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1097</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M15" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1101</v>
+      </c>
       <c r="P15" t="s">
-        <v>1120</v>
+        <v>1102</v>
       </c>
       <c r="Q15" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="R15" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="S15" t="s">
-        <v>1121</v>
-      </c>
-      <c r="T15" t="s">
-        <v>1122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>1123</v>
-      </c>
-      <c r="V15" t="s">
-        <v>919</v>
-      </c>
-      <c r="W15" t="s">
-        <v>1124</v>
-      </c>
-      <c r="X15" t="s">
-        <v>936</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>1125</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>964</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>1127</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>1130</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>901</v>
+        <v>1106</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
+        <v>1107</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D16" t="s">
+        <v>994</v>
+      </c>
+      <c r="E16" t="s">
+        <v>913</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1112</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1113</v>
+      </c>
+      <c r="L16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="M16" t="s">
+        <v>1114</v>
+      </c>
+      <c r="N16" t="s">
+        <v>1115</v>
+      </c>
+      <c r="O16" t="s">
+        <v>1116</v>
+      </c>
+      <c r="P16" t="s">
+        <v>1117</v>
+      </c>
       <c r="Q16" t="s">
-        <v>1095</v>
+        <v>1118</v>
       </c>
       <c r="R16" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="S16" t="s">
-        <v>1132</v>
-      </c>
-      <c r="T16" t="s">
-        <v>1133</v>
-      </c>
-      <c r="U16" t="s">
-        <v>971</v>
-      </c>
-      <c r="V16" t="s">
-        <v>1134</v>
-      </c>
-      <c r="W16" t="s">
-        <v>1135</v>
-      </c>
-      <c r="X16" t="s">
-        <v>1004</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>1056</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>1137</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>1138</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>1140</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>1141</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>902</v>
+        <v>1021</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
+        <v>1120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D17" t="s">
+        <v>913</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1123</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1085</v>
+      </c>
+      <c r="P17" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>1128</v>
+      </c>
       <c r="R17" t="s">
-        <v>1142</v>
+        <v>1129</v>
       </c>
       <c r="S17" t="s">
-        <v>1143</v>
-      </c>
-      <c r="T17" t="s">
-        <v>1144</v>
-      </c>
-      <c r="U17" t="s">
-        <v>1145</v>
-      </c>
-      <c r="V17" t="s">
-        <v>1146</v>
-      </c>
-      <c r="W17" t="s">
-        <v>1147</v>
-      </c>
-      <c r="X17" t="s">
-        <v>1042</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>1148</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>1149</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>1150</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>903</v>
+        <v>1131</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18"/>
-      <c r="I18"/>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
+        <v>1132</v>
+      </c>
+      <c r="C18" t="s">
+        <v>913</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1137</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P18" t="s">
+        <v>1140</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="R18" t="s">
+        <v>1029</v>
+      </c>
       <c r="S18" t="s">
-        <v>1151</v>
-      </c>
-      <c r="T18" t="s">
-        <v>947</v>
-      </c>
-      <c r="U18" t="s">
-        <v>1107</v>
-      </c>
-      <c r="V18" t="s">
-        <v>1152</v>
-      </c>
-      <c r="W18" t="s">
-        <v>1042</v>
-      </c>
-      <c r="X18" t="s">
-        <v>924</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>1153</v>
-      </c>
-      <c r="Z18" t="s">
-        <v>1058</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>1059</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>1154</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>1061</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>944</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>1155</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>904</v>
+        <v>1142</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19" t="s">
-        <v>1142</v>
-      </c>
-      <c r="U19" t="s">
-        <v>1156</v>
-      </c>
-      <c r="V19" t="s">
-        <v>1157</v>
-      </c>
-      <c r="W19" t="s">
-        <v>1158</v>
-      </c>
-      <c r="X19" t="s">
-        <v>922</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>1159</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>1160</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>1162</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>1163</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>1164</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>943</v>
+        <v>913</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1143</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1126</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L19" t="s">
+        <v>997</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1150</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1151</v>
+      </c>
+      <c r="P19" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1153</v>
+      </c>
+      <c r="R19" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S19" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="B20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20" t="s">
-        <v>1110</v>
-      </c>
-      <c r="V20" t="s">
-        <v>1165</v>
-      </c>
-      <c r="W20" t="s">
-        <v>971</v>
-      </c>
-      <c r="X20" t="s">
-        <v>991</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>1153</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>1166</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>1168</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>1169</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>906</v>
-      </c>
-      <c r="B21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21" t="s">
-        <v>954</v>
-      </c>
-      <c r="W21" t="s">
-        <v>1124</v>
-      </c>
-      <c r="X21" t="s">
-        <v>931</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>964</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>1128</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>1129</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>907</v>
-      </c>
-      <c r="B22" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22" t="s">
-        <v>1175</v>
-      </c>
-      <c r="X22" t="s">
-        <v>952</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>958</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>1014</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>1176</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>908</v>
-      </c>
-      <c r="B23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23" t="s">
-        <v>1177</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>1178</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>1126</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>1179</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>1180</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>1181</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>909</v>
-      </c>
-      <c r="B24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>1167</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>1047</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>1184</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>1185</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>910</v>
-      </c>
-      <c r="B25" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25" t="s">
-        <v>1187</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>1188</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>1174</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>1139</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>1189</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>911</v>
-      </c>
-      <c r="B26" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AB26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1158</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1159</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1160</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1161</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1117</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1102</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1146</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1162</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1163</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1069</v>
+      </c>
+      <c r="R20" t="s">
         <v>1164</v>
       </c>
-      <c r="AC26" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>912</v>
-      </c>
-      <c r="B27" t="s">
-        <v>163</v>
-      </c>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27" t="s">
-        <v>1193</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>1194</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>913</v>
-      </c>
-      <c r="B28" t="s">
-        <v>163</v>
-      </c>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28" t="s">
-        <v>1170</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>914</v>
-      </c>
-      <c r="B29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29"/>
-      <c r="I29"/>
-      <c r="J29"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AC29"/>
-      <c r="AD29" t="s">
-        <v>1073</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>915</v>
-      </c>
-      <c r="B30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
-      <c r="J30"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-      <c r="AE30" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>917</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1199</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1200</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1201</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1202</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1203</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1204</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1205</v>
-      </c>
-      <c r="K31" t="s">
-        <v>1206</v>
-      </c>
-      <c r="L31" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M31" t="s">
-        <v>1208</v>
-      </c>
-      <c r="N31" t="s">
-        <v>1209</v>
-      </c>
-      <c r="O31" t="s">
-        <v>1210</v>
-      </c>
-      <c r="P31" t="s">
-        <v>1211</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>1212</v>
-      </c>
-      <c r="R31" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S31" t="s">
-        <v>1213</v>
-      </c>
-      <c r="T31" t="s">
-        <v>1214</v>
-      </c>
-      <c r="U31" t="s">
-        <v>1215</v>
-      </c>
-      <c r="V31" t="s">
-        <v>1216</v>
-      </c>
-      <c r="W31" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X31" t="s">
-        <v>1218</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>1219</v>
-      </c>
-      <c r="Z31" t="s">
-        <v>1220</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>1221</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>1222</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>1223</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>888</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1227</v>
-      </c>
-      <c r="F32" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G32" t="s">
-        <v>1229</v>
-      </c>
-      <c r="H32" t="s">
-        <v>1200</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1230</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K32" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L32" t="s">
-        <v>1213</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1233</v>
-      </c>
-      <c r="N32" t="s">
-        <v>1234</v>
-      </c>
-      <c r="O32" t="s">
-        <v>1235</v>
-      </c>
-      <c r="P32" t="s">
-        <v>1236</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>1237</v>
-      </c>
-      <c r="R32" t="s">
-        <v>1238</v>
-      </c>
-      <c r="S32" t="s">
-        <v>1239</v>
-      </c>
-      <c r="T32" t="s">
-        <v>1199</v>
-      </c>
-      <c r="U32" t="s">
-        <v>1240</v>
-      </c>
-      <c r="V32" t="s">
-        <v>1241</v>
-      </c>
-      <c r="W32" t="s">
-        <v>1242</v>
-      </c>
-      <c r="X32" t="s">
-        <v>1243</v>
-      </c>
-      <c r="Y32" t="s">
-        <v>1204</v>
-      </c>
-      <c r="Z32" t="s">
-        <v>1244</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AB32" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AC32" t="s">
-        <v>1247</v>
-      </c>
-      <c r="AD32" t="s">
-        <v>1224</v>
-      </c>
-      <c r="AE32" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>889</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F33" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G33" t="s">
-        <v>1251</v>
-      </c>
-      <c r="H33" t="s">
-        <v>1212</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1252</v>
-      </c>
-      <c r="J33" t="s">
-        <v>1249</v>
-      </c>
-      <c r="K33" t="s">
-        <v>1251</v>
-      </c>
-      <c r="L33" t="s">
-        <v>1253</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1254</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1255</v>
-      </c>
-      <c r="O33" t="s">
-        <v>1256</v>
-      </c>
-      <c r="P33" t="s">
-        <v>1257</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>1258</v>
-      </c>
-      <c r="R33" t="s">
-        <v>1259</v>
-      </c>
-      <c r="S33" t="s">
-        <v>1260</v>
-      </c>
-      <c r="T33" t="s">
-        <v>1261</v>
-      </c>
-      <c r="U33" t="s">
-        <v>1262</v>
-      </c>
-      <c r="V33" t="s">
-        <v>1263</v>
-      </c>
-      <c r="W33" t="s">
-        <v>1264</v>
-      </c>
-      <c r="X33" t="s">
-        <v>1253</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>1265</v>
-      </c>
-      <c r="Z33" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AA33" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB33" t="s">
-        <v>1268</v>
-      </c>
-      <c r="AC33" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD33" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE33" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>890</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>1272</v>
-      </c>
-      <c r="G34" t="s">
-        <v>1273</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1274</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1275</v>
-      </c>
-      <c r="K34" t="s">
-        <v>1276</v>
-      </c>
-      <c r="L34" t="s">
-        <v>1277</v>
-      </c>
-      <c r="M34" t="s">
-        <v>1278</v>
-      </c>
-      <c r="N34" t="s">
-        <v>1207</v>
-      </c>
-      <c r="O34" t="s">
-        <v>1263</v>
-      </c>
-      <c r="P34" t="s">
-        <v>1254</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>1279</v>
-      </c>
-      <c r="R34" t="s">
-        <v>1250</v>
-      </c>
-      <c r="S34" t="s">
-        <v>1280</v>
-      </c>
-      <c r="T34" t="s">
-        <v>1250</v>
-      </c>
-      <c r="U34" t="s">
-        <v>1281</v>
-      </c>
-      <c r="V34" t="s">
-        <v>1274</v>
-      </c>
-      <c r="W34" t="s">
-        <v>1218</v>
-      </c>
-      <c r="X34" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>1282</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>1283</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>1284</v>
-      </c>
-      <c r="AC34" t="s">
-        <v>1285</v>
-      </c>
-      <c r="AD34" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AE34" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>891</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35" t="s">
-        <v>1288</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1289</v>
-      </c>
-      <c r="I35" t="s">
-        <v>1255</v>
-      </c>
-      <c r="J35" t="s">
-        <v>1290</v>
-      </c>
-      <c r="K35" t="s">
-        <v>1256</v>
-      </c>
-      <c r="L35" t="s">
-        <v>1291</v>
-      </c>
-      <c r="M35" t="s">
-        <v>1205</v>
-      </c>
-      <c r="N35" t="s">
-        <v>1292</v>
-      </c>
-      <c r="O35" t="s">
-        <v>1293</v>
-      </c>
-      <c r="P35" t="s">
-        <v>1294</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>1295</v>
-      </c>
-      <c r="R35" t="s">
-        <v>1296</v>
-      </c>
-      <c r="S35" t="s">
-        <v>1199</v>
-      </c>
-      <c r="T35" t="s">
-        <v>1265</v>
-      </c>
-      <c r="U35" t="s">
-        <v>1261</v>
-      </c>
-      <c r="V35" t="s">
-        <v>1274</v>
-      </c>
-      <c r="W35" t="s">
-        <v>1297</v>
-      </c>
-      <c r="X35" t="s">
-        <v>1274</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>1298</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AA35" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AB35" t="s">
-        <v>1301</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>892</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I36" t="s">
-        <v>1305</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1306</v>
-      </c>
-      <c r="K36" t="s">
-        <v>1307</v>
-      </c>
-      <c r="L36" t="s">
-        <v>1308</v>
-      </c>
-      <c r="M36" t="s">
-        <v>1273</v>
-      </c>
-      <c r="N36" t="s">
-        <v>1251</v>
-      </c>
-      <c r="O36" t="s">
-        <v>1309</v>
-      </c>
-      <c r="P36" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>1252</v>
-      </c>
-      <c r="R36" t="s">
-        <v>1208</v>
-      </c>
-      <c r="S36" t="s">
-        <v>1310</v>
-      </c>
-      <c r="T36" t="s">
-        <v>1249</v>
-      </c>
-      <c r="U36" t="s">
-        <v>1292</v>
-      </c>
-      <c r="V36" t="s">
-        <v>1311</v>
-      </c>
-      <c r="W36" t="s">
-        <v>1206</v>
-      </c>
-      <c r="X36" t="s">
-        <v>1312</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>1313</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>1314</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>1316</v>
-      </c>
-      <c r="AC36" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AE36" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>893</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37"/>
-      <c r="I37" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J37" t="s">
-        <v>1320</v>
-      </c>
-      <c r="K37" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L37" t="s">
-        <v>1274</v>
-      </c>
-      <c r="M37" t="s">
-        <v>1322</v>
-      </c>
-      <c r="N37" t="s">
-        <v>1323</v>
-      </c>
-      <c r="O37" t="s">
-        <v>1242</v>
-      </c>
-      <c r="P37" t="s">
-        <v>1324</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>1243</v>
-      </c>
-      <c r="R37" t="s">
-        <v>1325</v>
-      </c>
-      <c r="S37" t="s">
-        <v>1298</v>
-      </c>
-      <c r="T37" t="s">
-        <v>1326</v>
-      </c>
-      <c r="U37" t="s">
-        <v>1229</v>
-      </c>
-      <c r="V37" t="s">
-        <v>1307</v>
-      </c>
-      <c r="W37" t="s">
-        <v>1327</v>
-      </c>
-      <c r="X37" t="s">
-        <v>1328</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>1329</v>
-      </c>
-      <c r="Z37" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>1331</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AC37" t="s">
-        <v>1333</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AE37" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>894</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38" t="s">
-        <v>1336</v>
-      </c>
-      <c r="K38" t="s">
-        <v>1337</v>
-      </c>
-      <c r="L38" t="s">
-        <v>1338</v>
-      </c>
-      <c r="M38" t="s">
-        <v>1339</v>
-      </c>
-      <c r="N38" t="s">
-        <v>1340</v>
-      </c>
-      <c r="O38" t="s">
-        <v>1243</v>
-      </c>
-      <c r="P38" t="s">
-        <v>1199</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>1240</v>
-      </c>
-      <c r="R38" t="s">
-        <v>1261</v>
-      </c>
-      <c r="S38" t="s">
-        <v>1341</v>
-      </c>
-      <c r="T38" t="s">
-        <v>1342</v>
-      </c>
-      <c r="U38" t="s">
-        <v>1242</v>
-      </c>
-      <c r="V38" t="s">
-        <v>1343</v>
-      </c>
-      <c r="W38" t="s">
-        <v>1256</v>
-      </c>
-      <c r="X38" t="s">
-        <v>1344</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>1345</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>1346</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>1347</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>1348</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>1349</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>895</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39" t="s">
-        <v>1261</v>
-      </c>
-      <c r="L39" t="s">
-        <v>1341</v>
-      </c>
-      <c r="M39" t="s">
-        <v>1351</v>
-      </c>
-      <c r="N39" t="s">
-        <v>1352</v>
-      </c>
-      <c r="O39" t="s">
-        <v>1353</v>
-      </c>
-      <c r="P39" t="s">
-        <v>1206</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>1208</v>
-      </c>
-      <c r="R39" t="s">
-        <v>1354</v>
-      </c>
-      <c r="S39" t="s">
-        <v>1355</v>
-      </c>
-      <c r="T39" t="s">
-        <v>1327</v>
-      </c>
-      <c r="U39" t="s">
-        <v>1356</v>
-      </c>
-      <c r="V39" t="s">
-        <v>1338</v>
-      </c>
-      <c r="W39" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X39" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>1249</v>
-      </c>
-      <c r="Z39" t="s">
-        <v>1357</v>
-      </c>
-      <c r="AA39" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AB39" t="s">
-        <v>1334</v>
-      </c>
-      <c r="AC39" t="s">
-        <v>1358</v>
-      </c>
-      <c r="AD39" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AE39" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>896</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40" t="s">
-        <v>1313</v>
-      </c>
-      <c r="M40" t="s">
-        <v>1360</v>
-      </c>
-      <c r="N40" t="s">
-        <v>1352</v>
-      </c>
-      <c r="O40" t="s">
-        <v>1312</v>
-      </c>
-      <c r="P40" t="s">
-        <v>1352</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>1327</v>
-      </c>
-      <c r="R40" t="s">
-        <v>1277</v>
-      </c>
-      <c r="S40" t="s">
-        <v>1294</v>
-      </c>
-      <c r="T40" t="s">
-        <v>1361</v>
-      </c>
-      <c r="U40" t="s">
-        <v>1277</v>
-      </c>
-      <c r="V40" t="s">
-        <v>1265</v>
-      </c>
-      <c r="W40" t="s">
-        <v>1362</v>
-      </c>
-      <c r="X40" t="s">
-        <v>1297</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>1327</v>
-      </c>
-      <c r="Z40" t="s">
-        <v>1317</v>
-      </c>
-      <c r="AA40" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AB40" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AC40" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AD40" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AE40" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>897</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41"/>
-      <c r="I41"/>
-      <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41" t="s">
-        <v>1368</v>
-      </c>
-      <c r="N41" t="s">
-        <v>1306</v>
-      </c>
-      <c r="O41" t="s">
-        <v>1274</v>
-      </c>
-      <c r="P41" t="s">
-        <v>1369</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>1322</v>
-      </c>
-      <c r="R41" t="s">
-        <v>1369</v>
-      </c>
-      <c r="S41" t="s">
-        <v>1261</v>
-      </c>
-      <c r="T41" t="s">
-        <v>1204</v>
-      </c>
-      <c r="U41" t="s">
-        <v>1307</v>
-      </c>
-      <c r="V41" t="s">
-        <v>1213</v>
-      </c>
-      <c r="W41" t="s">
-        <v>1213</v>
-      </c>
-      <c r="X41" t="s">
-        <v>1310</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Z41" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>1370</v>
-      </c>
-      <c r="AB41" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AC41" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AD41" t="s">
-        <v>1372</v>
-      </c>
-      <c r="AE41" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>898</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42" t="s">
-        <v>1327</v>
-      </c>
-      <c r="O42" t="s">
-        <v>1374</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1375</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>1241</v>
-      </c>
-      <c r="R42" t="s">
-        <v>1201</v>
-      </c>
-      <c r="S42" t="s">
-        <v>1321</v>
-      </c>
-      <c r="T42" t="s">
-        <v>1274</v>
-      </c>
-      <c r="U42" t="s">
-        <v>1355</v>
-      </c>
-      <c r="V42" t="s">
-        <v>1376</v>
-      </c>
-      <c r="W42" t="s">
-        <v>1377</v>
-      </c>
-      <c r="X42" t="s">
-        <v>1378</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>1379</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>1248</v>
-      </c>
-      <c r="AA42" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>1381</v>
-      </c>
-      <c r="AC42" t="s">
-        <v>1382</v>
-      </c>
-      <c r="AD42" t="s">
-        <v>1383</v>
-      </c>
-      <c r="AE42" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>899</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43"/>
-      <c r="I43"/>
-      <c r="J43"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43" t="s">
-        <v>1336</v>
-      </c>
-      <c r="P43" t="s">
-        <v>1306</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>1385</v>
-      </c>
-      <c r="R43" t="s">
-        <v>1204</v>
-      </c>
-      <c r="S43" t="s">
-        <v>1386</v>
-      </c>
-      <c r="T43" t="s">
-        <v>1387</v>
-      </c>
-      <c r="U43" t="s">
-        <v>1313</v>
-      </c>
-      <c r="V43" t="s">
-        <v>1388</v>
-      </c>
-      <c r="W43" t="s">
-        <v>1389</v>
-      </c>
-      <c r="X43" t="s">
-        <v>1339</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>1217</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AA43" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AB43" t="s">
-        <v>1246</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>1391</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>1392</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>900</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44" t="s">
-        <v>1394</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>1257</v>
-      </c>
-      <c r="R44" t="s">
-        <v>1321</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1395</v>
-      </c>
-      <c r="T44" t="s">
-        <v>1200</v>
-      </c>
-      <c r="U44" t="s">
-        <v>1396</v>
-      </c>
-      <c r="V44" t="s">
-        <v>1397</v>
-      </c>
-      <c r="W44" t="s">
-        <v>1226</v>
-      </c>
-      <c r="X44" t="s">
-        <v>1240</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>1398</v>
-      </c>
-      <c r="Z44" t="s">
-        <v>1399</v>
-      </c>
-      <c r="AA44" t="s">
-        <v>1400</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>1401</v>
-      </c>
-      <c r="AC44" t="s">
-        <v>1402</v>
-      </c>
-      <c r="AD44" t="s">
-        <v>1403</v>
-      </c>
-      <c r="AE44" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>901</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45" t="s">
-        <v>1404</v>
-      </c>
-      <c r="R45" t="s">
-        <v>1237</v>
-      </c>
-      <c r="S45" t="s">
-        <v>1405</v>
-      </c>
-      <c r="T45" t="s">
-        <v>1310</v>
-      </c>
-      <c r="U45" t="s">
-        <v>1259</v>
-      </c>
-      <c r="V45" t="s">
-        <v>1313</v>
-      </c>
-      <c r="W45" t="s">
-        <v>1281</v>
-      </c>
-      <c r="X45" t="s">
-        <v>1406</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>1281</v>
-      </c>
-      <c r="Z45" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>1407</v>
-      </c>
-      <c r="AC45" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD45" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE45" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>902</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46" t="s">
-        <v>1328</v>
-      </c>
-      <c r="S46" t="s">
-        <v>1404</v>
-      </c>
-      <c r="T46" t="s">
-        <v>1200</v>
-      </c>
-      <c r="U46" t="s">
-        <v>1409</v>
-      </c>
-      <c r="V46" t="s">
-        <v>1410</v>
-      </c>
-      <c r="W46" t="s">
-        <v>1321</v>
-      </c>
-      <c r="X46" t="s">
-        <v>1374</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>1210</v>
-      </c>
-      <c r="Z46" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB46" t="s">
-        <v>1332</v>
-      </c>
-      <c r="AC46" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD46" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE46" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>903</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47"/>
-      <c r="I47"/>
-      <c r="J47"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47" t="s">
-        <v>1412</v>
-      </c>
-      <c r="T47" t="s">
-        <v>1265</v>
-      </c>
-      <c r="U47" t="s">
-        <v>1376</v>
-      </c>
-      <c r="V47" t="s">
-        <v>1413</v>
-      </c>
-      <c r="W47" t="s">
-        <v>1341</v>
-      </c>
-      <c r="X47" t="s">
-        <v>1277</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>1200</v>
-      </c>
-      <c r="Z47" t="s">
-        <v>1414</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>1415</v>
-      </c>
-      <c r="AB47" t="s">
-        <v>1416</v>
-      </c>
-      <c r="AC47" t="s">
-        <v>1245</v>
-      </c>
-      <c r="AD47" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AE47" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>904</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48" t="s">
-        <v>1199</v>
-      </c>
-      <c r="U48" t="s">
-        <v>1419</v>
-      </c>
-      <c r="V48" t="s">
-        <v>1313</v>
-      </c>
-      <c r="W48" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X48" t="s">
-        <v>1420</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Z48" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AA48" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB48" t="s">
-        <v>1318</v>
-      </c>
-      <c r="AC48" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD48" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE48" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>905</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49"/>
-      <c r="I49"/>
-      <c r="J49"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49" t="s">
-        <v>1281</v>
-      </c>
-      <c r="V49" t="s">
-        <v>1422</v>
-      </c>
-      <c r="W49" t="s">
-        <v>1217</v>
-      </c>
-      <c r="X49" t="s">
-        <v>1262</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>1213</v>
-      </c>
-      <c r="Z49" t="s">
-        <v>1286</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>1423</v>
-      </c>
-      <c r="AC49" t="s">
-        <v>1391</v>
-      </c>
-      <c r="AD49" t="s">
-        <v>1390</v>
-      </c>
-      <c r="AE49" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s">
-        <v>906</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-      <c r="J50"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W50" t="s">
-        <v>1293</v>
-      </c>
-      <c r="X50" t="s">
-        <v>1230</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>1229</v>
-      </c>
-      <c r="Z50" t="s">
-        <v>1266</v>
-      </c>
-      <c r="AA50" t="s">
-        <v>1267</v>
-      </c>
-      <c r="AB50" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AC50" t="s">
-        <v>1269</v>
-      </c>
-      <c r="AD50" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE50" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="s">
-        <v>907</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51"/>
-      <c r="I51"/>
-      <c r="J51"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51" t="s">
-        <v>1427</v>
-      </c>
-      <c r="X51" t="s">
-        <v>1339</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>1313</v>
-      </c>
-      <c r="Z51" t="s">
-        <v>1319</v>
-      </c>
-      <c r="AA51" t="s">
-        <v>1428</v>
-      </c>
-      <c r="AB51" t="s">
-        <v>1363</v>
-      </c>
-      <c r="AC51" t="s">
-        <v>1429</v>
-      </c>
-      <c r="AD51" t="s">
-        <v>1371</v>
-      </c>
-      <c r="AE51" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s">
-        <v>908</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52" t="s">
-        <v>1430</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>1228</v>
-      </c>
-      <c r="Z52" t="s">
-        <v>1299</v>
-      </c>
-      <c r="AA52" t="s">
-        <v>1300</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>1431</v>
-      </c>
-      <c r="AC52" t="s">
-        <v>1302</v>
-      </c>
-      <c r="AD52" t="s">
-        <v>1270</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="s">
-        <v>909</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53" t="s">
-        <v>1304</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>1432</v>
-      </c>
-      <c r="AA53" t="s">
-        <v>1433</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>1434</v>
-      </c>
-      <c r="AC53" t="s">
-        <v>1435</v>
-      </c>
-      <c r="AD53" t="s">
-        <v>1436</v>
-      </c>
-      <c r="AE53" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s">
-        <v>910</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54" t="s">
-        <v>1437</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AB54" t="s">
-        <v>1438</v>
-      </c>
-      <c r="AC54" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AD54" t="s">
-        <v>1440</v>
-      </c>
-      <c r="AE54" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>911</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55" t="s">
-        <v>1402</v>
-      </c>
-      <c r="AB55" t="s">
-        <v>1441</v>
-      </c>
-      <c r="AC55" t="s">
-        <v>1442</v>
-      </c>
-      <c r="AD55" t="s">
-        <v>1366</v>
-      </c>
-      <c r="AE55" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s">
-        <v>912</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56"/>
-      <c r="I56"/>
-      <c r="J56"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56" t="s">
-        <v>981</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>1444</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>1365</v>
-      </c>
-      <c r="AE56" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s">
-        <v>913</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AC57" t="s">
-        <v>941</v>
-      </c>
-      <c r="AD57" t="s">
-        <v>1445</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s">
-        <v>914</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58"/>
-      <c r="I58"/>
-      <c r="J58"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AC58"/>
-      <c r="AD58" t="s">
-        <v>1439</v>
-      </c>
-      <c r="AE58" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="s">
-        <v>915</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59"/>
-      <c r="I59"/>
-      <c r="J59"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
-      <c r="AE59" t="s">
-        <v>1185</v>
+      <c r="S20" t="s">
+        <v>1155</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -433,1411 +433,1411 @@
     <t xml:space="preserve">0.81</t>
   </si>
   <si>
-    <t xml:space="preserve">748.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">811.45</t>
+    <t xml:space="preserve">768.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">832.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">793.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">857.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1014.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1078.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">989.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1053.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">897.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1134.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1197.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">983.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1047.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">970.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1034.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">393.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">433.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483.39</t>
   </si>
   <si>
     <t xml:space="preserve">0.18</t>
   </si>
   <si>
-    <t xml:space="preserve">0.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">765.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">828.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">939.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1002.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">930.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">992.89</t>
+    <t xml:space="preserve">508.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">504.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">544.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">667.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">707.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">529.08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">568.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">498.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">538.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logLik</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L.Ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between_Variance_Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between_Variance_ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within_Variance_Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Within_Variance_ED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">451.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">476.31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-218.68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">453.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">481.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Null vs Between</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between + Within</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">484.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-217.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between vs Full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">551.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">576.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-268.63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">581.76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-268.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">579.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-264.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">528.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">553.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-257.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">558.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-257.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">530.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">562.78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-256.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604.33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-295.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">634.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-295.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">599.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631.14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-290.53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-172.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360.72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-171.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.90</t>
   </si>
   <si>
     <t xml:space="preserve">0.11</t>
   </si>
   <si>
+    <t xml:space="preserve">418.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">442.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-202.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">448.46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">420.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">452.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-201.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-186.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389.22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">417.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-184.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">460.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">485.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-223.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">462.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458.41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">490.25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-220.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000610510986054079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000631450120714002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.451595420207768328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.293663151755900409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.658350088030728919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.402383138078460045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.485898259785522701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000003403394181002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.034591249594255961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133316785924038117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102500076762292308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.032533616203610463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.661295315003382234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.215337593634757268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000008304557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743433923548060704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.030540634422220464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.488564087602249453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126219812507741447</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.804707454191457283</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.035932414097322112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000130475077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.994852000010124193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.142769768565505106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.626954926763968134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.560100903205064005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.855025881830537071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.109651750446225243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000552265717129970</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.680507719159344493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.330860846909136530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.288309155937192751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.778823836358460309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.471342457436149664</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.178127735735365944</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001494051623025956</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.979241461306133765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.313848845431622170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.377237029189836592</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.347014560996393717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475900071501820232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.517773653226941244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000002069173465671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.020004713796898631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.544474740530434098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.393097034739745554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248930580879905661</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.460230446952012651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.061093730303608589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000001793315948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.096532920414066373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.399635687764093972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.479636979776652317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002579597638608215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.720447853432581331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004291028236690353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appearance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Paced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000626783710105964</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.576148356860043064919807420665165409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.001307978380121206651853782432226581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.055220335895301175810345739591866732</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.443807787217584182037910522922175005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.324437021454295870803719026298495010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.519520042028664308375596192490775138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.328310605881466321953610076889162883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.199457936481948122642293697026616428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.580519175746503357515848620096221566</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.161060460137274902292503497847064864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000025346727916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.897818901491548637672224231209838763</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000005404092748309887865891185110279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.350634618930306229955817798327188939</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176909082877113876808294889997341670</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.911695732579583251187216319522121921</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.538652347980581813757794407138135284</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.627617271781593766277751456073019654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009872257293698996280517654611230682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.641488426187052374061181581055279821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.239641549643671541991452045294863638</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000003722146959</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.931048233497824284654598159249871969</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000455826091297813435019442573903348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.023601889604403573225122059398017882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.130944707648222219420475198603526223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.301597374963084807752977667405502871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885371083262427749360767847974784672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.164508217004531859251059700000041630</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172550530560310055872008661026484333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650317687243687436726702344458317384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.042546704223402925792996143172786105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000000008111784</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.834258767695107428252754289133008569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000043616722486681962277308560738120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358926745901319232956439009285531938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220623014249717197543532165582291782</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.895671609768413534702347078564343974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.688609600941876509594408162229228765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.595687929940675431339514034334570169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.054561841110567686763399564142673626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.698678446927375462749409962270874530</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.480533919855763769213297109672566876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg Person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000002964763594648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.153162039033194224968426055966119748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.008486568583336554297269493929434248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.104828904331768418822790067679306958</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.046889540014843633652930066091357730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.222346077011832177205974403477739543</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.563430377570944607157343853032216430</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.247936318295028601532692391629097983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.446601290712908771673994579032296315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.578255376439080981398888070543762296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.137889229147184183554841752084030304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000003060385272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.346891362063213581912179961364017799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000727510263448626418036901952746121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.095161911283076938694591717649018392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.248802405980450613842691609534085728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500695033393236177410301479540066794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.868764314502947998519744032819289714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452547946581383420117106197722023353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.139824166787355153029892562699387781</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.557312191337443252336925070267170668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.589591835455156476619720251619582996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000000981459432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.421286930193467745731084050930803642</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.231154950809455361770972103840904310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.106157119180919995438117098274233285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.475535179727701207141876693640369922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.208380795371740701327212264004629105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.358685769644131791089591843046946451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.601714684848962844121444959455402568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245655739398048716948252945257991087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.695374784925251621103825527825392783</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.174510221502312184993499499796598684</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000000000593220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.887373846297584645270717373932711780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.080964979786557325636131565715913894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.506363686100679055712703302560839802</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.593614193830153791253678718931041658</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.759886203094116030598570432630367577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.473575853485882936055872960423585027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.452364000071099559008303003793116659</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.885951192519081942577940935734659433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798678353630802195795013176393695176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.640386509779740986658680412801913917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phys Attract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000001519524247737</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.326860652642277260682135420211125165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000679422116790335595994110295947621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.714323360350695435450063541793497279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.354708065468284483578997878794325516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.536832495038247925478458455472718924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.984895927241697277665366527799051255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.974723382635269919305187613645102829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.976707172926297495507697021821513772</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.719296613240975490910500411700922996</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.437121291400566991391940518951741979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000005692646037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883325540559091959558202233893098310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000135574128998168822683029199893667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.024805555600740842453477696949448728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.584769898934270893064990559651050717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.470291769677893767287457649217685685</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.691453659474642323701232271560002118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.188874463594695118917599074848112650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158281830151800945172269052818592172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.743424381300051950738350114988861606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.746186288701827016289769289869582281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000653893525819524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.894112838395715980865929850551765412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002774002276165339533203768596081318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.014476673431688640361625353136787453</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.090487998585372028670370525560429087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.428242576672361763279184287966927513</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.429020762495126661839606185822049156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.128436892281122594372533285422832705</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.230151480354368442871049182940623723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.611988680118532579754742073419038206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.102090433347216971715631927963841008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000052719380651515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.999218037415761650699153051391476765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002401530074584636020862404848230653</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.648150392468640923482325888471677899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.270578644261176115559663912790711038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.760762247370750488428825519804377109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.650070397359709395423976729944115505</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.883315085200969463130604708567261696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.870575754293090087188033976417500526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892655958521447523423830716637894511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.919370829142033385572574388788780198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000001929227325473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.811400582743285081477324638399295509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000022747615376770561528094877212780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.009499796238641359732990387954032485</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.083639607725484232947366081134532578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.499575377163242961842115619219839573</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.501291736496454198857009032508358359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.062788467968581465616928483086667256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146952905821589013823924574353441130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.987049632217795958055717164825182408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.029471028048302257834611950215730758</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000000000000000000000770536989780</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.892611883725634935871084962855093181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000020094715512272055558387270912668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.798797428779402629572814475977793336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.071182017654219775781854195884079672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.953041796995041323725672555156052113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.709709881766289352178489480138523504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.952080384671299517762577124813105911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.041714575461674618939156289343372919</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.630868042151832453257043198391329497</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.168870333633784230897845191066153347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1104.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1167.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1066.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1130.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">645.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">709.26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">426.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">777.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">841.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">711.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">775.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1032.51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1096.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06</t>
+  </si>
+  <si>
     <t xml:space="preserve">0.89</t>
   </si>
   <si>
-    <t xml:space="preserve">825.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">888.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1061.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1123.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">924.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">987.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">928.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">991.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">374.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">412.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">450.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">432.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470.85</t>
+    <t xml:space="preserve">923.85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">987.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1306.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1369.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1003.89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1067.84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1344.02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1407.71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1479.37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1543.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1187.88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1251.57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1020.79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1084.74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">626.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">666.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">606.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">646.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">364.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">274.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">471.28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">510.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398.48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">438.18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">499.92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">539.30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">503.24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">542.94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">631.43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">670.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">555.90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">716.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">755.49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">737.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">708.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">598.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">637.77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">419.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">444.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-202.81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">421.61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">449.91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-202.80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328.55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-155.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.66</t>
   </si>
   <si>
     <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">447.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">343.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">381.73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">587.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">625.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">468.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">506.67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">456.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">494.40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">logLik</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L.Ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between_Variance_Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between_Variance_ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within_Variance_Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Within_Variance_ED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">451.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">476.31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-218.68</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">453.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">481.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Null vs Between</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between + Within</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">484.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-217.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between vs Full</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">551.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">576.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-268.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">581.76</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-268.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">547.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">579.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-264.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">528.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">553.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">558.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-257.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">530.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">562.78</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-256.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">604.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-295.17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">634.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-295.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">599.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-290.53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">359.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">384.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-172.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">361.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360.72</t>
-  </si>
-  <si>
-    <t xml:space="preserve">392.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-171.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">442.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-202.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420.19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">448.46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">420.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">452.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-201.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">411.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-186.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">389.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">417.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">387.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">418.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-184.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">460.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">485.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-223.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">462.56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490.86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">458.41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">490.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-220.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000610510986054079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000631450120714002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.451595420207768328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.293663151755900409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.658350088030728919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.402383138078460045</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.485898259785522701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000003403394181002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.034591249594255961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.133316785924038117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102500076762292308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.032533616203610463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.661295315003382234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.215337593634757268</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000008304557</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743433923548060704</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.030540634422220464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.488564087602249453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126219812507741447</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.804707454191457283</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.035932414097322112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000130475077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.994852000010124193</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.142769768565505106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.626954926763968134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.560100903205064005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.855025881830537071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.109651750446225243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000552265717129970</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.680507719159344493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.330860846909136530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.288309155937192751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.778823836358460309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.471342457436149664</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.178127735735365944</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001494051623025956</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.979241461306133765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.313848845431622170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.377237029189836592</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.347014560996393717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475900071501820232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.517773653226941244</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000002069173465671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.020004713796898631</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.544474740530434098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.393097034739745554</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248930580879905661</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.460230446952012651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.061093730303608589</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000001793315948</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.096532920414066373</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.399635687764093972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.479636979776652317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002579597638608215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.720447853432581331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004291028236690353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appearance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Paced</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000626783710105964</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.576148356860043064919807420665165409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.001307978380121206651853782432226581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.055220335895301175810345739591866732</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.443807787217584182037910522922175005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.324437021454295870803719026298495010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.519520042028664308375596192490775138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.328310605881466321953610076889162883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.199457936481948122642293697026616428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.580519175746503357515848620096221566</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.161060460137274902292503497847064864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000025346727916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.897818901491548637672224231209838763</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000005404092748309887865891185110279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.350634618930306229955817798327188939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.176909082877113876808294889997341670</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.911695732579583251187216319522121921</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.538652347980581813757794407138135284</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.627617271781593766277751456073019654</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009872257293698996280517654611230682</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.641488426187052374061181581055279821</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.239641549643671541991452045294863638</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000003722146959</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.931048233497824284654598159249871969</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000455826091297813435019442573903348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.023601889604403573225122059398017882</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.130944707648222219420475198603526223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.301597374963084807752977667405502871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885371083262427749360767847974784672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.164508217004531859251059700000041630</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.172550530560310055872008661026484333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650317687243687436726702344458317384</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.042546704223402925792996143172786105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000000008111784</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.834258767695107428252754289133008569</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000043616722486681962277308560738120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358926745901319232956439009285531938</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.220623014249717197543532165582291782</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.895671609768413534702347078564343974</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.688609600941876509594408162229228765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.595687929940675431339514034334570169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.054561841110567686763399564142673626</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.698678446927375462749409962270874530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.480533919855763769213297109672566876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avg Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000002964763594648</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.153162039033194224968426055966119748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.008486568583336554297269493929434248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.104828904331768418822790067679306958</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.046889540014843633652930066091357730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.222346077011832177205974403477739543</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.563430377570944607157343853032216430</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.247936318295028601532692391629097983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.446601290712908771673994579032296315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.578255376439080981398888070543762296</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.137889229147184183554841752084030304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000003060385272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.346891362063213581912179961364017799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000727510263448626418036901952746121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.095161911283076938694591717649018392</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.248802405980450613842691609534085728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.500695033393236177410301479540066794</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.868764314502947998519744032819289714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452547946581383420117106197722023353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.139824166787355153029892562699387781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.557312191337443252336925070267170668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.589591835455156476619720251619582996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Looks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000000981459432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.421286930193467745731084050930803642</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.231154950809455361770972103840904310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.106157119180919995438117098274233285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.475535179727701207141876693640369922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.208380795371740701327212264004629105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.358685769644131791089591843046946451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.601714684848962844121444959455402568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.245655739398048716948252945257991087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.695374784925251621103825527825392783</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.174510221502312184993499499796598684</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000000000593220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.887373846297584645270717373932711780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.080964979786557325636131565715913894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.506363686100679055712703302560839802</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.593614193830153791253678718931041658</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.759886203094116030598570432630367577</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.473575853485882936055872960423585027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.452364000071099559008303003793116659</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.885951192519081942577940935734659433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798678353630802195795013176393695176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.640386509779740986658680412801913917</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phys Attract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000001519524247737</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.326860652642277260682135420211125165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000679422116790335595994110295947621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.714323360350695435450063541793497279</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.354708065468284483578997878794325516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.536832495038247925478458455472718924</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.984895927241697277665366527799051255</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.974723382635269919305187613645102829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.976707172926297495507697021821513772</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.719296613240975490910500411700922996</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.437121291400566991391940518951741979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000005692646037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883325540559091959558202233893098310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000135574128998168822683029199893667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.024805555600740842453477696949448728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.584769898934270893064990559651050717</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.470291769677893767287457649217685685</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.691453659474642323701232271560002118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.188874463594695118917599074848112650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.158281830151800945172269052818592172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.743424381300051950738350114988861606</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.746186288701827016289769289869582281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000653893525819524</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.894112838395715980865929850551765412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002774002276165339533203768596081318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.014476673431688640361625353136787453</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.090487998585372028670370525560429087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.428242576672361763279184287966927513</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.429020762495126661839606185822049156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128436892281122594372533285422832705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.230151480354368442871049182940623723</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.611988680118532579754742073419038206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.102090433347216971715631927963841008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000052719380651515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.999218037415761650699153051391476765</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002401530074584636020862404848230653</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.648150392468640923482325888471677899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.270578644261176115559663912790711038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.760762247370750488428825519804377109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.650070397359709395423976729944115505</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.883315085200969463130604708567261696</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.870575754293090087188033976417500526</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892655958521447523423830716637894511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.919370829142033385572574388788780198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000001929227325473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.811400582743285081477324638399295509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000022747615376770561528094877212780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.009499796238641359732990387954032485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.083639607725484232947366081134532578</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.499575377163242961842115619219839573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.501291736496454198857009032508358359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.062788467968581465616928483086667256</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.146952905821589013823924574353441130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.987049632217795958055717164825182408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.029471028048302257834611950215730758</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000000000000000000000770536989780</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.892611883725634935871084962855093181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000020094715512272055558387270912668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.798797428779402629572814475977793336</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.071182017654219775781854195884079672</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.953041796995041323725672555156052113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.709709881766289352178489480138523504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.952080384671299517762577124813105911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.041714575461674618939156289343372919</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.630868042151832453257043198391329497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.168870333633784230897845191066153347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1104.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1167.96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1066.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1130.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">645.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">709.26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">426.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">777.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">841.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">711.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">775.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1032.51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1096.21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">923.85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">987.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1306.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1369.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1003.89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1067.84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1344.02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1407.71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1479.37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1543.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1187.88</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1251.57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1020.79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1084.74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">626.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">666.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">606.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">646.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">325.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">364.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234.87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">274.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">471.28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">510.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">398.48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">438.18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">499.92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">539.30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">503.24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">542.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">631.43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">670.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">555.90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">595.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">716.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">755.49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">697.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">737.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">668.97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">708.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">598.07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">637.77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">419.62</t>
-  </si>
-  <si>
-    <t xml:space="preserve">444.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-202.81</t>
-  </si>
-  <si>
-    <t xml:space="preserve">421.61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">449.91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-202.80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328.55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">360.38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-155.27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.66</t>
   </si>
   <si>
     <t xml:space="preserve">219.88</t>
@@ -5386,7 +5386,7 @@
         <v>871</v>
       </c>
       <c r="N2" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="O2" t="n">
         <v>10</v>
@@ -5543,7 +5543,7 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N6" t="s">
         <v>877</v>
@@ -5590,7 +5590,7 @@
         <v>4</v>
       </c>
       <c r="M7" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="N7" t="s">
         <v>143</v>
@@ -5703,7 +5703,7 @@
         <v>5</v>
       </c>
       <c r="M10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="N10" t="s">
         <v>879</v>
@@ -5753,7 +5753,7 @@
         <v>880</v>
       </c>
       <c r="N11" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="O11" t="n">
         <v>11</v>
@@ -10172,18 +10172,18 @@
         <v>160</v>
       </c>
       <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
         <v>161</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>162</v>
-      </c>
-      <c r="G9" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -10192,21 +10192,21 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10" t="s">
         <v>165</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>166</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>167</v>
-      </c>
-      <c r="G10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -10215,21 +10215,21 @@
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F11" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" t="s">
         <v>169</v>
-      </c>
-      <c r="G11" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>20</v>
@@ -10238,10 +10238,10 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F12" t="s">
         <v>171</v>
@@ -10252,7 +10252,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
         <v>20</v>
@@ -10264,7 +10264,7 @@
         <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" t="s">
         <v>174</v>
@@ -10275,7 +10275,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -10298,7 +10298,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -10307,21 +10307,21 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="E15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -10330,7 +10330,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="E16" t="s">
         <v>146</v>
@@ -10344,7 +10344,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -10353,16 +10353,16 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" t="s">
         <v>186</v>
       </c>
-      <c r="E17" t="s">
-        <v>161</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>187</v>
-      </c>
-      <c r="G17" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -10399,28 +10399,28 @@
         <v>132</v>
       </c>
       <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
         <v>189</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>190</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -10431,38 +10431,38 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
         <v>197</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>200</v>
-      </c>
-      <c r="G2" t="s">
-        <v>201</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -10473,40 +10473,40 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>203</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>204</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>205</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H3" t="s">
         <v>206</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" t="s">
         <v>201</v>
       </c>
-      <c r="H3" t="s">
-        <v>207</v>
-      </c>
-      <c r="I3" t="s">
-        <v>208</v>
-      </c>
-      <c r="J3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K3" t="s">
-        <v>202</v>
-      </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -10517,40 +10517,40 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>211</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>212</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>213</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>214</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>215</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>216</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>217</v>
       </c>
-      <c r="K4" t="s">
-        <v>218</v>
-      </c>
       <c r="L4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="N4" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5">
@@ -10561,38 +10561,38 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
         <v>197</v>
       </c>
-      <c r="D5" t="s">
-        <v>198</v>
-      </c>
       <c r="E5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G5" t="s">
         <v>220</v>
-      </c>
-      <c r="F5" t="s">
-        <v>221</v>
-      </c>
-      <c r="G5" t="s">
-        <v>222</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
@@ -10603,40 +10603,40 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
         <v>203</v>
       </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
       <c r="E6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" t="s">
         <v>223</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" t="s">
         <v>224</v>
       </c>
-      <c r="G6" t="s">
-        <v>225</v>
-      </c>
-      <c r="H6" t="s">
-        <v>207</v>
-      </c>
-      <c r="I6" t="s">
-        <v>226</v>
-      </c>
       <c r="J6" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -10647,40 +10647,40 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
         <v>210</v>
       </c>
-      <c r="D7" t="s">
-        <v>211</v>
-      </c>
       <c r="E7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
         <v>227</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>214</v>
+      </c>
+      <c r="I7" t="s">
         <v>228</v>
       </c>
-      <c r="G7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I7" t="s">
-        <v>230</v>
-      </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
         <v>135</v>
       </c>
       <c r="L7" t="s">
+        <v>229</v>
+      </c>
+      <c r="M7" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" t="s">
         <v>231</v>
-      </c>
-      <c r="M7" t="s">
-        <v>232</v>
-      </c>
-      <c r="N7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -10691,38 +10691,38 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
         <v>197</v>
       </c>
-      <c r="D8" t="s">
-        <v>198</v>
-      </c>
       <c r="E8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G8" t="s">
         <v>234</v>
-      </c>
-      <c r="F8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G8" t="s">
-        <v>236</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -10733,40 +10733,40 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
         <v>203</v>
       </c>
-      <c r="D9" t="s">
-        <v>204</v>
-      </c>
       <c r="E9" t="s">
+        <v>235</v>
+      </c>
+      <c r="F9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G9" t="s">
         <v>237</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" t="s">
         <v>238</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J9" t="s">
         <v>239</v>
       </c>
-      <c r="H9" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" t="s">
-        <v>240</v>
-      </c>
-      <c r="J9" t="s">
-        <v>166</v>
-      </c>
       <c r="K9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -10777,28 +10777,28 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
         <v>210</v>
       </c>
-      <c r="D10" t="s">
-        <v>211</v>
-      </c>
       <c r="E10" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" t="s">
         <v>241</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>242</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
+        <v>214</v>
+      </c>
+      <c r="I10" t="s">
         <v>243</v>
       </c>
-      <c r="H10" t="s">
-        <v>215</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>244</v>
-      </c>
-      <c r="J10" t="s">
-        <v>165</v>
       </c>
       <c r="K10" t="s">
         <v>143</v>
@@ -10810,7 +10810,7 @@
         <v>246</v>
       </c>
       <c r="N10" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11">
@@ -10821,10 +10821,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" t="s">
-        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>247</v>
@@ -10837,22 +10837,22 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
@@ -10863,10 +10863,10 @@
         <v>19</v>
       </c>
       <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
       </c>
       <c r="E12" t="s">
         <v>250</v>
@@ -10878,25 +10878,25 @@
         <v>252</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="J12" t="s">
         <v>143</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -10907,40 +10907,40 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
         <v>210</v>
       </c>
-      <c r="D13" t="s">
-        <v>211</v>
-      </c>
       <c r="E13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" t="s">
         <v>254</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>255</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I13" t="s">
         <v>256</v>
       </c>
-      <c r="H13" t="s">
-        <v>215</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
+        <v>207</v>
+      </c>
+      <c r="K13" t="s">
         <v>257</v>
       </c>
-      <c r="J13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>258</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>259</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>260</v>
-      </c>
-      <c r="N13" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="14">
@@ -10951,38 +10951,38 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
         <v>197</v>
       </c>
-      <c r="D14" t="s">
-        <v>198</v>
-      </c>
       <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" t="s">
         <v>262</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>263</v>
-      </c>
-      <c r="G14" t="s">
-        <v>264</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -10993,40 +10993,40 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
         <v>203</v>
       </c>
-      <c r="D15" t="s">
-        <v>204</v>
-      </c>
       <c r="E15" t="s">
+        <v>264</v>
+      </c>
+      <c r="F15" t="s">
         <v>265</v>
       </c>
-      <c r="F15" t="s">
-        <v>266</v>
-      </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
         <v>207</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>208</v>
       </c>
-      <c r="J15" t="s">
-        <v>209</v>
-      </c>
       <c r="K15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -11037,37 +11037,37 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
         <v>210</v>
       </c>
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
       <c r="E16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" t="s">
         <v>267</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>268</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
+        <v>214</v>
+      </c>
+      <c r="I16" t="s">
         <v>269</v>
       </c>
-      <c r="H16" t="s">
-        <v>215</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
+        <v>180</v>
+      </c>
+      <c r="K16" t="s">
+        <v>260</v>
+      </c>
+      <c r="L16" t="s">
+        <v>260</v>
+      </c>
+      <c r="M16" t="s">
         <v>270</v>
-      </c>
-      <c r="J16" t="s">
-        <v>271</v>
-      </c>
-      <c r="K16" t="s">
-        <v>261</v>
-      </c>
-      <c r="L16" t="s">
-        <v>261</v>
-      </c>
-      <c r="M16" t="s">
-        <v>149</v>
       </c>
       <c r="N16" t="s">
         <v>134</v>
@@ -11081,38 +11081,38 @@
         <v>20</v>
       </c>
       <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
         <v>197</v>
       </c>
-      <c r="D17" t="s">
-        <v>198</v>
-      </c>
       <c r="E17" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" t="s">
         <v>272</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>273</v>
-      </c>
-      <c r="G17" t="s">
-        <v>274</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -11123,40 +11123,40 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
         <v>203</v>
       </c>
-      <c r="D18" t="s">
-        <v>204</v>
-      </c>
       <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
         <v>275</v>
       </c>
-      <c r="F18" t="s">
-        <v>276</v>
-      </c>
       <c r="G18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" t="s">
         <v>207</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>208</v>
       </c>
-      <c r="J18" t="s">
-        <v>209</v>
-      </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -11167,40 +11167,40 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
         <v>210</v>
       </c>
-      <c r="D19" t="s">
-        <v>211</v>
-      </c>
       <c r="E19" t="s">
+        <v>276</v>
+      </c>
+      <c r="F19" t="s">
         <v>277</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>278</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" t="s">
         <v>279</v>
       </c>
-      <c r="H19" t="s">
-        <v>215</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>176</v>
+      </c>
+      <c r="K19" t="s">
         <v>280</v>
       </c>
-      <c r="J19" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
+        <v>280</v>
+      </c>
+      <c r="M19" t="s">
         <v>281</v>
       </c>
-      <c r="L19" t="s">
-        <v>281</v>
-      </c>
-      <c r="M19" t="s">
-        <v>282</v>
-      </c>
       <c r="N19" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
@@ -11211,38 +11211,38 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" t="s">
         <v>197</v>
       </c>
-      <c r="D20" t="s">
-        <v>198</v>
-      </c>
       <c r="E20" t="s">
+        <v>282</v>
+      </c>
+      <c r="F20" t="s">
         <v>283</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>284</v>
-      </c>
-      <c r="G20" t="s">
-        <v>285</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -11253,40 +11253,40 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
         <v>203</v>
       </c>
-      <c r="D21" t="s">
-        <v>204</v>
-      </c>
       <c r="E21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" t="s">
         <v>286</v>
       </c>
-      <c r="F21" t="s">
-        <v>287</v>
-      </c>
       <c r="G21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
         <v>207</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>208</v>
       </c>
-      <c r="J21" t="s">
-        <v>209</v>
-      </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -11297,40 +11297,40 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
         <v>210</v>
       </c>
-      <c r="D22" t="s">
-        <v>211</v>
-      </c>
       <c r="E22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F22" t="s">
         <v>288</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>289</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
+        <v>214</v>
+      </c>
+      <c r="I22" t="s">
         <v>290</v>
       </c>
-      <c r="H22" t="s">
-        <v>215</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" t="s">
         <v>291</v>
       </c>
-      <c r="J22" t="s">
-        <v>253</v>
-      </c>
-      <c r="K22" t="s">
-        <v>292</v>
-      </c>
       <c r="L22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M22" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="N22" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23">
@@ -11341,38 +11341,38 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
         <v>197</v>
       </c>
-      <c r="D23" t="s">
-        <v>198</v>
-      </c>
       <c r="E23" t="s">
+        <v>292</v>
+      </c>
+      <c r="F23" t="s">
         <v>293</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>294</v>
-      </c>
-      <c r="G23" t="s">
-        <v>295</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -11383,40 +11383,40 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
         <v>203</v>
       </c>
-      <c r="D24" t="s">
-        <v>204</v>
-      </c>
       <c r="E24" t="s">
+        <v>295</v>
+      </c>
+      <c r="F24" t="s">
         <v>296</v>
       </c>
-      <c r="F24" t="s">
-        <v>297</v>
-      </c>
       <c r="G24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" t="s">
         <v>207</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>208</v>
       </c>
-      <c r="J24" t="s">
-        <v>209</v>
-      </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -11427,40 +11427,40 @@
         <v>19</v>
       </c>
       <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
         <v>210</v>
       </c>
-      <c r="D25" t="s">
-        <v>211</v>
-      </c>
       <c r="E25" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" t="s">
         <v>298</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>299</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" t="s">
         <v>300</v>
       </c>
-      <c r="H25" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>301</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>302</v>
       </c>
-      <c r="K25" t="s">
-        <v>303</v>
-      </c>
       <c r="L25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M25" t="s">
         <v>134</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -17074,7 +17074,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" t="s">
         <v>523</v>
@@ -17129,7 +17129,7 @@
         <v>534</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6">
@@ -17143,7 +17143,7 @@
         <v>361</v>
       </c>
       <c r="D6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E6" t="s">
         <v>523</v>
@@ -17166,7 +17166,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
         <v>529</v>
@@ -17189,10 +17189,10 @@
         <v>361</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F8" t="s">
         <v>539</v>
@@ -17212,16 +17212,16 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>153</v>
+        <v>541</v>
       </c>
       <c r="E9" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="F9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
@@ -17235,16 +17235,16 @@
         <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E10" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F10" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G10" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="11">
@@ -17258,16 +17258,16 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F11" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G11" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12">
@@ -17281,16 +17281,16 @@
         <v>361</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F12" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G12" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="13">
@@ -17304,16 +17304,16 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="E13" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="F13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="G13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14">
@@ -17327,16 +17327,16 @@
         <v>361</v>
       </c>
       <c r="D14" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="E14" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F14" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G14" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="15">
@@ -17350,21 +17350,21 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="E15" t="s">
         <v>523</v>
       </c>
       <c r="F15" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G15" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B16" t="s">
         <v>360</v>
@@ -17373,21 +17373,21 @@
         <v>361</v>
       </c>
       <c r="D16" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="E16" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F16" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G16" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>360</v>
@@ -17396,21 +17396,21 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E17" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F17" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G17" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>384</v>
@@ -17419,7 +17419,7 @@
         <v>361</v>
       </c>
       <c r="D18" t="s">
-        <v>567</v>
+        <v>149</v>
       </c>
       <c r="E18" t="s">
         <v>529</v>
@@ -17433,7 +17433,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
         <v>384</v>
@@ -17442,7 +17442,7 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="E19" t="s">
         <v>533</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>407</v>
@@ -17465,10 +17465,10 @@
         <v>361</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E20" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F20" t="s">
         <v>572</v>
@@ -17479,7 +17479,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
         <v>407</v>
@@ -17488,7 +17488,7 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>153</v>
+        <v>541</v>
       </c>
       <c r="E21" t="s">
         <v>523</v>
@@ -17502,7 +17502,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s">
         <v>430</v>
@@ -17511,21 +17511,21 @@
         <v>361</v>
       </c>
       <c r="D22" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" t="s">
         <v>576</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>577</v>
-      </c>
-      <c r="G22" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s">
         <v>430</v>
@@ -17534,21 +17534,21 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>253</v>
+        <v>153</v>
       </c>
       <c r="E23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F23" t="s">
+        <v>578</v>
+      </c>
+      <c r="G23" t="s">
         <v>579</v>
-      </c>
-      <c r="G23" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" t="s">
         <v>453</v>
@@ -17557,21 +17557,21 @@
         <v>361</v>
       </c>
       <c r="D24" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F24" t="s">
+        <v>580</v>
+      </c>
+      <c r="G24" t="s">
         <v>581</v>
-      </c>
-      <c r="G24" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s">
         <v>453</v>
@@ -17580,21 +17580,21 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>153</v>
+        <v>541</v>
       </c>
       <c r="E25" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F25" t="s">
+        <v>582</v>
+      </c>
+      <c r="G25" t="s">
         <v>583</v>
-      </c>
-      <c r="G25" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
         <v>476</v>
@@ -17603,21 +17603,21 @@
         <v>361</v>
       </c>
       <c r="D26" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="E26" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F26" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" t="s">
         <v>585</v>
-      </c>
-      <c r="G26" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" t="s">
         <v>476</v>
@@ -17626,21 +17626,21 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>153</v>
+        <v>541</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
+        <v>586</v>
+      </c>
+      <c r="G27" t="s">
         <v>587</v>
-      </c>
-      <c r="G27" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" t="s">
         <v>499</v>
@@ -17655,15 +17655,15 @@
         <v>139</v>
       </c>
       <c r="F28" t="s">
+        <v>588</v>
+      </c>
+      <c r="G28" t="s">
         <v>589</v>
-      </c>
-      <c r="G28" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" t="s">
         <v>499</v>
@@ -17672,16 +17672,16 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>271</v>
+        <v>180</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>542</v>
       </c>
       <c r="F29" t="s">
+        <v>590</v>
+      </c>
+      <c r="G29" t="s">
         <v>591</v>
-      </c>
-      <c r="G29" t="s">
-        <v>592</v>
       </c>
     </row>
   </sheetData>
@@ -17718,28 +17718,28 @@
         <v>132</v>
       </c>
       <c r="G1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H1" t="s">
         <v>189</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>190</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>191</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>192</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>193</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>194</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>195</v>
-      </c>
-      <c r="N1" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="2">
@@ -17750,38 +17750,38 @@
         <v>360</v>
       </c>
       <c r="C2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
         <v>197</v>
       </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" t="s">
+        <v>592</v>
+      </c>
+      <c r="F2" t="s">
         <v>593</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>594</v>
-      </c>
-      <c r="G2" t="s">
-        <v>595</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
@@ -17792,40 +17792,40 @@
         <v>360</v>
       </c>
       <c r="C3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" t="s">
         <v>203</v>
       </c>
-      <c r="D3" t="s">
-        <v>204</v>
-      </c>
       <c r="E3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F3" t="s">
         <v>596</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>597</v>
       </c>
-      <c r="G3" t="s">
-        <v>598</v>
-      </c>
       <c r="H3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4">
@@ -17836,40 +17836,40 @@
         <v>360</v>
       </c>
       <c r="C4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" t="s">
         <v>210</v>
       </c>
-      <c r="D4" t="s">
-        <v>211</v>
-      </c>
       <c r="E4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F4" t="s">
         <v>599</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>600</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I4" t="s">
         <v>601</v>
       </c>
-      <c r="H4" t="s">
-        <v>215</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
+        <v>207</v>
+      </c>
+      <c r="K4" t="s">
         <v>602</v>
       </c>
-      <c r="J4" t="s">
-        <v>208</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>603</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>604</v>
       </c>
-      <c r="M4" t="s">
-        <v>173</v>
-      </c>
       <c r="N4" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -17880,10 +17880,10 @@
         <v>384</v>
       </c>
       <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
         <v>197</v>
-      </c>
-      <c r="D5" t="s">
-        <v>198</v>
       </c>
       <c r="E5" t="s">
         <v>605</v>
@@ -17896,22 +17896,22 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6">
@@ -17922,10 +17922,10 @@
         <v>384</v>
       </c>
       <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
         <v>203</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
       </c>
       <c r="E6" t="s">
         <v>608</v>
@@ -17937,25 +17937,25 @@
         <v>610</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J6" t="s">
         <v>611</v>
       </c>
       <c r="K6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
@@ -17966,10 +17966,10 @@
         <v>384</v>
       </c>
       <c r="C7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" t="s">
         <v>210</v>
-      </c>
-      <c r="D7" t="s">
-        <v>211</v>
       </c>
       <c r="E7" t="s">
         <v>612</v>
@@ -17981,13 +17981,13 @@
         <v>614</v>
       </c>
       <c r="H7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I7" t="s">
         <v>615</v>
       </c>
       <c r="J7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K7" t="s">
         <v>616</v>
@@ -17996,10 +17996,10 @@
         <v>617</v>
       </c>
       <c r="M7" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="N7" t="s">
-        <v>567</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8">
@@ -18010,10 +18010,10 @@
         <v>407</v>
       </c>
       <c r="C8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" t="s">
         <v>197</v>
-      </c>
-      <c r="D8" t="s">
-        <v>198</v>
       </c>
       <c r="E8" t="s">
         <v>618</v>
@@ -18026,22 +18026,22 @@
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9">
@@ -18052,10 +18052,10 @@
         <v>407</v>
       </c>
       <c r="C9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" t="s">
         <v>203</v>
-      </c>
-      <c r="D9" t="s">
-        <v>204</v>
       </c>
       <c r="E9" t="s">
         <v>621</v>
@@ -18067,25 +18067,25 @@
         <v>623</v>
       </c>
       <c r="H9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I9" t="s">
         <v>624</v>
       </c>
       <c r="J9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="K9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10">
@@ -18096,10 +18096,10 @@
         <v>407</v>
       </c>
       <c r="C10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" t="s">
         <v>210</v>
-      </c>
-      <c r="D10" t="s">
-        <v>211</v>
       </c>
       <c r="E10" t="s">
         <v>625</v>
@@ -18111,13 +18111,13 @@
         <v>627</v>
       </c>
       <c r="H10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I10" t="s">
         <v>628</v>
       </c>
       <c r="J10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K10" t="s">
         <v>629</v>
@@ -18126,10 +18126,10 @@
         <v>630</v>
       </c>
       <c r="M10" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="N10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -18140,10 +18140,10 @@
         <v>430</v>
       </c>
       <c r="C11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D11" t="s">
         <v>197</v>
-      </c>
-      <c r="D11" t="s">
-        <v>198</v>
       </c>
       <c r="E11" t="s">
         <v>631</v>
@@ -18156,22 +18156,22 @@
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
@@ -18182,10 +18182,10 @@
         <v>430</v>
       </c>
       <c r="C12" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" t="s">
-        <v>204</v>
       </c>
       <c r="E12" t="s">
         <v>634</v>
@@ -18197,7 +18197,7 @@
         <v>636</v>
       </c>
       <c r="H12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I12" t="s">
         <v>637</v>
@@ -18206,16 +18206,16 @@
         <v>638</v>
       </c>
       <c r="K12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13">
@@ -18226,10 +18226,10 @@
         <v>430</v>
       </c>
       <c r="C13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" t="s">
         <v>210</v>
-      </c>
-      <c r="D13" t="s">
-        <v>211</v>
       </c>
       <c r="E13" t="s">
         <v>639</v>
@@ -18241,10 +18241,10 @@
         <v>641</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I13" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="J13" t="s">
         <v>642</v>
@@ -18270,10 +18270,10 @@
         <v>453</v>
       </c>
       <c r="C14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D14" t="s">
         <v>197</v>
-      </c>
-      <c r="D14" t="s">
-        <v>198</v>
       </c>
       <c r="E14" t="s">
         <v>647</v>
@@ -18286,22 +18286,22 @@
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15">
@@ -18312,10 +18312,10 @@
         <v>453</v>
       </c>
       <c r="C15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" t="s">
         <v>203</v>
-      </c>
-      <c r="D15" t="s">
-        <v>204</v>
       </c>
       <c r="E15" t="s">
         <v>650</v>
@@ -18327,25 +18327,25 @@
         <v>652</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="J15" t="s">
         <v>653</v>
       </c>
       <c r="K15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
@@ -18356,10 +18356,10 @@
         <v>453</v>
       </c>
       <c r="C16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" t="s">
         <v>210</v>
-      </c>
-      <c r="D16" t="s">
-        <v>211</v>
       </c>
       <c r="E16" t="s">
         <v>654</v>
@@ -18371,10 +18371,10 @@
         <v>656</v>
       </c>
       <c r="H16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="J16" t="s">
         <v>657</v>
@@ -18386,10 +18386,10 @@
         <v>659</v>
       </c>
       <c r="M16" t="s">
-        <v>219</v>
+        <v>164</v>
       </c>
       <c r="N16" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17">
@@ -18400,10 +18400,10 @@
         <v>476</v>
       </c>
       <c r="C17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D17" t="s">
         <v>197</v>
-      </c>
-      <c r="D17" t="s">
-        <v>198</v>
       </c>
       <c r="E17" t="s">
         <v>660</v>
@@ -18416,22 +18416,22 @@
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
@@ -18442,10 +18442,10 @@
         <v>476</v>
       </c>
       <c r="C18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" t="s">
         <v>203</v>
-      </c>
-      <c r="D18" t="s">
-        <v>204</v>
       </c>
       <c r="E18" t="s">
         <v>663</v>
@@ -18457,25 +18457,25 @@
         <v>662</v>
       </c>
       <c r="H18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I18" t="s">
         <v>207</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>208</v>
       </c>
-      <c r="J18" t="s">
-        <v>209</v>
-      </c>
       <c r="K18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
@@ -18486,10 +18486,10 @@
         <v>476</v>
       </c>
       <c r="C19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" t="s">
         <v>210</v>
-      </c>
-      <c r="D19" t="s">
-        <v>211</v>
       </c>
       <c r="E19" t="s">
         <v>665</v>
@@ -18501,13 +18501,13 @@
         <v>667</v>
       </c>
       <c r="H19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I19" t="s">
         <v>668</v>
       </c>
       <c r="J19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
         <v>669</v>
@@ -18516,7 +18516,7 @@
         <v>669</v>
       </c>
       <c r="M19" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="N19" t="s">
         <v>670</v>
@@ -18530,10 +18530,10 @@
         <v>499</v>
       </c>
       <c r="C20" t="s">
+        <v>196</v>
+      </c>
+      <c r="D20" t="s">
         <v>197</v>
-      </c>
-      <c r="D20" t="s">
-        <v>198</v>
       </c>
       <c r="E20" t="s">
         <v>671</v>
@@ -18546,22 +18546,22 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
@@ -18572,10 +18572,10 @@
         <v>499</v>
       </c>
       <c r="C21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" t="s">
         <v>203</v>
-      </c>
-      <c r="D21" t="s">
-        <v>204</v>
       </c>
       <c r="E21" t="s">
         <v>674</v>
@@ -18587,25 +18587,25 @@
         <v>673</v>
       </c>
       <c r="H21" t="s">
+        <v>206</v>
+      </c>
+      <c r="I21" t="s">
         <v>207</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>208</v>
       </c>
-      <c r="J21" t="s">
-        <v>209</v>
-      </c>
       <c r="K21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22">
@@ -18616,10 +18616,10 @@
         <v>499</v>
       </c>
       <c r="C22" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" t="s">
         <v>210</v>
-      </c>
-      <c r="D22" t="s">
-        <v>211</v>
       </c>
       <c r="E22" t="s">
         <v>676</v>
@@ -18631,13 +18631,13 @@
         <v>678</v>
       </c>
       <c r="H22" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I22" t="s">
         <v>679</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K22" t="s">
         <v>680</v>
@@ -18646,7 +18646,7 @@
         <v>680</v>
       </c>
       <c r="M22" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="N22" t="s">
         <v>681</v>
@@ -18660,10 +18660,10 @@
         <v>360</v>
       </c>
       <c r="C23" t="s">
+        <v>196</v>
+      </c>
+      <c r="D23" t="s">
         <v>197</v>
-      </c>
-      <c r="D23" t="s">
-        <v>198</v>
       </c>
       <c r="E23" t="s">
         <v>682</v>
@@ -18676,22 +18676,22 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
@@ -18702,10 +18702,10 @@
         <v>360</v>
       </c>
       <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
         <v>203</v>
-      </c>
-      <c r="D24" t="s">
-        <v>204</v>
       </c>
       <c r="E24" t="s">
         <v>685</v>
@@ -18717,25 +18717,25 @@
         <v>684</v>
       </c>
       <c r="H24" t="s">
+        <v>206</v>
+      </c>
+      <c r="I24" t="s">
         <v>207</v>
-      </c>
-      <c r="I24" t="s">
-        <v>208</v>
       </c>
       <c r="J24" t="s">
         <v>245</v>
       </c>
       <c r="K24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25">
@@ -18746,10 +18746,10 @@
         <v>360</v>
       </c>
       <c r="C25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" t="s">
         <v>210</v>
-      </c>
-      <c r="D25" t="s">
-        <v>211</v>
       </c>
       <c r="E25" t="s">
         <v>687</v>
@@ -18761,7 +18761,7 @@
         <v>689</v>
       </c>
       <c r="H25" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I25" t="s">
         <v>690</v>
@@ -18776,10 +18776,10 @@
         <v>692</v>
       </c>
       <c r="M25" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -18790,10 +18790,10 @@
         <v>384</v>
       </c>
       <c r="C26" t="s">
+        <v>196</v>
+      </c>
+      <c r="D26" t="s">
         <v>197</v>
-      </c>
-      <c r="D26" t="s">
-        <v>198</v>
       </c>
       <c r="E26" t="s">
         <v>693</v>
@@ -18806,22 +18806,22 @@
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N26" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
@@ -18832,10 +18832,10 @@
         <v>384</v>
       </c>
       <c r="C27" t="s">
+        <v>202</v>
+      </c>
+      <c r="D27" t="s">
         <v>203</v>
-      </c>
-      <c r="D27" t="s">
-        <v>204</v>
       </c>
       <c r="E27" t="s">
         <v>696</v>
@@ -18847,25 +18847,25 @@
         <v>698</v>
       </c>
       <c r="H27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28">
@@ -18876,10 +18876,10 @@
         <v>384</v>
       </c>
       <c r="C28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" t="s">
-        <v>211</v>
       </c>
       <c r="E28" t="s">
         <v>699</v>
@@ -18891,7 +18891,7 @@
         <v>701</v>
       </c>
       <c r="H28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I28" t="s">
         <v>528</v>
@@ -18906,10 +18906,10 @@
         <v>704</v>
       </c>
       <c r="M28" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
       <c r="N28" t="s">
-        <v>561</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29">
@@ -18920,10 +18920,10 @@
         <v>407</v>
       </c>
       <c r="C29" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" t="s">
         <v>197</v>
-      </c>
-      <c r="D29" t="s">
-        <v>198</v>
       </c>
       <c r="E29" t="s">
         <v>705</v>
@@ -18936,22 +18936,22 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
@@ -18962,10 +18962,10 @@
         <v>407</v>
       </c>
       <c r="C30" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" t="s">
         <v>203</v>
-      </c>
-      <c r="D30" t="s">
-        <v>204</v>
       </c>
       <c r="E30" t="s">
         <v>708</v>
@@ -18977,25 +18977,25 @@
         <v>710</v>
       </c>
       <c r="H30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I30" t="s">
         <v>711</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
@@ -19006,10 +19006,10 @@
         <v>407</v>
       </c>
       <c r="C31" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" t="s">
         <v>210</v>
-      </c>
-      <c r="D31" t="s">
-        <v>211</v>
       </c>
       <c r="E31" t="s">
         <v>712</v>
@@ -19021,25 +19021,25 @@
         <v>714</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>604</v>
       </c>
       <c r="J31" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L31" t="s">
         <v>715</v>
       </c>
       <c r="M31" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="N31" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32">
@@ -19050,10 +19050,10 @@
         <v>430</v>
       </c>
       <c r="C32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" t="s">
         <v>197</v>
-      </c>
-      <c r="D32" t="s">
-        <v>198</v>
       </c>
       <c r="E32" t="s">
         <v>716</v>
@@ -19066,22 +19066,22 @@
       </c>
       <c r="H32"/>
       <c r="I32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N32" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
@@ -19092,10 +19092,10 @@
         <v>430</v>
       </c>
       <c r="C33" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" t="s">
         <v>203</v>
-      </c>
-      <c r="D33" t="s">
-        <v>204</v>
       </c>
       <c r="E33" t="s">
         <v>719</v>
@@ -19107,7 +19107,7 @@
         <v>721</v>
       </c>
       <c r="H33" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I33" t="s">
         <v>157</v>
@@ -19116,16 +19116,16 @@
         <v>722</v>
       </c>
       <c r="K33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N33" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34">
@@ -19136,10 +19136,10 @@
         <v>430</v>
       </c>
       <c r="C34" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" t="s">
         <v>210</v>
-      </c>
-      <c r="D34" t="s">
-        <v>211</v>
       </c>
       <c r="E34" t="s">
         <v>723</v>
@@ -19151,13 +19151,13 @@
         <v>725</v>
       </c>
       <c r="H34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I34" t="s">
         <v>726</v>
       </c>
       <c r="J34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K34" t="s">
         <v>644</v>
@@ -19166,7 +19166,7 @@
         <v>727</v>
       </c>
       <c r="M34" t="s">
-        <v>176</v>
+        <v>303</v>
       </c>
       <c r="N34" t="s">
         <v>142</v>
@@ -19180,10 +19180,10 @@
         <v>453</v>
       </c>
       <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
         <v>197</v>
-      </c>
-      <c r="D35" t="s">
-        <v>198</v>
       </c>
       <c r="E35" t="s">
         <v>728</v>
@@ -19196,22 +19196,22 @@
       </c>
       <c r="H35"/>
       <c r="I35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
@@ -19222,10 +19222,10 @@
         <v>453</v>
       </c>
       <c r="C36" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" t="s">
         <v>203</v>
-      </c>
-      <c r="D36" t="s">
-        <v>204</v>
       </c>
       <c r="E36" t="s">
         <v>731</v>
@@ -19237,25 +19237,25 @@
         <v>730</v>
       </c>
       <c r="H36" t="s">
+        <v>206</v>
+      </c>
+      <c r="I36" t="s">
         <v>207</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>208</v>
       </c>
-      <c r="J36" t="s">
-        <v>209</v>
-      </c>
       <c r="K36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37">
@@ -19266,10 +19266,10 @@
         <v>453</v>
       </c>
       <c r="C37" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" t="s">
         <v>210</v>
-      </c>
-      <c r="D37" t="s">
-        <v>211</v>
       </c>
       <c r="E37" t="s">
         <v>733</v>
@@ -19281,13 +19281,13 @@
         <v>735</v>
       </c>
       <c r="H37" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I37" t="s">
         <v>736</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="K37" t="s">
         <v>737</v>
@@ -19296,10 +19296,10 @@
         <v>737</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="N37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38">
@@ -19310,10 +19310,10 @@
         <v>476</v>
       </c>
       <c r="C38" t="s">
+        <v>196</v>
+      </c>
+      <c r="D38" t="s">
         <v>197</v>
-      </c>
-      <c r="D38" t="s">
-        <v>198</v>
       </c>
       <c r="E38" t="s">
         <v>738</v>
@@ -19326,22 +19326,22 @@
       </c>
       <c r="H38"/>
       <c r="I38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="39">
@@ -19352,10 +19352,10 @@
         <v>476</v>
       </c>
       <c r="C39" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" t="s">
         <v>203</v>
-      </c>
-      <c r="D39" t="s">
-        <v>204</v>
       </c>
       <c r="E39" t="s">
         <v>741</v>
@@ -19367,25 +19367,25 @@
         <v>740</v>
       </c>
       <c r="H39" t="s">
+        <v>206</v>
+      </c>
+      <c r="I39" t="s">
         <v>207</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>208</v>
       </c>
-      <c r="J39" t="s">
-        <v>209</v>
-      </c>
       <c r="K39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N39" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="40">
@@ -19396,10 +19396,10 @@
         <v>476</v>
       </c>
       <c r="C40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" t="s">
         <v>210</v>
-      </c>
-      <c r="D40" t="s">
-        <v>211</v>
       </c>
       <c r="E40" t="s">
         <v>743</v>
@@ -19411,13 +19411,13 @@
         <v>745</v>
       </c>
       <c r="H40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I40" t="s">
         <v>746</v>
       </c>
       <c r="J40" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K40" t="s">
         <v>747</v>
@@ -19426,10 +19426,10 @@
         <v>747</v>
       </c>
       <c r="M40" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41">
@@ -19440,10 +19440,10 @@
         <v>499</v>
       </c>
       <c r="C41" t="s">
+        <v>196</v>
+      </c>
+      <c r="D41" t="s">
         <v>197</v>
-      </c>
-      <c r="D41" t="s">
-        <v>198</v>
       </c>
       <c r="E41" t="s">
         <v>748</v>
@@ -19456,22 +19456,22 @@
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N41" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42">
@@ -19482,10 +19482,10 @@
         <v>499</v>
       </c>
       <c r="C42" t="s">
+        <v>202</v>
+      </c>
+      <c r="D42" t="s">
         <v>203</v>
-      </c>
-      <c r="D42" t="s">
-        <v>204</v>
       </c>
       <c r="E42" t="s">
         <v>751</v>
@@ -19497,25 +19497,25 @@
         <v>750</v>
       </c>
       <c r="H42" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" t="s">
         <v>207</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>208</v>
       </c>
-      <c r="J42" t="s">
-        <v>209</v>
-      </c>
       <c r="K42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43">
@@ -19526,10 +19526,10 @@
         <v>499</v>
       </c>
       <c r="C43" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" t="s">
         <v>210</v>
-      </c>
-      <c r="D43" t="s">
-        <v>211</v>
       </c>
       <c r="E43" t="s">
         <v>753</v>
@@ -19541,25 +19541,25 @@
         <v>755</v>
       </c>
       <c r="H43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I43" t="s">
         <v>756</v>
       </c>
       <c r="J43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="N43" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -7,18 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="ST1-postshake_ttable" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ST1-Affect_Descriptives" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ST2-Affect_Models" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ST3-Affect_ModelFit_Indices" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ST4-Affect_HOV" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ST5-Affect_Models_ED" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ST6-BISS_Models" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ST7-BISS_ModelFit_Indices" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ST8-BISS_HOV" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ST9-BISS_Models_ED" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ST10-BiomarkerChange" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ST11-BiomarkerChange_ED" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="ST12-ExResponseCorrelations" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ST3-Affect_Descriptives" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ST4-Affect_Models" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ST5-Affect_ModelFit_Indices" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ST6-Affect_HOV" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ST7-Affect_Models_ED" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ST8-BISS_Models" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ST9-BISS_ModelFit_Indices" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ST10-BISS_HOV" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ST11-BISS_Models_ED" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ST12-BiomarkerChange" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ST13-BiomarkerChange_ED" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ST14-ExResponseCorrelations" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
 </workbook>
 </file>

--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -19,12 +19,13 @@
     <sheet name="ST12-BiomarkerChange" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="ST13-BiomarkerChange_ED" sheetId="12" state="visible" r:id="rId12"/>
     <sheet name="ST14-ExResponseCorrelations" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ST15-FullResponseCorrelations" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1592">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -2933,36 +2934,36 @@
     <t xml:space="preserve">ng/mL</t>
   </si>
   <si>
+    <t xml:space="preserve">Enthusiastic_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enthusiastic_SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crummy_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crummy_SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigued_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fatigued_SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calm_P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calm_SP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percieved_Exertion_P</t>
+  </si>
+  <si>
     <t xml:space="preserve">Percieved_Exertion_SP</t>
   </si>
   <si>
-    <t xml:space="preserve">Percieved_Exertion_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enthusiastic_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enthusiastic_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crummy_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crummy_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigued_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fatigued_P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calm_SP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calm_P</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average_SP</t>
   </si>
   <si>
@@ -3134,637 +3135,1672 @@
     <t xml:space="preserve">-0.06 (-0.97, 0.96)</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.09 (-0.56, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.25, 0.68)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.55 (-0.82, -0.08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.44 (-0.77, 0.07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.46, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.64, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.51, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.53, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.43, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.60 (0.15, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (0.11, 0.82)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.35, 0.62)</t>
+    <t xml:space="preserve">-0.20 (-0.59, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.24, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52 (-0.79, -0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.42 (-0.73, 0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.46, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.61, 0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.45, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (-0.47, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.48, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.28, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.65 (0.27, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.61 (0.23, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.30, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.41, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 (0.29, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.86 (-0.98, -0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.86, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.86, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.41, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (-0.05, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.20 (-0.60, 0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.50, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.38, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.30, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.13, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.51, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.60, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.49, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.77 (0.48, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.33, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 (0.01, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.35, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.37, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.96 (-1.00, -0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.76, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.68, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.33 (-0.13, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (-0.25, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.47, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.42, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.46, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.52, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.70, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45 (-0.75, 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.55, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.67, 0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 (-0.04, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.42, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.08, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.81, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.69, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (-0.48, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.58, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.57, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.49, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.44, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47 (-0.76, -0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50 (-0.78, -0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.43, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.42, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29 (-0.66, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.49, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.11, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.06, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.93, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.91, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.58, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.41 (-0.72, 0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.46, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28 (-0.65, 0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26 (-0.63, 0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.70, 0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.49, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.32, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.27, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.11, 0.68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.22, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.39, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.48, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.44, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.07, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.90, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (-0.46, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.89, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.40, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.18, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.42, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.48, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.53, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.62, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.49, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.43, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.91 (0.78, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.45, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38 (-0.91, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.76, 0.85)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.40 (-0.61, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52 (-0.78, -0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.61, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.62, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.77, -0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.66 (-0.86, -0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.74, 0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.53, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.60, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.56, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.68, 0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.75, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.72 (-0.22, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.45 (-0.92, 0.57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30 (-0.67, 0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.53, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (-0.37, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.35, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.12, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.37, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.66, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.47, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.40, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.58 (-0.95, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.64, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.75 (-0.97, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.34, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.51, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.34, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.22, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.21, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.41, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.50, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.52, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.40, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.56, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.39, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.79, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.90, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55 (0.13, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 (0.14, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.61, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.41, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.23, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.34 (-0.13, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.51, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40 (-0.71, 0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.00, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.16, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.30, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.68 (-0.96, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.78, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48 (0.05, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (-0.26, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (0.00, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.51 (0.07, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 (-0.69, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.45, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.50, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.76, -0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.18, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.89 (-0.99, -0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.85, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.40 (-0.92, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.11, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.29, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.19, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.22, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.17, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.55, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.33, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 (-0.62, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.19, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.62, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.45, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67 (-0.96, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39 (-0.91, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.26, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.50, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (-0.04, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.28 (-0.64, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.14, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.57, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (-0.46, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.87, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.73 (-0.20, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.79 (-0.98, 0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.68 (0.33, 0.86)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.32, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.54, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.77, -0.06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.29, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.54, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.48, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.81, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.62 (0.24, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.60, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29 (-0.65, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 (0.38, 0.88)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.31, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.69, 0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.61, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.39, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.60, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.27, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.90, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.61 (-0.95, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.84, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.27, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.28, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (-0.16, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.64 (-0.84, -0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.38, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 (-0.24, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.52 (0.10, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.90, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key_Variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percieved_Exertion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDE Global</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.38, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.35 (-0.10, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.21, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.20, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.03 (-0.41, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.31, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.19, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.28, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.54, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.54, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.38, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.39, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (-0.17, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.17, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMB ANR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.52, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.44, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.51, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMB APR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.55, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.33, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.53, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.58, 0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMB SPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (-0.43, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FAMB SNR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (-0.58, 0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 (-0.01, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.50, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DFM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.36, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.20, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.57, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.64, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.20 (-0.59, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.64 (0.27, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29 (-0.65, 0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wt Suppress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.50, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.52 (-0.79, -0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.55, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 (-0.26, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.55, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.67, 0.17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MVPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.33, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.64, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.41, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00 (-0.48, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.31 (-0.20, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (-0.28, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.31, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.13, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.38, 0.57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56 (-0.82, -0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.71, 0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.58, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.05, 0.76)</t>
   </si>
   <si>
     <t xml:space="preserve">0.33 (-0.18, 0.70)</t>
   </si>
   <si>
-    <t xml:space="preserve">0.63 (0.20, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.86 (-0.98, -0.15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.86, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.86, 0.75)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 (-0.26, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.47 (-0.03, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.53, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.34, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23 (-0.30, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.16, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.56, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23 (-0.65, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.62, 0.35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.76 (0.42, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.50, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.49 (-0.01, 0.79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.46 (-0.05, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.37, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.96 (-1.00, -0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.14 (-0.76, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.68, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.47, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 (-0.31, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.45, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (-0.67, 0.28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.43 (-0.76, 0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.56 (-0.83, -0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.23, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.52, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.59 (0.13, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.42, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.08, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.27 (-0.69, 0.89)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (-0.56, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.18 (-0.62, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.53, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.78, 0.04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.80, -0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.48, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.72, 0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.49, 0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.11, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 (-0.06, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.51 (-0.93, 0.52)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.37 (-0.91, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44 (-0.58, 0.92)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.71, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.71, 0.20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.30 (-0.69, 0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11 (-0.41, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.73, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.19 (-0.63, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.36, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.24 (-0.29, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 (-0.28, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.43, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.39, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.48, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.44, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.39 (-0.07, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.90, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.56 (-0.46, 0.94)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27 (-0.89, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.26 (-0.27, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.35 (-0.17, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.33 (-0.20, 0.71)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.29 (-0.24, 0.69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.11 (-0.57, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.49, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.02 (-0.43, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.91 (0.78, 0.96)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.02 (-0.45, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.38 (-0.91, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.76, 0.85)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.40 (-0.61, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.75, 0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.17 (-0.61, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.27 (-0.68, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.50 (-0.80, -0.01)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67 (-0.88, -0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.46 (-0.78, 0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.53, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.23 (-0.61, 0.23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.60, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.55, 0.32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16 (-0.56, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.68, 0.12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.75, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.72 (-0.22, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.45 (-0.92, 0.57)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.70, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.40, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.46, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.17 (-0.36, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.37 (-0.16, 0.73)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.37, 0.51)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.31 (-0.66, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.04 (-0.47, 0.41)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.40, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.58 (-0.95, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.64, 0.91)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.75 (-0.97, 0.16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.34, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (-0.55, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.09 (-0.42, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.41, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08 (-0.50, 0.38)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.10 (-0.52, 0.36)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03 (-0.42, 0.46)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.05 (-0.40, 0.48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.15 (-0.56, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.39, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.79, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.90, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 (0.28, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.66, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.42 (-0.09, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.09 (-0.51, 0.37)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.71, 0.05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.44 (-0.00, 0.74)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.16, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.16 (-0.30, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.68 (-0.96, 0.29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.78, 0.84)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.58 (0.11, 0.83)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.36 (-0.17, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.50 (0.01, 0.80)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (0.03, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.34, 0.53)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.36 (-0.69, 0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.52 (-0.78, -0.09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.45, 0.44)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.07 (-0.50, 0.39)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49 (-0.76, -0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.18, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.89 (-0.99, -0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.13 (-0.85, 0.76)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.40 (-0.92, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 (-0.22, 0.70)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.45 (-0.05, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20 (-0.33, 0.63)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.25 (-0.22, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.30 (-0.17, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.14 (-0.55, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.13 (-0.33, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.25 (-0.62, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28 (-0.19, 0.64)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.33 (-0.67, 0.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.24 (-0.62, 0.22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.01 (-0.45, 0.43)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.67 (-0.96, 0.31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.39 (-0.91, 0.62)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.06 (-0.54, 0.45)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.66 (0.25, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.41 (-0.04, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (-0.64, 0.19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.32 (-0.14, 0.67)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.16 (-0.57, 0.30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04 (-0.41, 0.47)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.03 (-0.46, 0.42)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.87, 0.72)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.73 (-0.20, 0.97)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.79 (-0.98, 0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.06 (-0.45, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.28 (-0.68, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.68 (0.33, 0.86)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (-0.32, 0.55)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.13 (-0.54, 0.33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.49 (-0.77, -0.06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.29, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.12 (-0.54, 0.34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.20 (-0.59, 0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.05 (-0.48, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.00 (-0.81, 0.81)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.67 (0.25, 0.87)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.60, 0.25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.29 (-0.65, 0.18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.71 (0.38, 0.88)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15 (-0.31, 0.56)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.12 (-0.34, 0.54)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35 (-0.69, 0.11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.22 (-0.61, 0.24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.07 (-0.39, 0.49)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.21 (-0.60, 0.26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.20 (-0.27, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.34 (-0.90, 0.65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.61 (-0.95, 0.40)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.08 (-0.84, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.27, 0.59)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.18 (-0.28, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.31 (-0.16, 0.66)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.19 (-0.28, 0.58)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.64 (-0.84, -0.27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.08 (-0.38, 0.50)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.22 (-0.24, 0.61)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.52 (0.10, 0.78)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.35 (-0.90, 0.65)</t>
+    <t xml:space="preserve">-0.11 (-0.56, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_pct_hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.53 (-0.79, -0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.25, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_pct_hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.54 (-0.79, -0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.56, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.20, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.72, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43 (-0.78, 0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.43, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.62, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 (-0.14, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.53, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.58, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26 (-0.70, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">karvonen_max_intense</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.78, -0.07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.35, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.57, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.20, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.56, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.18, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.03 (-0.47, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.51 (-0.78, -0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.86 (-0.99, -0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.86, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.68, 0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (-0.59, 0.29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.65, 0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (-0.81, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.93, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39 (-0.72, 0.08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (-0.45, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 (-0.70, 0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.11 (-0.36, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.80, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.63, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.63, 0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.36, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.17 (-0.30, 0.57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.85, 0.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54 (-0.49, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43 (-0.92, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30 (-0.66, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.59, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.49, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.59 (-0.95, 0.43)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.70 (-0.26, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.82, 0.80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.36 (-0.69, 0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50 (-0.93, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.43 (-0.74, 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.74 (-0.97, 0.19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 (-0.59, 0.92)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.84, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.40, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.36, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.09, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.90 (-0.99, -0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.68, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.58 (0.18, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.31, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.81 (-0.98, 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 (-0.88, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.32, 0.57)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.46 (-0.76, -0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.59, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.92, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.50 (-0.52, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.86 (-0.10, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.26, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.57 (-0.82, -0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.29 (-0.68, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.44, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (-0.08, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (-0.04, 0.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.50, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.87, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.72, 0.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.54 (-0.96, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.44, 0.52)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.67, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47 (-0.78, 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.58, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.32, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (-0.92, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (-0.72, 0.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.66, 0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.85, 0.77)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.41 (-0.92, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.78 (-0.97, 0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.62, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.61, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.64, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32 (-0.73, 0.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.67, 0.35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.19 (-0.66, 0.38)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.70, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.20, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.75, 0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.81 (-0.99, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.59 (-0.61, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.57, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.17 (-0.58, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.12 (-0.36, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.94, 0.76)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.89, 0.87)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.60 (-0.60, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.49, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.43, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.63, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.48, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.61, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14 (-0.34, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.44 (-0.01, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.37 (-0.71, 0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.43 (-0.03, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.51, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.46, 0.44)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.16, 0.68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22 (-0.26, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32 (-0.68, 0.15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.37, 0.53)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.13 (-0.55, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.29, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.08, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.24, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.11 (-0.53, 0.37)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.64, 0.21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.30 (-0.66, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.63, 0.24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.26 (-0.64, 0.22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.69, 0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.42, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.21, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.41 (-0.06, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 (0.00, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.14 (-0.56, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.38 (-0.71, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.65 (-0.85, -0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.69, 0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.38, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.07 (-0.52, 0.41)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.21, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.34, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.44, 0.49)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.01 (-0.48, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.25, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.63, 0.27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.28, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.49 (-0.80, 0.03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.57, 0.45)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23 (-0.32, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.27, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.53, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.02 (-0.52, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.65, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.04 (-0.54, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.47 (-0.79, 0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.50 (-0.80, 0.02)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.09 (-0.44, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.05 (-0.55, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29 (-0.26, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.37, 0.63)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.35, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.75, 0.01)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.12, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.62, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.16, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (-0.01, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.55 (-0.80, -0.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.11, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.10, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.31, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32 (-0.75, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.41, 0.70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.37, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.48, 0.66)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20 (-0.42, 0.69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.55, 0.60)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.23, 0.79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.45 (-0.00, 0.75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.54 (-0.80, -0.11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.39 (-0.07, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57 (0.16, 0.81)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.39, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.29, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.68, 0.18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.23, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01 (-0.46, 0.48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.18 (-0.60, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.63, 0.26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.24, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.80 (-0.69, 1.00)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.56 (-0.99, 0.87)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.41 (-0.95, 0.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.38 (-0.09, 0.71)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.15 (-0.57, 0.33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.42 (-0.74, 0.04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49 (-0.89, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.76, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.42 (-0.05, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.06 (-0.41, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.71 (-0.79, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.67 (-0.99, 0.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.54 (-0.65, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.54, 0.36)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.58, 0.31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.34 (-0.69, 0.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48 (-0.99, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.05 (-0.87, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.23, 0.64)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.18, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.32 (-0.67, 0.16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.69 (-0.80, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.63 (-0.99, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.80, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55 (0.13, 0.80)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.34, 0.55)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.53 (-0.79, -0.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.66 (-0.82, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.62 (-0.99, 0.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.87, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.08 (-0.39, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.46 (-0.90, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.65 (-0.99, 0.83)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25 (-0.81, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00 (-0.45, 0.46)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.08 (-0.97, 0.95)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.98, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57 (-0.63, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.24 (-0.61, 0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.48 (-0.76, -0.05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.04 (-0.96, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.85 (-1.00, 0.62)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.65 (-0.97, 0.54)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.57 (-0.86, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.27 (-0.93, 0.98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.21 (-0.33, 0.65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.12 (-0.60, 0.42)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.27 (-0.69, 0.28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.07 (-0.46, 0.56)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.65, 0.34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.40, 0.61)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.26 (-0.30, 0.68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.16 (-0.62, 0.39)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.92, 0.98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.98, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.02 (-0.88, 0.89)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.06 (-0.56, 0.47)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.35 (-0.73, 0.20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.23 (-0.66, 0.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.32 (-0.23, 0.72)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.44 (-0.78, 0.09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.36 (-0.19, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.10 (-0.43, 0.58)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.25 (-0.68, 0.30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.21 (-0.97, 0.94)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.31 (-0.98, 0.93)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.13 (-0.85, 0.91)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.48 (-0.89, 0.99)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.16 (-0.95, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.24 (-0.94, 0.98)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.55 (-0.65, 0.96)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.39 (-0.79, 0.23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.09 (-0.63, 0.51)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.22 (-0.71, 0.40)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.15 (-0.46, 0.67)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.37 (-0.26, 0.78)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.10 (-0.64, 0.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.28 (-0.35, 0.73)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.33 (-0.68, 0.14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.18 (-0.29, 0.59)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.19 (-0.94, 0.97)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30 (-0.93, 0.98)</t>
   </si>
 </sst>
 </file>
@@ -8594,866 +9630,866 @@
         <v>1042</v>
       </c>
       <c r="H5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="J5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="K5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="L5" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="M5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="N5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="O5" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="P5" t="s">
         <v>995</v>
       </c>
       <c r="Q5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="R5" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="S5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B6" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C6" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="D6" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="E6" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="F6" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G6" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="H6" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="I6" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="J6" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="K6" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="L6" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="M6" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="N6" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="O6" t="s">
         <v>995</v>
       </c>
       <c r="P6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="Q6" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="R6" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="S6" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="C7" t="s">
-        <v>1042</v>
+        <v>1074</v>
       </c>
       <c r="D7" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
       <c r="E7" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="F7" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="G7" t="s">
-        <v>1036</v>
+        <v>1077</v>
       </c>
       <c r="H7" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="I7" t="s">
-        <v>1075</v>
+        <v>1079</v>
       </c>
       <c r="J7" t="s">
-        <v>1076</v>
+        <v>1080</v>
       </c>
       <c r="K7" t="s">
-        <v>1040</v>
+        <v>1056</v>
       </c>
       <c r="L7" t="s">
-        <v>1077</v>
+        <v>1081</v>
       </c>
       <c r="M7" t="s">
-        <v>1078</v>
+        <v>1082</v>
       </c>
       <c r="N7" t="s">
         <v>995</v>
       </c>
       <c r="O7" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="P7" t="s">
-        <v>1080</v>
+        <v>1084</v>
       </c>
       <c r="Q7" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="R7" t="s">
         <v>1018</v>
       </c>
       <c r="S7" t="s">
-        <v>1082</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1043</v>
+        <v>1087</v>
       </c>
       <c r="B8" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="C8" t="s">
-        <v>1061</v>
+        <v>1088</v>
       </c>
       <c r="D8" t="s">
-        <v>1036</v>
+        <v>1077</v>
       </c>
       <c r="E8" t="s">
-        <v>1084</v>
+        <v>1089</v>
       </c>
       <c r="F8" t="s">
-        <v>1085</v>
+        <v>1090</v>
       </c>
       <c r="G8" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="H8" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="I8" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="J8" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="K8" t="s">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="L8" t="s">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="M8" t="s">
         <v>995</v>
       </c>
       <c r="N8" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="O8" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="P8" t="s">
-        <v>1092</v>
+        <v>1099</v>
       </c>
       <c r="Q8" t="s">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="R8" t="s">
-        <v>1094</v>
+        <v>1101</v>
       </c>
       <c r="S8" t="s">
-        <v>1095</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1096</v>
+        <v>1103</v>
       </c>
       <c r="B9" t="s">
-        <v>1070</v>
+        <v>1104</v>
       </c>
       <c r="C9" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="D9" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="E9" t="s">
-        <v>1099</v>
+        <v>1104</v>
       </c>
       <c r="F9" t="s">
-        <v>1100</v>
+        <v>1107</v>
       </c>
       <c r="G9" t="s">
-        <v>1101</v>
+        <v>1108</v>
       </c>
       <c r="H9" t="s">
-        <v>1102</v>
+        <v>1109</v>
       </c>
       <c r="I9" t="s">
-        <v>1103</v>
+        <v>1110</v>
       </c>
       <c r="J9" t="s">
-        <v>1104</v>
+        <v>1111</v>
       </c>
       <c r="K9" t="s">
-        <v>1105</v>
+        <v>1112</v>
       </c>
       <c r="L9" t="s">
         <v>995</v>
       </c>
       <c r="M9" t="s">
-        <v>1106</v>
+        <v>1113</v>
       </c>
       <c r="N9" t="s">
-        <v>1107</v>
+        <v>1114</v>
       </c>
       <c r="O9" t="s">
-        <v>1108</v>
+        <v>1115</v>
       </c>
       <c r="P9" t="s">
-        <v>1109</v>
+        <v>1116</v>
       </c>
       <c r="Q9" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="R9" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="S9" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1113</v>
+        <v>1120</v>
       </c>
       <c r="B10" t="s">
-        <v>1114</v>
+        <v>1121</v>
       </c>
       <c r="C10" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="D10" t="s">
-        <v>1040</v>
+        <v>1122</v>
       </c>
       <c r="E10" t="s">
-        <v>1115</v>
+        <v>1073</v>
       </c>
       <c r="F10" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="G10" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="H10" t="s">
-        <v>1063</v>
+        <v>1123</v>
       </c>
       <c r="I10" t="s">
-        <v>1117</v>
+        <v>1124</v>
       </c>
       <c r="J10" t="s">
-        <v>1039</v>
+        <v>1125</v>
       </c>
       <c r="K10" t="s">
         <v>995</v>
       </c>
       <c r="L10" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="M10" t="s">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="N10" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="O10" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="P10" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="Q10" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="R10" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="S10" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="B11" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="C11" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="D11" t="s">
-        <v>1098</v>
+        <v>1041</v>
       </c>
       <c r="E11" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="F11" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="G11" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="H11" t="s">
-        <v>1043</v>
+        <v>1068</v>
       </c>
       <c r="I11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="J11" t="s">
         <v>995</v>
       </c>
       <c r="K11" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="L11" t="s">
-        <v>1132</v>
+        <v>1041</v>
       </c>
       <c r="M11" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="N11" t="s">
-        <v>1134</v>
+        <v>1080</v>
       </c>
       <c r="O11" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="P11" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="Q11" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="R11" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="S11" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B12" t="s">
-        <v>1042</v>
+        <v>1087</v>
       </c>
       <c r="C12" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="D12" t="s">
-        <v>1036</v>
+        <v>1147</v>
       </c>
       <c r="E12" t="s">
-        <v>1141</v>
+        <v>1148</v>
       </c>
       <c r="F12" t="s">
-        <v>1142</v>
+        <v>1122</v>
       </c>
       <c r="G12" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="H12" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="I12" t="s">
         <v>995</v>
       </c>
       <c r="J12" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="K12" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="L12" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="M12" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="N12" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="O12" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="P12" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="Q12" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="R12" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="S12" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="B13" t="s">
-        <v>1152</v>
+        <v>1059</v>
       </c>
       <c r="C13" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="D13" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="E13" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="F13" t="s">
-        <v>1064</v>
+        <v>1161</v>
       </c>
       <c r="G13" t="s">
-        <v>1103</v>
+        <v>1162</v>
       </c>
       <c r="H13" t="s">
         <v>995</v>
       </c>
       <c r="I13" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="J13" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="K13" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="L13" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="M13" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="N13" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="O13" t="s">
-        <v>1160</v>
+        <v>1167</v>
       </c>
       <c r="P13" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="Q13" t="s">
-        <v>1162</v>
+        <v>1169</v>
       </c>
       <c r="R13" t="s">
-        <v>1081</v>
+        <v>1085</v>
       </c>
       <c r="S13" t="s">
-        <v>1163</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1164</v>
+        <v>1171</v>
       </c>
       <c r="B14" t="s">
-        <v>1045</v>
+        <v>1172</v>
       </c>
       <c r="C14" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="D14" t="s">
-        <v>1040</v>
+        <v>1174</v>
       </c>
       <c r="E14" t="s">
-        <v>1058</v>
+        <v>1175</v>
       </c>
       <c r="F14" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="G14" t="s">
         <v>995</v>
       </c>
       <c r="H14" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="I14" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="J14" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="K14" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="L14" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="M14" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
       <c r="N14" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="O14" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="P14" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="Q14" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="R14" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
       <c r="S14" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="B15" t="s">
-        <v>1057</v>
+        <v>1185</v>
       </c>
       <c r="C15" t="s">
-        <v>1175</v>
+        <v>1150</v>
       </c>
       <c r="D15" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="E15" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
       <c r="F15" t="s">
         <v>995</v>
       </c>
       <c r="G15" t="s">
-        <v>1178</v>
+        <v>1158</v>
       </c>
       <c r="H15" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="I15" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="J15" t="s">
-        <v>1179</v>
+        <v>1188</v>
       </c>
       <c r="K15" t="s">
-        <v>1180</v>
+        <v>1133</v>
       </c>
       <c r="L15" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="M15" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="N15" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="O15" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="P15" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="Q15" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="R15" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="S15" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="B16" t="s">
-        <v>1189</v>
+        <v>1066</v>
       </c>
       <c r="C16" t="s">
-        <v>1190</v>
+        <v>1197</v>
       </c>
       <c r="D16" t="s">
-        <v>1076</v>
+        <v>1198</v>
       </c>
       <c r="E16" t="s">
         <v>995</v>
       </c>
       <c r="F16" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="G16" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="H16" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="I16" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="J16" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="K16" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="L16" t="s">
-        <v>1134</v>
+        <v>1080</v>
       </c>
       <c r="M16" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="N16" t="s">
-        <v>1197</v>
+        <v>1081</v>
       </c>
       <c r="O16" t="s">
-        <v>1198</v>
+        <v>1205</v>
       </c>
       <c r="P16" t="s">
-        <v>1199</v>
+        <v>1206</v>
       </c>
       <c r="Q16" t="s">
-        <v>1200</v>
+        <v>1207</v>
       </c>
       <c r="R16" t="s">
-        <v>1201</v>
+        <v>1208</v>
       </c>
       <c r="S16" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1103</v>
+        <v>1209</v>
       </c>
       <c r="B17" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="C17" t="s">
-        <v>1203</v>
+        <v>1050</v>
       </c>
       <c r="D17" t="s">
         <v>995</v>
       </c>
       <c r="E17" t="s">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="F17" t="s">
-        <v>1204</v>
+        <v>1211</v>
       </c>
       <c r="G17" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="H17" t="s">
-        <v>1205</v>
+        <v>1212</v>
       </c>
       <c r="I17" t="s">
-        <v>1206</v>
+        <v>1213</v>
       </c>
       <c r="J17" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="K17" t="s">
-        <v>1207</v>
+        <v>1214</v>
       </c>
       <c r="L17" t="s">
-        <v>1208</v>
+        <v>1049</v>
       </c>
       <c r="M17" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="N17" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="O17" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
       <c r="P17" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="Q17" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="R17" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="S17" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1213</v>
+        <v>1095</v>
       </c>
       <c r="B18" t="s">
-        <v>1214</v>
+        <v>1105</v>
       </c>
       <c r="C18" t="s">
         <v>995</v>
       </c>
       <c r="D18" t="s">
-        <v>1215</v>
+        <v>1219</v>
       </c>
       <c r="E18" t="s">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="F18" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="G18" t="s">
-        <v>1217</v>
+        <v>1221</v>
       </c>
       <c r="H18" t="s">
-        <v>1218</v>
+        <v>1222</v>
       </c>
       <c r="I18" t="s">
-        <v>1219</v>
+        <v>1223</v>
       </c>
       <c r="J18" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
       <c r="K18" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="L18" t="s">
-        <v>1133</v>
+        <v>1140</v>
       </c>
       <c r="M18" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="N18" t="s">
-        <v>1220</v>
+        <v>1224</v>
       </c>
       <c r="O18" t="s">
-        <v>1221</v>
+        <v>1036</v>
       </c>
       <c r="P18" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="Q18" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
       <c r="R18" t="s">
-        <v>1111</v>
+        <v>1118</v>
       </c>
       <c r="S18" t="s">
-        <v>1112</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="B19" t="s">
         <v>995</v>
       </c>
       <c r="C19" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="D19" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="E19" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="F19" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
       <c r="G19" t="s">
-        <v>1229</v>
+        <v>1160</v>
       </c>
       <c r="H19" t="s">
-        <v>1159</v>
+        <v>1166</v>
       </c>
       <c r="I19" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="J19" t="s">
-        <v>1208</v>
+        <v>1049</v>
       </c>
       <c r="K19" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="L19" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="M19" t="s">
-        <v>1158</v>
+        <v>1075</v>
       </c>
       <c r="N19" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="O19" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="P19" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="Q19" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="R19" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="S19" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="20">
@@ -9461,58 +10497,2734 @@
         <v>995</v>
       </c>
       <c r="B20" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="C20" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1199</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1244</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1245</v>
+      </c>
+      <c r="P20" t="s">
+        <v>1246</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1157</v>
+      </c>
+      <c r="R20" t="s">
+        <v>1247</v>
+      </c>
+      <c r="S20" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>473</v>
+      </c>
+      <c r="J1" t="s">
+        <v>565</v>
+      </c>
+      <c r="K1" t="s">
+        <v>588</v>
+      </c>
+      <c r="L1" t="s">
+        <v>951</v>
+      </c>
+      <c r="M1" t="s">
+        <v>958</v>
+      </c>
+      <c r="N1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1192</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1271</v>
+      </c>
+      <c r="J5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="I7" t="s">
+        <v>1279</v>
+      </c>
+      <c r="J7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1282</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1116</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1291</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1295</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1296</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1297</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1303</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1304</v>
+      </c>
+      <c r="I12" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J12" t="s">
+        <v>1306</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1307</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1309</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1312</v>
+      </c>
+      <c r="I13" t="s">
+        <v>1313</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1315</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1099</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1322</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1080</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1283</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1326</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1327</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1328</v>
+      </c>
+      <c r="I16" t="s">
+        <v>1329</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1331</v>
+      </c>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I17" t="s">
+        <v>1044</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1337</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1205</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1338</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1339</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1340</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1209</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1341</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B19" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1295</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1344</v>
+      </c>
+      <c r="J19" t="s">
+        <v>1345</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1197</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1207</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1346</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1349</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1295</v>
+      </c>
+      <c r="J20" t="s">
+        <v>1350</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1351</v>
+      </c>
+      <c r="L20" t="s">
+        <v>1352</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1353</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1276</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1109</v>
+      </c>
+      <c r="L21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="M21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="N21" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1204</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I22" t="s">
+        <v>1362</v>
+      </c>
+      <c r="J22" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1245</v>
+      </c>
+      <c r="L22" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M22" t="s">
+        <v>1364</v>
+      </c>
+      <c r="N22" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I23" t="s">
+        <v>1270</v>
+      </c>
+      <c r="J23" t="s">
+        <v>1366</v>
+      </c>
+      <c r="K23" t="s">
+        <v>1181</v>
+      </c>
+      <c r="L23" t="s">
+        <v>1363</v>
+      </c>
+      <c r="M23" t="s">
+        <v>1357</v>
+      </c>
+      <c r="N23" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I24" t="s">
+        <v>1253</v>
+      </c>
+      <c r="J24" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1045</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="N24" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1202</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="J25" t="s">
         <v>1107</v>
       </c>
-      <c r="D20" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="K25" t="s">
+        <v>1374</v>
+      </c>
+      <c r="L25" t="s">
+        <v>1375</v>
+      </c>
+      <c r="M25" t="s">
+        <v>1376</v>
+      </c>
+      <c r="N25" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1166</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1378</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1118</v>
+      </c>
+      <c r="M26" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N26" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1382</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I27" t="s">
+        <v>1383</v>
+      </c>
+      <c r="J27" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L27" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="N27" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1389</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1391</v>
+      </c>
+      <c r="I28" t="s">
+        <v>1392</v>
+      </c>
+      <c r="J28" t="s">
+        <v>1393</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1302</v>
+      </c>
+      <c r="L28" t="s">
+        <v>1394</v>
+      </c>
+      <c r="M28" t="s">
+        <v>1395</v>
+      </c>
+      <c r="N28" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1399</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1303</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1400</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1401</v>
+      </c>
+      <c r="L29" t="s">
+        <v>1402</v>
+      </c>
+      <c r="M29" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1287</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I30" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1215</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1321</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1384</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1405</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1321</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I31" t="s">
+        <v>1097</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1113</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1177</v>
+      </c>
+      <c r="L31" t="s">
+        <v>1407</v>
+      </c>
+      <c r="M31" t="s">
+        <v>1408</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1410</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I32" t="s">
+        <v>1414</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1415</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1416</v>
+      </c>
+      <c r="L32" t="s">
+        <v>1417</v>
+      </c>
+      <c r="M32" t="s">
+        <v>1418</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D33" t="s">
         <v>1159</v>
       </c>
-      <c r="F20" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G20" t="s">
-        <v>1109</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1241</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1191</v>
-      </c>
-      <c r="J20" t="s">
-        <v>1242</v>
-      </c>
-      <c r="K20" t="s">
-        <v>1243</v>
-      </c>
-      <c r="L20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1184</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1228</v>
-      </c>
-      <c r="O20" t="s">
-        <v>1244</v>
-      </c>
-      <c r="P20" t="s">
-        <v>1245</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1151</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1246</v>
-      </c>
-      <c r="S20" t="s">
-        <v>1237</v>
+      <c r="E33" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1419</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1147</v>
+      </c>
+      <c r="J33" t="s">
+        <v>1421</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L33" t="s">
+        <v>1422</v>
+      </c>
+      <c r="M33" t="s">
+        <v>1423</v>
+      </c>
+      <c r="N33" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1393</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1426</v>
+      </c>
+      <c r="I34" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J34" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1426</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1431</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1432</v>
+      </c>
+      <c r="I35" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1435</v>
+      </c>
+      <c r="I36" t="s">
+        <v>1436</v>
+      </c>
+      <c r="J36" t="s">
+        <v>1437</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1149</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1421</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1432</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="J37" t="s">
+        <v>1439</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1436</v>
+      </c>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1441</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I38" t="s">
+        <v>1442</v>
+      </c>
+      <c r="J38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1073</v>
+      </c>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1443</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I39" t="s">
+        <v>1445</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1446</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E40" t="s">
+        <v>1448</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1450</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I40" t="s">
+        <v>1351</v>
+      </c>
+      <c r="J40" t="s">
+        <v>1089</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1433</v>
+      </c>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1073</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1037</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1452</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1453</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L41"/>
+      <c r="M41"/>
+      <c r="N41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1455</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1456</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1457</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1089</v>
+      </c>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1461</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1462</v>
+      </c>
+      <c r="I43" t="s">
+        <v>1463</v>
+      </c>
+      <c r="J43" t="s">
+        <v>1464</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1465</v>
+      </c>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1468</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1469</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I44" t="s">
+        <v>1471</v>
+      </c>
+      <c r="J44" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1473</v>
+      </c>
+      <c r="L44"/>
+      <c r="M44"/>
+      <c r="N44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1476</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I45" t="s">
+        <v>1479</v>
+      </c>
+      <c r="J45" t="s">
+        <v>1480</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1481</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1482</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1484</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I46" t="s">
+        <v>1485</v>
+      </c>
+      <c r="J46" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K46" t="s">
+        <v>1486</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1337</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1187</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1336</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K47" t="s">
+        <v>1489</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1492</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1493</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I48" t="s">
+        <v>1495</v>
+      </c>
+      <c r="J48" t="s">
+        <v>1496</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1497</v>
+      </c>
+      <c r="L48"/>
+      <c r="M48"/>
+      <c r="N48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I49" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J49" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K49" t="s">
+        <v>1198</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1504</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1505</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I50" t="s">
+        <v>1507</v>
+      </c>
+      <c r="J50" t="s">
+        <v>1508</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1509</v>
+      </c>
+      <c r="L50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="M50" t="s">
+        <v>1511</v>
+      </c>
+      <c r="N50" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1513</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1383</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1514</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1515</v>
+      </c>
+      <c r="L51" t="s">
+        <v>1516</v>
+      </c>
+      <c r="M51" t="s">
+        <v>1017</v>
+      </c>
+      <c r="N51" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1065</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1090</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1519</v>
+      </c>
+      <c r="J52" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1449</v>
+      </c>
+      <c r="L52" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M52" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N52" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1525</v>
+      </c>
+      <c r="I53" t="s">
+        <v>1059</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1266</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1344</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M53" t="s">
+        <v>1526</v>
+      </c>
+      <c r="N53" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1528</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1530</v>
+      </c>
+      <c r="I54" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1197</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1440</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1531</v>
+      </c>
+      <c r="M54" t="s">
+        <v>1532</v>
+      </c>
+      <c r="N54" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>116</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1065</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1535</v>
+      </c>
+      <c r="I55" t="s">
+        <v>1536</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1344</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1349</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1537</v>
+      </c>
+      <c r="M55" t="s">
+        <v>1538</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1440</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1261</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I56" t="s">
+        <v>1540</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1259</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1541</v>
+      </c>
+      <c r="M56" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1488</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1087</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I57" t="s">
+        <v>1120</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1544</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M57" t="s">
+        <v>1546</v>
+      </c>
+      <c r="N57" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C58" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1548</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1160</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1549</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1212</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1550</v>
+      </c>
+      <c r="M58" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N58" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1146</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1094</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1096</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M59" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N59" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1557</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1558</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1559</v>
+      </c>
+      <c r="I60" t="s">
+        <v>1560</v>
+      </c>
+      <c r="J60" t="s">
+        <v>1561</v>
+      </c>
+      <c r="K60" t="s">
+        <v>1562</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1563</v>
+      </c>
+      <c r="M60" t="s">
+        <v>1564</v>
+      </c>
+      <c r="N60" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1570</v>
+      </c>
+      <c r="I61" t="s">
+        <v>1571</v>
+      </c>
+      <c r="J61" t="s">
+        <v>1572</v>
+      </c>
+      <c r="K61" t="s">
+        <v>1573</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1574</v>
+      </c>
+      <c r="M61" t="s">
+        <v>1575</v>
+      </c>
+      <c r="N61" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1147</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I62" t="s">
+        <v>1451</v>
+      </c>
+      <c r="J62" t="s">
+        <v>1058</v>
+      </c>
+      <c r="K62" t="s">
+        <v>1452</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1545</v>
+      </c>
+      <c r="M62" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N62" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1420</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I63" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J63" t="s">
+        <v>1519</v>
+      </c>
+      <c r="K63" t="s">
+        <v>1518</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1578</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1579</v>
+      </c>
+      <c r="N63" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1585</v>
+      </c>
+      <c r="I64" t="s">
+        <v>1496</v>
+      </c>
+      <c r="J64" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1587</v>
+      </c>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1513</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1589</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1513</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1590</v>
+      </c>
+      <c r="M65" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N65" t="s">
+        <v>1522</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1592" uniqueCount="1592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="1590">
   <si>
     <t xml:space="preserve">Variable</t>
   </si>
@@ -2886,15 +2886,9 @@
     <t xml:space="preserve">Pre</t>
   </si>
   <si>
-    <t xml:space="preserve">1.74</t>
-  </si>
-  <si>
     <t xml:space="preserve">Post</t>
   </si>
   <si>
-    <t xml:space="preserve">0.60</t>
-  </si>
-  <si>
     <t xml:space="preserve">RawChange</t>
   </si>
   <si>
@@ -2904,16 +2898,16 @@
     <t xml:space="preserve">Leptin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.55</t>
+    <t xml:space="preserve">0.68</t>
   </si>
   <si>
     <t xml:space="preserve">Cortisol</t>
   </si>
   <si>
-    <t xml:space="preserve">0.36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.30</t>
+    <t xml:space="preserve">0.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.80</t>
   </si>
   <si>
     <t xml:space="preserve">Rest</t>
@@ -8275,40 +8269,40 @@
         <v>93</v>
       </c>
       <c r="D2" t="n">
-        <v>14074.3</v>
+        <v>9962.11</v>
       </c>
       <c r="E2" t="n">
-        <v>14847.94</v>
+        <v>10312.79</v>
       </c>
       <c r="F2" t="n">
-        <v>0.54</v>
+        <v>0.23</v>
       </c>
       <c r="G2" t="n">
-        <v>7.59</v>
+        <v>13.93</v>
       </c>
       <c r="H2" t="n">
-        <v>0.605</v>
+        <v>0.82</v>
       </c>
       <c r="I2" t="n">
-        <v>3969.64</v>
+        <v>2446.02</v>
       </c>
       <c r="J2" t="n">
-        <v>586.9</v>
+        <v>3708.66</v>
       </c>
       <c r="K2" t="n">
         <v>8</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
-        <v>953</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>261</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -8316,46 +8310,46 @@
         <v>951</v>
       </c>
       <c r="B3" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
       <c r="D3" t="n">
-        <v>14476.74</v>
+        <v>11408.57</v>
       </c>
       <c r="E3" t="n">
-        <v>13521.84</v>
+        <v>9672.85</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.45</v>
+        <v>-0.95</v>
       </c>
       <c r="G3" t="n">
-        <v>7.18</v>
+        <v>10.99</v>
       </c>
       <c r="H3" t="n">
-        <v>0.669</v>
+        <v>0.362</v>
       </c>
       <c r="I3" t="n">
-        <v>3568.23</v>
+        <v>2963.09</v>
       </c>
       <c r="J3" t="n">
-        <v>3150.96</v>
+        <v>3618.57</v>
       </c>
       <c r="K3" t="n">
         <v>6</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>28</v>
+        <v>270</v>
       </c>
       <c r="N3" t="s">
-        <v>955</v>
+        <v>36</v>
       </c>
       <c r="O3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -8363,25 +8357,25 @@
         <v>951</v>
       </c>
       <c r="B4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C4" t="s">
         <v>93</v>
       </c>
       <c r="D4" t="n">
-        <v>402.45</v>
+        <v>1118.63</v>
       </c>
       <c r="E4" t="n">
-        <v>-613.4</v>
+        <v>-304.25</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.46</v>
+        <v>-1.16</v>
       </c>
       <c r="G4" t="n">
-        <v>6.16</v>
+        <v>6.56</v>
       </c>
       <c r="H4" t="n">
-        <v>0.664</v>
+        <v>0.287</v>
       </c>
       <c r="I4"/>
       <c r="J4"/>
@@ -8396,25 +8390,25 @@
         <v>951</v>
       </c>
       <c r="B5" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C5" t="s">
         <v>93</v>
       </c>
       <c r="D5" t="n">
-        <v>591.52</v>
+        <v>610.77</v>
       </c>
       <c r="E5" t="n">
-        <v>-394.34</v>
+        <v>-855.07</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.49</v>
+        <v>-1.21</v>
       </c>
       <c r="G5" t="n">
-        <v>5.47</v>
+        <v>6.7</v>
       </c>
       <c r="H5" t="n">
-        <v>0.641</v>
+        <v>0.267</v>
       </c>
       <c r="I5"/>
       <c r="J5"/>
@@ -8426,7 +8420,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B6" t="s">
         <v>952</v>
@@ -8435,113 +8429,113 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>8170.48</v>
+        <v>2799.17</v>
       </c>
       <c r="E6" t="n">
-        <v>8234.32</v>
+        <v>3730.89</v>
       </c>
       <c r="F6" t="n">
-        <v>0.02</v>
+        <v>0.53</v>
       </c>
       <c r="G6" t="n">
-        <v>8.73</v>
+        <v>9.92</v>
       </c>
       <c r="H6" t="n">
-        <v>0.987</v>
+        <v>0.607</v>
       </c>
       <c r="I6" t="n">
-        <v>7870.28</v>
+        <v>4500.9</v>
       </c>
       <c r="J6" t="n">
-        <v>5290.43</v>
+        <v>2209.98</v>
       </c>
       <c r="K6" t="n">
         <v>8</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="N6" t="s">
-        <v>959</v>
+        <v>647</v>
       </c>
       <c r="O6" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B7" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C7" t="s">
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>9529.75</v>
+        <v>3062.61</v>
       </c>
       <c r="E7" t="n">
-        <v>8085.73</v>
+        <v>1901.57</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3</v>
+        <v>-0.84</v>
       </c>
       <c r="G7" t="n">
-        <v>7.47</v>
+        <v>10.96</v>
       </c>
       <c r="H7" t="n">
-        <v>0.776</v>
+        <v>0.418</v>
       </c>
       <c r="I7" t="n">
-        <v>8435.95</v>
+        <v>2353.04</v>
       </c>
       <c r="J7" t="n">
-        <v>6950.71</v>
+        <v>2621.66</v>
       </c>
       <c r="K7" t="n">
         <v>6</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>267</v>
       </c>
       <c r="N7" t="s">
-        <v>243</v>
+        <v>957</v>
       </c>
       <c r="O7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C8" t="s">
         <v>93</v>
       </c>
       <c r="D8" t="n">
-        <v>1359.28</v>
+        <v>413.28</v>
       </c>
       <c r="E8" t="n">
-        <v>-206.74</v>
+        <v>-51.97</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.55</v>
+        <v>-0.73</v>
       </c>
       <c r="G8" t="n">
-        <v>3.11</v>
+        <v>9.99</v>
       </c>
       <c r="H8" t="n">
-        <v>0.215</v>
+        <v>0.481</v>
       </c>
       <c r="I8"/>
       <c r="J8"/>
@@ -8553,28 +8547,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B9" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C9" t="s">
         <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>943.08</v>
+        <v>215.77</v>
       </c>
       <c r="E9" t="n">
-        <v>-628.72</v>
+        <v>-302.07</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.68</v>
+        <v>-0.89</v>
       </c>
       <c r="G9" t="n">
-        <v>3.4</v>
+        <v>9.37</v>
       </c>
       <c r="H9" t="n">
-        <v>0.18</v>
+        <v>0.398</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -8586,7 +8580,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B10" t="s">
         <v>952</v>
@@ -8595,84 +8589,84 @@
         <v>93</v>
       </c>
       <c r="D10" t="n">
-        <v>87.85</v>
+        <v>75.11</v>
       </c>
       <c r="E10" t="n">
-        <v>115.88</v>
+        <v>102.69</v>
       </c>
       <c r="F10" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="G10" t="n">
-        <v>9.9</v>
+        <v>11.93</v>
       </c>
       <c r="H10" t="n">
-        <v>0.271</v>
+        <v>0.229</v>
       </c>
       <c r="I10" t="n">
-        <v>60.65</v>
+        <v>52.19</v>
       </c>
       <c r="J10" t="n">
-        <v>24.22</v>
+        <v>34.55</v>
       </c>
       <c r="K10" t="n">
         <v>8</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M10" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="N10" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="O10" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C11" t="s">
         <v>93</v>
       </c>
       <c r="D11" t="n">
-        <v>87.35</v>
+        <v>75.1</v>
       </c>
       <c r="E11" t="n">
-        <v>127.94</v>
+        <v>128.43</v>
       </c>
       <c r="F11" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="G11" t="n">
-        <v>9.49</v>
+        <v>7.11</v>
       </c>
       <c r="H11" t="n">
-        <v>0.191</v>
+        <v>0.112</v>
       </c>
       <c r="I11" t="n">
-        <v>74.2</v>
+        <v>65.33</v>
       </c>
       <c r="J11" t="n">
-        <v>26.69</v>
+        <v>32.73</v>
       </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N11" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="O11" t="n">
         <v>11</v>
@@ -8680,28 +8674,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C12" t="s">
         <v>93</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5</v>
+        <v>-3.48</v>
       </c>
       <c r="E12" t="n">
-        <v>29.82</v>
+        <v>24.12</v>
       </c>
       <c r="F12" t="n">
         <v>0.86</v>
       </c>
       <c r="G12" t="n">
-        <v>8.59</v>
+        <v>7.4</v>
       </c>
       <c r="H12" t="n">
-        <v>0.412</v>
+        <v>0.414</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -8713,28 +8707,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B13" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13" t="n">
-        <v>-23</v>
+        <v>-17.55</v>
       </c>
       <c r="E13" t="n">
-        <v>16.43</v>
+        <v>24.57</v>
       </c>
       <c r="F13" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="G13" t="n">
-        <v>8.09</v>
+        <v>6.7</v>
       </c>
       <c r="H13" t="n">
-        <v>0.243</v>
+        <v>0.181</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -8752,22 +8746,22 @@
         <v>952</v>
       </c>
       <c r="C14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D14" t="n">
-        <v>15664.7</v>
+        <v>10987.18</v>
       </c>
       <c r="E14" t="n">
-        <v>15297.67</v>
+        <v>10521.81</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.42</v>
+        <v>-0.28</v>
       </c>
       <c r="G14" t="n">
-        <v>7.19</v>
+        <v>11.39</v>
       </c>
       <c r="H14" t="n">
-        <v>0.688</v>
+        <v>0.783</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -8782,25 +8776,25 @@
         <v>951</v>
       </c>
       <c r="B15" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C15" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D15" t="n">
-        <v>15286.59</v>
+        <v>10689.71</v>
       </c>
       <c r="E15" t="n">
-        <v>14595.6</v>
+        <v>11517.34</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.63</v>
+        <v>0.52</v>
       </c>
       <c r="G15" t="n">
-        <v>4.12</v>
+        <v>9.79</v>
       </c>
       <c r="H15" t="n">
-        <v>0.561</v>
+        <v>0.613</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -8815,25 +8809,25 @@
         <v>951</v>
       </c>
       <c r="B16" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D16" t="n">
-        <v>-378.11</v>
+        <v>-345.8</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.99</v>
+        <v>1381.92</v>
       </c>
       <c r="F16" t="n">
-        <v>0.42</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
-        <v>4.01</v>
+        <v>9.41</v>
       </c>
       <c r="H16" t="n">
-        <v>0.698</v>
+        <v>0.136</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -8848,25 +8842,25 @@
         <v>951</v>
       </c>
       <c r="B17" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C17" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D17" t="n">
-        <v>15.29</v>
+        <v>-663.43</v>
       </c>
       <c r="E17" t="n">
-        <v>-6.12</v>
+        <v>928.8</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.03</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>4.07</v>
+        <v>9.84</v>
       </c>
       <c r="H17" t="n">
-        <v>0.977</v>
+        <v>0.09</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -8878,28 +8872,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B18" t="s">
         <v>952</v>
       </c>
       <c r="C18" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D18" t="n">
-        <v>7817.78</v>
+        <v>5920.25</v>
       </c>
       <c r="E18" t="n">
-        <v>7934.84</v>
+        <v>5591.64</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02</v>
+        <v>-0.07</v>
       </c>
       <c r="G18" t="n">
-        <v>1.4</v>
+        <v>12.98</v>
       </c>
       <c r="H18" t="n">
-        <v>0.986</v>
+        <v>0.942</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -8911,28 +8905,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B19" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C19" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D19" t="n">
-        <v>7354.57</v>
+        <v>8448.83</v>
       </c>
       <c r="E19" t="n">
-        <v>8675.78</v>
+        <v>5989.71</v>
       </c>
       <c r="F19" t="n">
-        <v>0.23</v>
+        <v>-0.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>10.47</v>
       </c>
       <c r="H19" t="n">
-        <v>0.836</v>
+        <v>0.625</v>
       </c>
       <c r="I19"/>
       <c r="J19"/>
@@ -8944,28 +8938,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B20" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C20" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D20" t="n">
-        <v>-463.22</v>
+        <v>1788.62</v>
       </c>
       <c r="E20" t="n">
-        <v>663.81</v>
+        <v>-385.66</v>
       </c>
       <c r="F20" t="n">
-        <v>1.13</v>
+        <v>-1.42</v>
       </c>
       <c r="G20" t="n">
-        <v>4.46</v>
+        <v>7.7</v>
       </c>
       <c r="H20" t="n">
-        <v>0.315</v>
+        <v>0.194</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -8977,28 +8971,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B21" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C21" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D21" t="n">
-        <v>-788.87</v>
+        <v>893.14</v>
       </c>
       <c r="E21" t="n">
-        <v>315.55</v>
+        <v>-1250.39</v>
       </c>
       <c r="F21" t="n">
-        <v>0.81</v>
+        <v>-1.46</v>
       </c>
       <c r="G21" t="n">
-        <v>1.65</v>
+        <v>8.69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.517</v>
+        <v>0.18</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -9010,28 +9004,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B22" t="s">
         <v>952</v>
       </c>
       <c r="C22" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D22" t="n">
-        <v>95.08</v>
+        <v>94.73</v>
       </c>
       <c r="E22" t="n">
-        <v>113.12</v>
+        <v>111.56</v>
       </c>
       <c r="F22" t="n">
-        <v>0.64</v>
+        <v>0.53</v>
       </c>
       <c r="G22" t="n">
-        <v>4.66</v>
+        <v>12.63</v>
       </c>
       <c r="H22" t="n">
-        <v>0.554</v>
+        <v>0.605</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -9043,28 +9037,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B23" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C23" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D23" t="n">
-        <v>80.33</v>
+        <v>102.27</v>
       </c>
       <c r="E23" t="n">
-        <v>109.25</v>
+        <v>110.25</v>
       </c>
       <c r="F23" t="n">
-        <v>0.96</v>
+        <v>0.21</v>
       </c>
       <c r="G23" t="n">
-        <v>7.39</v>
+        <v>9.12</v>
       </c>
       <c r="H23" t="n">
-        <v>0.368</v>
+        <v>0.837</v>
       </c>
       <c r="I23"/>
       <c r="J23"/>
@@ -9076,28 +9070,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B24" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C24" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D24" t="n">
-        <v>-14.75</v>
+        <v>2.65</v>
       </c>
       <c r="E24" t="n">
-        <v>14.36</v>
+        <v>3.4</v>
       </c>
       <c r="F24" t="n">
-        <v>1.19</v>
+        <v>0.02</v>
       </c>
       <c r="G24" t="n">
-        <v>7.07</v>
+        <v>8.38</v>
       </c>
       <c r="H24" t="n">
-        <v>0.273</v>
+        <v>0.984</v>
       </c>
       <c r="I24"/>
       <c r="J24"/>
@@ -9109,28 +9103,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B25" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C25" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D25" t="n">
-        <v>-20.32</v>
+        <v>-3.36</v>
       </c>
       <c r="E25" t="n">
-        <v>8.71</v>
+        <v>4.7</v>
       </c>
       <c r="F25" t="n">
-        <v>1.24</v>
+        <v>0.25</v>
       </c>
       <c r="G25" t="n">
-        <v>6.94</v>
+        <v>8.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.256</v>
+        <v>0.81</v>
       </c>
       <c r="I25"/>
       <c r="J25"/>
@@ -9174,13 +9168,13 @@
         <v>112</v>
       </c>
       <c r="G1" t="s">
+        <v>962</v>
+      </c>
+      <c r="H1" t="s">
+        <v>963</v>
+      </c>
+      <c r="I1" t="s">
         <v>964</v>
-      </c>
-      <c r="H1" t="s">
-        <v>965</v>
-      </c>
-      <c r="I1" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="2">
@@ -9191,83 +9185,83 @@
         <v>93</v>
       </c>
       <c r="C2" t="n">
-        <v>402.45</v>
+        <v>1118.63</v>
       </c>
       <c r="D2" t="n">
-        <v>0.23</v>
+        <v>1.84</v>
       </c>
       <c r="E2" t="n">
-        <v>0.836</v>
+        <v>0.115</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>-5263.35</v>
+        <v>-368.05</v>
       </c>
       <c r="H2" t="n">
-        <v>6068.25</v>
+        <v>2605.31</v>
       </c>
       <c r="I2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B3" t="s">
         <v>93</v>
       </c>
       <c r="C3" t="n">
-        <v>1359.28</v>
+        <v>413.28</v>
       </c>
       <c r="D3" t="n">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
       <c r="E3" t="n">
-        <v>0.267</v>
+        <v>0.439</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
-        <v>-1819.01</v>
+        <v>-807.08</v>
       </c>
       <c r="H3" t="n">
-        <v>4537.56</v>
+        <v>1633.64</v>
       </c>
       <c r="I3" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B4" t="s">
         <v>93</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.5</v>
+        <v>-3.48</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.03</v>
+        <v>-0.2</v>
       </c>
       <c r="E4" t="n">
-        <v>0.976</v>
+        <v>0.851</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>-44.29</v>
+        <v>-46.97</v>
       </c>
       <c r="H4" t="n">
-        <v>43.29</v>
+        <v>40.01</v>
       </c>
       <c r="I4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="5">
@@ -9275,86 +9269,86 @@
         <v>951</v>
       </c>
       <c r="B5" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C5" t="n">
-        <v>-378.11</v>
+        <v>-345.8</v>
       </c>
       <c r="D5" t="n">
-        <v>-13.29</v>
+        <v>-0.47</v>
       </c>
       <c r="E5" t="n">
-        <v>0.048</v>
+        <v>0.654</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>-739.5</v>
+        <v>-2138.18</v>
       </c>
       <c r="H5" t="n">
-        <v>-16.72</v>
+        <v>1446.58</v>
       </c>
       <c r="I5" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C6" t="n">
-        <v>-463.22</v>
+        <v>1788.62</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.8</v>
+        <v>2.03</v>
       </c>
       <c r="E6" t="n">
-        <v>0.571</v>
+        <v>0.089</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
-        <v>-7822.94</v>
+        <v>-369.66</v>
       </c>
       <c r="H6" t="n">
-        <v>6896.51</v>
+        <v>3946.89</v>
       </c>
       <c r="I6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C7" t="n">
-        <v>-14.75</v>
+        <v>2.65</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.98</v>
+        <v>0.08</v>
       </c>
       <c r="E7" t="n">
-        <v>0.187</v>
+        <v>0.936</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
-        <v>-46.85</v>
+        <v>-75.38</v>
       </c>
       <c r="H7" t="n">
-        <v>17.35</v>
+        <v>80.68</v>
       </c>
       <c r="I7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>
@@ -9373,1182 +9367,1182 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B1" t="s">
+        <v>968</v>
+      </c>
+      <c r="C1" t="s">
         <v>969</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>970</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>971</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>972</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>973</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>974</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>975</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>976</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>977</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>978</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>979</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>980</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>981</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>982</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>983</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>984</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>985</v>
-      </c>
-      <c r="R1" t="s">
-        <v>986</v>
-      </c>
-      <c r="S1" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C2" t="s">
         <v>988</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>989</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>990</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>991</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>992</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>993</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>994</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>993</v>
+      </c>
+      <c r="K2" t="s">
         <v>995</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>996</v>
       </c>
-      <c r="J2" t="s">
-        <v>995</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>997</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>998</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>999</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>1000</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>1001</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>1002</v>
       </c>
-      <c r="Q2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="R2" t="s">
-        <v>1004</v>
-      </c>
       <c r="S2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D3" t="s">
         <v>1005</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="H3" t="s">
         <v>993</v>
       </c>
-      <c r="C3" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>1009</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>993</v>
+      </c>
+      <c r="K3" t="s">
         <v>1010</v>
       </c>
-      <c r="H3" t="s">
-        <v>995</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
+        <v>990</v>
+      </c>
+      <c r="M3" t="s">
         <v>1011</v>
       </c>
-      <c r="J3" t="s">
-        <v>995</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
         <v>1012</v>
       </c>
-      <c r="L3" t="s">
-        <v>992</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="O3" t="s">
         <v>1013</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>1014</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>1015</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>993</v>
+      </c>
+      <c r="S3" t="s">
         <v>1016</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="R3" t="s">
-        <v>995</v>
-      </c>
-      <c r="S3" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C4" t="s">
         <v>1019</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>1020</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>1021</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>1022</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>1023</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>1024</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>1025</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>1026</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>1027</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>1028</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>1029</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>1030</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>1031</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>1032</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
+        <v>993</v>
+      </c>
+      <c r="R4" t="s">
         <v>1033</v>
       </c>
-      <c r="P4" t="s">
-        <v>1034</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>995</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1035</v>
-      </c>
       <c r="S4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C5" t="s">
         <v>1036</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>1037</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>1038</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>1039</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>1040</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>1041</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>1042</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>1043</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>1044</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
         <v>1045</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" t="s">
         <v>1046</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>1047</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>1048</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q5" t="s">
         <v>1049</v>
       </c>
-      <c r="O5" t="s">
+      <c r="R5" t="s">
         <v>1050</v>
       </c>
-      <c r="P5" t="s">
-        <v>995</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>1051</v>
-      </c>
-      <c r="R5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="S5" t="s">
-        <v>1053</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C6" t="s">
         <v>1054</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" t="s">
         <v>1055</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>1056</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>1057</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>1058</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>1059</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>1060</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
         <v>1061</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>1062</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>1063</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="s">
         <v>1064</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>1065</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
+        <v>993</v>
+      </c>
+      <c r="P6" t="s">
         <v>1066</v>
       </c>
-      <c r="N6" t="s">
+      <c r="Q6" t="s">
         <v>1067</v>
       </c>
-      <c r="O6" t="s">
-        <v>995</v>
-      </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>1068</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" t="s">
         <v>1069</v>
-      </c>
-      <c r="R6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="S6" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C7" t="s">
         <v>1072</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>1073</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F7" t="s">
         <v>1074</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
         <v>1075</v>
       </c>
-      <c r="E7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>1076</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>1077</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>1078</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L7" t="s">
         <v>1079</v>
       </c>
-      <c r="J7" t="s">
+      <c r="M7" t="s">
         <v>1080</v>
       </c>
-      <c r="K7" t="s">
-        <v>1056</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
+        <v>993</v>
+      </c>
+      <c r="O7" t="s">
         <v>1081</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>1082</v>
       </c>
-      <c r="N7" t="s">
-        <v>995</v>
-      </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>1083</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="S7" t="s">
         <v>1084</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>1085</v>
-      </c>
-      <c r="R7" t="s">
-        <v>1018</v>
-      </c>
-      <c r="S7" t="s">
-        <v>1086</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E8" t="s">
         <v>1087</v>
       </c>
-      <c r="B8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="F8" t="s">
         <v>1088</v>
       </c>
-      <c r="D8" t="s">
-        <v>1077</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>1089</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>1090</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>1091</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>1092</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>1093</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>1094</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>993</v>
+      </c>
+      <c r="N8" t="s">
         <v>1095</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>1096</v>
       </c>
-      <c r="M8" t="s">
-        <v>995</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>1097</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>1098</v>
       </c>
-      <c r="P8" t="s">
+      <c r="R8" t="s">
         <v>1099</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="S8" t="s">
         <v>1100</v>
-      </c>
-      <c r="R8" t="s">
-        <v>1101</v>
-      </c>
-      <c r="S8" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C9" t="s">
         <v>1103</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>1104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F9" t="s">
         <v>1105</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>1106</v>
       </c>
-      <c r="E9" t="s">
-        <v>1104</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>1107</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>1108</v>
       </c>
-      <c r="H9" t="s">
+      <c r="J9" t="s">
         <v>1109</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>1110</v>
       </c>
-      <c r="J9" t="s">
+      <c r="L9" t="s">
+        <v>993</v>
+      </c>
+      <c r="M9" t="s">
         <v>1111</v>
       </c>
-      <c r="K9" t="s">
+      <c r="N9" t="s">
         <v>1112</v>
       </c>
-      <c r="L9" t="s">
-        <v>995</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="O9" t="s">
         <v>1113</v>
       </c>
-      <c r="N9" t="s">
+      <c r="P9" t="s">
         <v>1114</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>1115</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>1116</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="S9" t="s">
         <v>1117</v>
-      </c>
-      <c r="R9" t="s">
-        <v>1118</v>
-      </c>
-      <c r="S9" t="s">
-        <v>1119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D10" t="s">
         <v>1120</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1110</v>
+      </c>
+      <c r="H10" t="s">
         <v>1121</v>
       </c>
-      <c r="C10" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" t="s">
         <v>1122</v>
       </c>
-      <c r="E10" t="s">
-        <v>1073</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1110</v>
-      </c>
-      <c r="G10" t="s">
-        <v>1112</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>1123</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
+        <v>993</v>
+      </c>
+      <c r="L10" t="s">
         <v>1124</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N10" t="s">
         <v>1125</v>
       </c>
-      <c r="K10" t="s">
-        <v>995</v>
-      </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>1126</v>
       </c>
-      <c r="M10" t="s">
-        <v>1098</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="P10" t="s">
         <v>1127</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>1128</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>1129</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>1130</v>
-      </c>
-      <c r="R10" t="s">
-        <v>1131</v>
-      </c>
-      <c r="S10" t="s">
-        <v>1132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C11" t="s">
         <v>1133</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E11" t="s">
         <v>1134</v>
       </c>
-      <c r="C11" t="s">
+      <c r="F11" t="s">
         <v>1135</v>
       </c>
-      <c r="D11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>1136</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>993</v>
+      </c>
+      <c r="K11" t="s">
         <v>1137</v>
       </c>
-      <c r="G11" t="s">
+      <c r="L11" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M11" t="s">
         <v>1138</v>
       </c>
-      <c r="H11" t="s">
-        <v>1068</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="J11" t="s">
-        <v>995</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="N11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="O11" t="s">
         <v>1139</v>
       </c>
-      <c r="L11" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="P11" t="s">
         <v>1140</v>
       </c>
-      <c r="N11" t="s">
-        <v>1080</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>1141</v>
       </c>
-      <c r="P11" t="s">
+      <c r="R11" t="s">
         <v>1142</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>1143</v>
-      </c>
-      <c r="R11" t="s">
-        <v>1144</v>
-      </c>
-      <c r="S11" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B12" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="C12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E12" t="s">
         <v>1146</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G12" t="s">
         <v>1147</v>
       </c>
-      <c r="E12" t="s">
+      <c r="H12" t="s">
         <v>1148</v>
       </c>
-      <c r="F12" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J12" t="s">
         <v>1149</v>
       </c>
-      <c r="H12" t="s">
+      <c r="K12" t="s">
         <v>1150</v>
       </c>
-      <c r="I12" t="s">
-        <v>995</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N12" t="s">
         <v>1151</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="P12" t="s">
         <v>1152</v>
       </c>
-      <c r="L12" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1097</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="Q12" t="s">
         <v>1153</v>
       </c>
-      <c r="O12" t="s">
-        <v>1141</v>
-      </c>
-      <c r="P12" t="s">
+      <c r="R12" t="s">
         <v>1154</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="S12" t="s">
         <v>1155</v>
-      </c>
-      <c r="R12" t="s">
-        <v>1156</v>
-      </c>
-      <c r="S12" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D13" t="s">
         <v>1158</v>
       </c>
-      <c r="B13" t="s">
-        <v>1059</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>1147</v>
+      </c>
+      <c r="F13" t="s">
         <v>1159</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>1160</v>
       </c>
-      <c r="E13" t="s">
-        <v>1149</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
+        <v>993</v>
+      </c>
+      <c r="I13" t="s">
         <v>1161</v>
       </c>
-      <c r="G13" t="s">
+      <c r="J13" t="s">
         <v>1162</v>
       </c>
-      <c r="H13" t="s">
-        <v>995</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>1163</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
+        <v>1073</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N13" t="s">
         <v>1164</v>
       </c>
-      <c r="K13" t="s">
+      <c r="O13" t="s">
         <v>1165</v>
       </c>
-      <c r="L13" t="s">
-        <v>1075</v>
-      </c>
-      <c r="M13" t="s">
+      <c r="P13" t="s">
+        <v>1166</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1167</v>
+      </c>
+      <c r="R13" t="s">
         <v>1083</v>
       </c>
-      <c r="N13" t="s">
-        <v>1166</v>
-      </c>
-      <c r="O13" t="s">
-        <v>1167</v>
-      </c>
-      <c r="P13" t="s">
+      <c r="S13" t="s">
         <v>1168</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>1169</v>
-      </c>
-      <c r="R13" t="s">
-        <v>1085</v>
-      </c>
-      <c r="S13" t="s">
-        <v>1170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C14" t="s">
         <v>1171</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>1172</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>1173</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>1174</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
+        <v>993</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="I14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="J14" t="s">
         <v>1175</v>
       </c>
-      <c r="F14" t="s">
+      <c r="K14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="L14" t="s">
         <v>1176</v>
       </c>
-      <c r="G14" t="s">
-        <v>995</v>
-      </c>
-      <c r="H14" t="s">
-        <v>1153</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1153</v>
-      </c>
-      <c r="J14" t="s">
+      <c r="M14" t="s">
         <v>1177</v>
       </c>
-      <c r="K14" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="O14" t="s">
         <v>1178</v>
       </c>
-      <c r="M14" t="s">
+      <c r="P14" t="s">
         <v>1179</v>
       </c>
-      <c r="N14" t="s">
-        <v>1139</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
         <v>1180</v>
       </c>
-      <c r="P14" t="s">
+      <c r="R14" t="s">
         <v>1181</v>
       </c>
-      <c r="Q14" t="s">
-        <v>1182</v>
-      </c>
-      <c r="R14" t="s">
-        <v>1183</v>
-      </c>
       <c r="S14" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D15" t="s">
         <v>1184</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>1185</v>
       </c>
-      <c r="C15" t="s">
-        <v>1150</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="F15" t="s">
+        <v>993</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1156</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I15" t="s">
+        <v>1066</v>
+      </c>
+      <c r="J15" t="s">
         <v>1186</v>
       </c>
-      <c r="E15" t="s">
+      <c r="K15" t="s">
+        <v>1131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>1179</v>
+      </c>
+      <c r="M15" t="s">
         <v>1187</v>
       </c>
-      <c r="F15" t="s">
-        <v>995</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1158</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1177</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1068</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="N15" t="s">
         <v>1188</v>
       </c>
-      <c r="K15" t="s">
-        <v>1133</v>
-      </c>
-      <c r="L15" t="s">
-        <v>1181</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="O15" t="s">
         <v>1189</v>
       </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
         <v>1190</v>
       </c>
-      <c r="O15" t="s">
+      <c r="Q15" t="s">
         <v>1191</v>
       </c>
-      <c r="P15" t="s">
+      <c r="R15" t="s">
         <v>1192</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="S15" t="s">
         <v>1193</v>
-      </c>
-      <c r="R15" t="s">
-        <v>1194</v>
-      </c>
-      <c r="S15" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D16" t="s">
         <v>1196</v>
       </c>
-      <c r="B16" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>993</v>
+      </c>
+      <c r="F16" t="s">
         <v>1197</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>1198</v>
       </c>
-      <c r="E16" t="s">
-        <v>995</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I16" t="s">
         <v>1199</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J16" t="s">
         <v>1200</v>
       </c>
-      <c r="H16" t="s">
-        <v>1165</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>1201</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M16" t="s">
         <v>1202</v>
       </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
+        <v>1079</v>
+      </c>
+      <c r="O16" t="s">
         <v>1203</v>
       </c>
-      <c r="L16" t="s">
-        <v>1080</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>1204</v>
       </c>
-      <c r="N16" t="s">
-        <v>1081</v>
-      </c>
-      <c r="O16" t="s">
+      <c r="Q16" t="s">
         <v>1205</v>
       </c>
-      <c r="P16" t="s">
+      <c r="R16" t="s">
         <v>1206</v>
       </c>
-      <c r="Q16" t="s">
-        <v>1207</v>
-      </c>
-      <c r="R16" t="s">
-        <v>1208</v>
-      </c>
       <c r="S16" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D17" t="s">
+        <v>993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F17" t="s">
         <v>1209</v>
       </c>
-      <c r="B17" t="s">
+      <c r="G17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="H17" t="s">
         <v>1210</v>
       </c>
-      <c r="C17" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D17" t="s">
-        <v>995</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1097</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="I17" t="s">
         <v>1211</v>
       </c>
-      <c r="G17" t="s">
-        <v>1177</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K17" t="s">
         <v>1212</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
+        <v>1047</v>
+      </c>
+      <c r="M17" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N17" t="s">
+        <v>1125</v>
+      </c>
+      <c r="O17" t="s">
+        <v>1175</v>
+      </c>
+      <c r="P17" t="s">
         <v>1213</v>
       </c>
-      <c r="J17" t="s">
-        <v>1203</v>
-      </c>
-      <c r="K17" t="s">
+      <c r="Q17" t="s">
         <v>1214</v>
       </c>
-      <c r="L17" t="s">
-        <v>1049</v>
-      </c>
-      <c r="M17" t="s">
-        <v>1142</v>
-      </c>
-      <c r="N17" t="s">
-        <v>1127</v>
-      </c>
-      <c r="O17" t="s">
-        <v>1177</v>
-      </c>
-      <c r="P17" t="s">
+      <c r="R17" t="s">
         <v>1215</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="S17" t="s">
         <v>1216</v>
-      </c>
-      <c r="R17" t="s">
-        <v>1217</v>
-      </c>
-      <c r="S17" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B18" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="C18" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D18" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1178</v>
+      </c>
+      <c r="G18" t="s">
         <v>1219</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
         <v>1220</v>
       </c>
-      <c r="F18" t="s">
-        <v>1180</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>1221</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
+        <v>1179</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L18" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M18" t="s">
+        <v>1163</v>
+      </c>
+      <c r="N18" t="s">
         <v>1222</v>
       </c>
-      <c r="I18" t="s">
+      <c r="O18" t="s">
+        <v>1034</v>
+      </c>
+      <c r="P18" t="s">
         <v>1223</v>
       </c>
-      <c r="J18" t="s">
-        <v>1181</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1165</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1165</v>
-      </c>
-      <c r="N18" t="s">
+      <c r="Q18" t="s">
         <v>1224</v>
       </c>
-      <c r="O18" t="s">
-        <v>1036</v>
-      </c>
-      <c r="P18" t="s">
-        <v>1225</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>1226</v>
-      </c>
       <c r="R18" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="S18" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B19" t="s">
+        <v>993</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D19" t="s">
         <v>1227</v>
       </c>
-      <c r="B19" t="s">
-        <v>995</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" t="s">
         <v>1228</v>
       </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>1229</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I19" t="s">
         <v>1230</v>
       </c>
-      <c r="F19" t="s">
+      <c r="J19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K19" t="s">
         <v>1231</v>
       </c>
-      <c r="G19" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1166</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M19" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N19" t="s">
         <v>1232</v>
       </c>
-      <c r="J19" t="s">
-        <v>1049</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="O19" t="s">
         <v>1233</v>
       </c>
-      <c r="L19" t="s">
-        <v>1083</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1075</v>
-      </c>
-      <c r="N19" t="s">
+      <c r="P19" t="s">
         <v>1234</v>
       </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>1235</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>1236</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>1237</v>
-      </c>
-      <c r="R19" t="s">
-        <v>1238</v>
-      </c>
-      <c r="S19" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B20" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F20" t="s">
         <v>1240</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>1114</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
+        <v>1043</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1197</v>
+      </c>
+      <c r="J20" t="s">
         <v>1241</v>
       </c>
-      <c r="E20" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="K20" t="s">
         <v>1242</v>
       </c>
-      <c r="G20" t="s">
-        <v>1116</v>
-      </c>
-      <c r="H20" t="s">
-        <v>1045</v>
-      </c>
-      <c r="I20" t="s">
-        <v>1199</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M20" t="s">
+        <v>1190</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1229</v>
+      </c>
+      <c r="O20" t="s">
         <v>1243</v>
       </c>
-      <c r="K20" t="s">
+      <c r="P20" t="s">
         <v>1244</v>
       </c>
-      <c r="L20" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N20" t="s">
-        <v>1231</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="Q20" t="s">
+        <v>1155</v>
+      </c>
+      <c r="R20" t="s">
         <v>1245</v>
       </c>
-      <c r="P20" t="s">
-        <v>1246</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>1157</v>
-      </c>
-      <c r="R20" t="s">
-        <v>1247</v>
-      </c>
       <c r="S20" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
     </row>
   </sheetData>
@@ -10567,13 +10561,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B1" t="s">
         <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="D1" t="s">
         <v>114</v>
@@ -10588,7 +10582,7 @@
         <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I1" t="s">
         <v>473</v>
@@ -10603,45 +10597,45 @@
         <v>951</v>
       </c>
       <c r="M1" t="s">
+        <v>956</v>
+      </c>
+      <c r="N1" t="s">
         <v>958</v>
-      </c>
-      <c r="N1" t="s">
-        <v>960</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B2" t="s">
         <v>120</v>
       </c>
       <c r="C2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E2" t="s">
         <v>1252</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>1253</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>1254</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="K2" t="s">
         <v>1255</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1256</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="K2" t="s">
-        <v>1257</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -10649,37 +10643,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B3" t="s">
         <v>120</v>
       </c>
       <c r="C3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F3" t="s">
         <v>1258</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H3" t="s">
         <v>1259</v>
       </c>
-      <c r="E3" t="s">
-        <v>1210</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J3" t="s">
         <v>1260</v>
       </c>
-      <c r="G3" t="s">
-        <v>1048</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>1261</v>
-      </c>
-      <c r="I3" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J3" t="s">
-        <v>1262</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1263</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -10687,37 +10681,37 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
       </c>
       <c r="C4" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F4" t="s">
         <v>1264</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="I4" t="s">
         <v>1265</v>
       </c>
-      <c r="E4" t="s">
-        <v>1063</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>1266</v>
       </c>
-      <c r="G4" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H4" t="s">
-        <v>1054</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1267</v>
-      </c>
-      <c r="J4" t="s">
-        <v>1268</v>
-      </c>
       <c r="K4" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -10725,37 +10719,37 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B5" t="s">
         <v>120</v>
       </c>
       <c r="C5" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1047</v>
+      </c>
+      <c r="I5" t="s">
         <v>1269</v>
       </c>
-      <c r="D5" t="s">
+      <c r="J5" t="s">
         <v>1270</v>
       </c>
-      <c r="E5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1109</v>
-      </c>
-      <c r="G5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I5" t="s">
-        <v>1271</v>
-      </c>
-      <c r="J5" t="s">
-        <v>1272</v>
-      </c>
       <c r="K5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -10763,37 +10757,37 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B6" t="s">
         <v>120</v>
       </c>
       <c r="C6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1164</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H6" t="s">
         <v>1273</v>
       </c>
-      <c r="D6" t="s">
+      <c r="I6" t="s">
         <v>1274</v>
       </c>
-      <c r="E6" t="s">
-        <v>1140</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="K6" t="s">
         <v>1275</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1276</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1274</v>
-      </c>
-      <c r="K6" t="s">
-        <v>1277</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
@@ -10801,37 +10795,37 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B7" t="s">
         <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D7" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="E7" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="F7" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G7" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="H7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I7" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J7" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="K7" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
@@ -10839,37 +10833,37 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B8" t="s">
         <v>120</v>
       </c>
       <c r="C8" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G8" t="s">
         <v>1280</v>
       </c>
-      <c r="D8" t="s">
-        <v>1076</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>1233</v>
+      </c>
+      <c r="I8" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1165</v>
+      </c>
+      <c r="K8" t="s">
         <v>1281</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1282</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="I8" t="s">
-        <v>1127</v>
-      </c>
-      <c r="J8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1283</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
@@ -10877,37 +10871,37 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B9" t="s">
         <v>120</v>
       </c>
       <c r="C9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F9" t="s">
         <v>1284</v>
       </c>
-      <c r="D9" t="s">
-        <v>1127</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="I9" t="s">
         <v>1285</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" t="s">
         <v>1286</v>
       </c>
-      <c r="G9" t="s">
-        <v>1068</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>1287</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1288</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1289</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
@@ -10915,7 +10909,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B10" t="s">
         <v>120</v>
@@ -10924,28 +10918,28 @@
         <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E10" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="F10" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="G10" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H10" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="I10" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="J10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="K10" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
@@ -10953,37 +10947,37 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B11" t="s">
         <v>120</v>
       </c>
       <c r="C11" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1291</v>
+      </c>
+      <c r="E11" t="s">
         <v>1292</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G11" t="s">
         <v>1293</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
         <v>1294</v>
       </c>
-      <c r="F11" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J11" t="s">
         <v>1295</v>
       </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
         <v>1296</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1091</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1297</v>
-      </c>
-      <c r="K11" t="s">
-        <v>1298</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
@@ -10991,37 +10985,37 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B12" t="s">
         <v>120</v>
       </c>
       <c r="C12" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1298</v>
+      </c>
+      <c r="E12" t="s">
         <v>1299</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>1300</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>1301</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>1302</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>1303</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>1304</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>1305</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1306</v>
-      </c>
-      <c r="K12" t="s">
-        <v>1307</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
@@ -11029,37 +11023,37 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B13" t="s">
         <v>120</v>
       </c>
       <c r="C13" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E13" t="s">
         <v>1308</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>1309</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H13" t="s">
         <v>1310</v>
       </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
         <v>1311</v>
       </c>
-      <c r="G13" t="s">
-        <v>1309</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>1312</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>1313</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1314</v>
-      </c>
-      <c r="K13" t="s">
-        <v>1315</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
@@ -11067,37 +11061,37 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B14" t="s">
         <v>120</v>
       </c>
       <c r="C14" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F14" t="s">
         <v>1316</v>
       </c>
-      <c r="D14" t="s">
-        <v>1098</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1318</v>
-      </c>
       <c r="G14" t="s">
+        <v>1095</v>
+      </c>
+      <c r="H14" t="s">
         <v>1097</v>
       </c>
-      <c r="H14" t="s">
-        <v>1099</v>
-      </c>
       <c r="I14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="J14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K14" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
@@ -11105,37 +11099,37 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B15" t="s">
         <v>120</v>
       </c>
       <c r="C15" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G15" t="s">
         <v>1319</v>
       </c>
-      <c r="D15" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>1320</v>
       </c>
-      <c r="F15" t="s">
+      <c r="I15" t="s">
         <v>1113</v>
       </c>
-      <c r="G15" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1322</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1115</v>
-      </c>
       <c r="J15" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="K15" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
@@ -11143,37 +11137,37 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B16" t="s">
         <v>120</v>
       </c>
       <c r="C16" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1322</v>
+      </c>
+      <c r="E16" t="s">
         <v>1323</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>1324</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>1325</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>1326</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>1327</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>1328</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>1329</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1330</v>
-      </c>
-      <c r="K16" t="s">
-        <v>1331</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
@@ -11181,37 +11175,37 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B17" t="s">
         <v>120</v>
       </c>
       <c r="C17" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F17" t="s">
         <v>1332</v>
       </c>
-      <c r="D17" t="s">
-        <v>1197</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>1333</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>1334</v>
       </c>
-      <c r="G17" t="s">
+      <c r="I17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J17" t="s">
         <v>1335</v>
       </c>
-      <c r="H17" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1044</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1337</v>
-      </c>
       <c r="K17" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
@@ -11219,359 +11213,359 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B18" t="s">
         <v>116</v>
       </c>
       <c r="C18" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D18" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="E18" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="F18" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G18" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="H18" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I18" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J18" t="s">
         <v>1338</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
+        <v>1207</v>
+      </c>
+      <c r="L18" t="s">
         <v>1339</v>
       </c>
-      <c r="J18" t="s">
+      <c r="M18" t="s">
+        <v>1084</v>
+      </c>
+      <c r="N18" t="s">
         <v>1340</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1209</v>
-      </c>
-      <c r="L18" t="s">
-        <v>1341</v>
-      </c>
-      <c r="M18" t="s">
-        <v>1086</v>
-      </c>
-      <c r="N18" t="s">
-        <v>1342</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B19" t="s">
         <v>116</v>
       </c>
       <c r="C19" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D19" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1092</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1293</v>
+      </c>
+      <c r="I19" t="s">
+        <v>1342</v>
+      </c>
+      <c r="J19" t="s">
         <v>1343</v>
       </c>
-      <c r="E19" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F19" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G19" t="s">
-        <v>1094</v>
-      </c>
-      <c r="H19" t="s">
-        <v>1295</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
+        <v>1195</v>
+      </c>
+      <c r="L19" t="s">
+        <v>1205</v>
+      </c>
+      <c r="M19" t="s">
         <v>1344</v>
       </c>
-      <c r="J19" t="s">
+      <c r="N19" t="s">
         <v>1345</v>
-      </c>
-      <c r="K19" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L19" t="s">
-        <v>1207</v>
-      </c>
-      <c r="M19" t="s">
-        <v>1346</v>
-      </c>
-      <c r="N19" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B20" t="s">
         <v>116</v>
       </c>
       <c r="C20" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D20" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E20" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F20" t="s">
+        <v>1346</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="J20" t="s">
         <v>1348</v>
       </c>
-      <c r="G20" t="s">
-        <v>1120</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="K20" t="s">
         <v>1349</v>
       </c>
-      <c r="I20" t="s">
-        <v>1295</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>1350</v>
       </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>1351</v>
       </c>
-      <c r="L20" t="s">
-        <v>1352</v>
-      </c>
-      <c r="M20" t="s">
-        <v>1353</v>
-      </c>
       <c r="N20" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B21" t="s">
         <v>116</v>
       </c>
       <c r="C21" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G21" t="s">
         <v>1354</v>
       </c>
-      <c r="E21" t="s">
+      <c r="H21" t="s">
+        <v>1274</v>
+      </c>
+      <c r="I21" t="s">
+        <v>1187</v>
+      </c>
+      <c r="J21" t="s">
+        <v>1152</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L21" t="s">
         <v>1355</v>
       </c>
-      <c r="F21" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="M21" t="s">
         <v>1356</v>
       </c>
-      <c r="H21" t="s">
-        <v>1276</v>
-      </c>
-      <c r="I21" t="s">
-        <v>1189</v>
-      </c>
-      <c r="J21" t="s">
-        <v>1154</v>
-      </c>
-      <c r="K21" t="s">
-        <v>1109</v>
-      </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>1357</v>
-      </c>
-      <c r="M21" t="s">
-        <v>1358</v>
-      </c>
-      <c r="N21" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B22" t="s">
         <v>116</v>
       </c>
       <c r="C22" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D22" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="E22" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="F22" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I22" t="s">
         <v>1360</v>
       </c>
-      <c r="G22" t="s">
-        <v>1204</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="J22" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1243</v>
+      </c>
+      <c r="L22" t="s">
         <v>1361</v>
       </c>
-      <c r="I22" t="s">
+      <c r="M22" t="s">
         <v>1362</v>
       </c>
-      <c r="J22" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K22" t="s">
-        <v>1245</v>
-      </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>1363</v>
-      </c>
-      <c r="M22" t="s">
-        <v>1364</v>
-      </c>
-      <c r="N22" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B23" t="s">
         <v>116</v>
       </c>
       <c r="C23" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D23" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="E23" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="F23" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G23" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="H23" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="I23" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="J23" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="K23" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="L23" t="s">
-        <v>1363</v>
+        <v>1361</v>
       </c>
       <c r="M23" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="N23" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1283</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I24" t="s">
         <v>1251</v>
       </c>
-      <c r="B24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C24" t="s">
-        <v>1280</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1231</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1166</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="J24" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K24" t="s">
+        <v>1043</v>
+      </c>
+      <c r="L24" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M24" t="s">
         <v>1368</v>
       </c>
-      <c r="G24" t="s">
-        <v>1285</v>
-      </c>
-      <c r="H24" t="s">
-        <v>1190</v>
-      </c>
-      <c r="I24" t="s">
-        <v>1253</v>
-      </c>
-      <c r="J24" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K24" t="s">
-        <v>1045</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>1369</v>
-      </c>
-      <c r="M24" t="s">
-        <v>1370</v>
-      </c>
-      <c r="N24" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B25" t="s">
         <v>116</v>
       </c>
       <c r="C25" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D25" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="E25" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1371</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I25" t="s">
+        <v>1175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>1105</v>
+      </c>
+      <c r="K25" t="s">
         <v>1372</v>
       </c>
-      <c r="F25" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="L25" t="s">
         <v>1373</v>
       </c>
-      <c r="H25" t="s">
-        <v>1202</v>
-      </c>
-      <c r="I25" t="s">
-        <v>1177</v>
-      </c>
-      <c r="J25" t="s">
-        <v>1107</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
         <v>1374</v>
       </c>
-      <c r="L25" t="s">
-        <v>1375</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1376</v>
-      </c>
       <c r="N25" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B26" t="s">
         <v>116</v>
@@ -11580,345 +11574,345 @@
         <v>137</v>
       </c>
       <c r="D26" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="E26" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1164</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K26" t="s">
+        <v>1376</v>
+      </c>
+      <c r="L26" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M26" t="s">
         <v>1377</v>
       </c>
-      <c r="F26" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G26" t="s">
-        <v>1166</v>
-      </c>
-      <c r="H26" t="s">
-        <v>1192</v>
-      </c>
-      <c r="I26" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J26" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="N26" t="s">
         <v>1378</v>
-      </c>
-      <c r="L26" t="s">
-        <v>1118</v>
-      </c>
-      <c r="M26" t="s">
-        <v>1379</v>
-      </c>
-      <c r="N26" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B27" t="s">
         <v>116</v>
       </c>
       <c r="C27" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D27" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1296</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I27" t="s">
         <v>1381</v>
       </c>
-      <c r="E27" t="s">
-        <v>1298</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="J27" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L27" t="s">
         <v>1382</v>
       </c>
-      <c r="G27" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H27" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="s">
         <v>1383</v>
       </c>
-      <c r="J27" t="s">
-        <v>1067</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>1384</v>
-      </c>
-      <c r="M27" t="s">
-        <v>1385</v>
-      </c>
-      <c r="N27" t="s">
-        <v>1386</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B28" t="s">
         <v>116</v>
       </c>
       <c r="C28" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D28" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F28" t="s">
         <v>1387</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>1388</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>1389</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>1390</v>
       </c>
-      <c r="H28" t="s">
+      <c r="J28" t="s">
         <v>1391</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L28" t="s">
         <v>1392</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="s">
         <v>1393</v>
       </c>
-      <c r="K28" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>1394</v>
-      </c>
-      <c r="M28" t="s">
-        <v>1395</v>
-      </c>
-      <c r="N28" t="s">
-        <v>1396</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B29" t="s">
         <v>116</v>
       </c>
       <c r="C29" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D29" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F29" t="s">
         <v>1397</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1298</v>
+      </c>
+      <c r="I29" t="s">
+        <v>1301</v>
+      </c>
+      <c r="J29" t="s">
         <v>1398</v>
       </c>
-      <c r="F29" t="s">
+      <c r="K29" t="s">
         <v>1399</v>
       </c>
-      <c r="G29" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H29" t="s">
-        <v>1300</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1303</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>1400</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="s">
         <v>1401</v>
       </c>
-      <c r="L29" t="s">
-        <v>1402</v>
-      </c>
-      <c r="M29" t="s">
-        <v>1403</v>
-      </c>
       <c r="N29" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H30" t="s">
         <v>1251</v>
       </c>
-      <c r="B30" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1097</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="I30" t="s">
+        <v>1111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1319</v>
+      </c>
+      <c r="L30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="M30" t="s">
+        <v>1403</v>
+      </c>
+      <c r="N30" t="s">
         <v>1404</v>
-      </c>
-      <c r="F30" t="s">
-        <v>1177</v>
-      </c>
-      <c r="G30" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H30" t="s">
-        <v>1253</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K30" t="s">
-        <v>1321</v>
-      </c>
-      <c r="L30" t="s">
-        <v>1384</v>
-      </c>
-      <c r="M30" t="s">
-        <v>1405</v>
-      </c>
-      <c r="N30" t="s">
-        <v>1406</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B31" t="s">
         <v>116</v>
       </c>
       <c r="C31" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G31" t="s">
         <v>1319</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>1272</v>
       </c>
-      <c r="E31" t="s">
-        <v>1354</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1276</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H31" t="s">
-        <v>1274</v>
-      </c>
       <c r="I31" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="J31" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="K31" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="L31" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="M31" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="N31" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B32" t="s">
         <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D32" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1408</v>
+      </c>
+      <c r="F32" t="s">
         <v>1409</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>1410</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>1411</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>1412</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>1413</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>1414</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>1415</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>1416</v>
       </c>
-      <c r="L32" t="s">
-        <v>1417</v>
-      </c>
-      <c r="M32" t="s">
-        <v>1418</v>
-      </c>
       <c r="N32" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B33" t="s">
         <v>116</v>
       </c>
       <c r="C33" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D33" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E33" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="F33" t="s">
+        <v>1417</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1418</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I33" t="s">
+        <v>1145</v>
+      </c>
+      <c r="J33" t="s">
         <v>1419</v>
       </c>
-      <c r="G33" t="s">
+      <c r="K33" t="s">
+        <v>1087</v>
+      </c>
+      <c r="L33" t="s">
         <v>1420</v>
       </c>
-      <c r="H33" t="s">
-        <v>1344</v>
-      </c>
-      <c r="I33" t="s">
-        <v>1147</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="M33" t="s">
         <v>1421</v>
       </c>
-      <c r="K33" t="s">
-        <v>1089</v>
-      </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>1422</v>
-      </c>
-      <c r="M33" t="s">
-        <v>1423</v>
-      </c>
-      <c r="N33" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="34">
@@ -11929,31 +11923,31 @@
         <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D34" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F34" t="s">
         <v>1425</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I34" t="s">
         <v>1426</v>
       </c>
-      <c r="F34" t="s">
+      <c r="J34" t="s">
         <v>1427</v>
       </c>
-      <c r="G34" t="s">
-        <v>1393</v>
-      </c>
-      <c r="H34" t="s">
-        <v>1426</v>
-      </c>
-      <c r="I34" t="s">
-        <v>1428</v>
-      </c>
-      <c r="J34" t="s">
-        <v>1429</v>
-      </c>
       <c r="K34" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="L34"/>
       <c r="M34"/>
@@ -11967,31 +11961,31 @@
         <v>120</v>
       </c>
       <c r="C35" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D35" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E35" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1429</v>
+      </c>
+      <c r="H35" t="s">
         <v>1430</v>
       </c>
-      <c r="F35" t="s">
-        <v>1135</v>
-      </c>
-      <c r="G35" t="s">
-        <v>1431</v>
-      </c>
-      <c r="H35" t="s">
-        <v>1432</v>
-      </c>
       <c r="I35" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="J35" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="K35" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L35"/>
       <c r="M35"/>
@@ -12005,31 +11999,31 @@
         <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="D36" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H36" t="s">
         <v>1433</v>
       </c>
-      <c r="E36" t="s">
+      <c r="I36" t="s">
         <v>1434</v>
       </c>
-      <c r="F36" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G36" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H36" t="s">
+      <c r="J36" t="s">
         <v>1435</v>
       </c>
-      <c r="I36" t="s">
-        <v>1436</v>
-      </c>
-      <c r="J36" t="s">
-        <v>1437</v>
-      </c>
       <c r="K36" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="L36"/>
       <c r="M36"/>
@@ -12043,31 +12037,31 @@
         <v>120</v>
       </c>
       <c r="C37" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D37" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="E37" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="F37" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G37" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="H37" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="I37" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="J37" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="K37" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="L37"/>
       <c r="M37"/>
@@ -12081,31 +12075,31 @@
         <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D38" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E38" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1060</v>
+      </c>
+      <c r="I38" t="s">
         <v>1440</v>
       </c>
-      <c r="F38" t="s">
-        <v>1134</v>
-      </c>
-      <c r="G38" t="s">
-        <v>1441</v>
-      </c>
-      <c r="H38" t="s">
-        <v>1062</v>
-      </c>
-      <c r="I38" t="s">
-        <v>1442</v>
-      </c>
       <c r="J38" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="K38" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="L38"/>
       <c r="M38"/>
@@ -12119,31 +12113,31 @@
         <v>120</v>
       </c>
       <c r="C39" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D39" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I39" t="s">
         <v>1443</v>
       </c>
-      <c r="E39" t="s">
-        <v>1150</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="J39" t="s">
         <v>1444</v>
       </c>
-      <c r="G39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="H39" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>1445</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1446</v>
-      </c>
-      <c r="K39" t="s">
-        <v>1447</v>
       </c>
       <c r="L39"/>
       <c r="M39"/>
@@ -12157,31 +12151,31 @@
         <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D40" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="E40" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1447</v>
+      </c>
+      <c r="G40" t="s">
         <v>1448</v>
       </c>
-      <c r="F40" t="s">
-        <v>1449</v>
-      </c>
-      <c r="G40" t="s">
-        <v>1450</v>
-      </c>
       <c r="H40" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="I40" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="J40" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="K40" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="L40"/>
       <c r="M40"/>
@@ -12195,31 +12189,31 @@
         <v>120</v>
       </c>
       <c r="C41" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D41" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E41" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F41" t="s">
+        <v>1449</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1035</v>
+      </c>
+      <c r="I41" t="s">
+        <v>1450</v>
+      </c>
+      <c r="J41" t="s">
         <v>1451</v>
       </c>
-      <c r="G41" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H41" t="s">
-        <v>1037</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1452</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1453</v>
-      </c>
       <c r="K41" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L41"/>
       <c r="M41"/>
@@ -12236,28 +12230,28 @@
         <v>137</v>
       </c>
       <c r="D42" t="s">
+        <v>1452</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1257</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I42" t="s">
         <v>1454</v>
       </c>
-      <c r="E42" t="s">
-        <v>1437</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G42" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="J42" t="s">
         <v>1455</v>
       </c>
-      <c r="I42" t="s">
-        <v>1456</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1457</v>
-      </c>
       <c r="K42" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L42"/>
       <c r="M42"/>
@@ -12271,31 +12265,31 @@
         <v>120</v>
       </c>
       <c r="C43" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D43" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F43" t="s">
         <v>1458</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>1459</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>1460</v>
       </c>
-      <c r="G43" t="s">
+      <c r="I43" t="s">
         <v>1461</v>
       </c>
-      <c r="H43" t="s">
+      <c r="J43" t="s">
         <v>1462</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>1463</v>
-      </c>
-      <c r="J43" t="s">
-        <v>1464</v>
-      </c>
-      <c r="K43" t="s">
-        <v>1465</v>
       </c>
       <c r="L43"/>
       <c r="M43"/>
@@ -12309,31 +12303,31 @@
         <v>120</v>
       </c>
       <c r="C44" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D44" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E44" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F44" t="s">
         <v>1466</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>1467</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>1468</v>
       </c>
-      <c r="G44" t="s">
+      <c r="I44" t="s">
         <v>1469</v>
       </c>
-      <c r="H44" t="s">
+      <c r="J44" t="s">
         <v>1470</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>1471</v>
-      </c>
-      <c r="J44" t="s">
-        <v>1472</v>
-      </c>
-      <c r="K44" t="s">
-        <v>1473</v>
       </c>
       <c r="L44"/>
       <c r="M44"/>
@@ -12347,31 +12341,31 @@
         <v>120</v>
       </c>
       <c r="C45" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D45" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E45" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F45" t="s">
         <v>1474</v>
       </c>
-      <c r="E45" t="s">
+      <c r="G45" t="s">
         <v>1475</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>1476</v>
       </c>
-      <c r="G45" t="s">
+      <c r="I45" t="s">
         <v>1477</v>
       </c>
-      <c r="H45" t="s">
+      <c r="J45" t="s">
         <v>1478</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>1479</v>
-      </c>
-      <c r="J45" t="s">
-        <v>1480</v>
-      </c>
-      <c r="K45" t="s">
-        <v>1481</v>
       </c>
       <c r="L45"/>
       <c r="M45"/>
@@ -12385,31 +12379,31 @@
         <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D46" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E46" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G46" t="s">
         <v>1482</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
+        <v>1053</v>
+      </c>
+      <c r="I46" t="s">
         <v>1483</v>
       </c>
-      <c r="G46" t="s">
+      <c r="J46" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K46" t="s">
         <v>1484</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I46" t="s">
-        <v>1485</v>
-      </c>
-      <c r="J46" t="s">
-        <v>1174</v>
-      </c>
-      <c r="K46" t="s">
-        <v>1486</v>
       </c>
       <c r="L46"/>
       <c r="M46"/>
@@ -12423,31 +12417,31 @@
         <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D47" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E47" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1486</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I47" t="s">
+        <v>1334</v>
+      </c>
+      <c r="J47" t="s">
+        <v>1072</v>
+      </c>
+      <c r="K47" t="s">
         <v>1487</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1488</v>
-      </c>
-      <c r="G47" t="s">
-        <v>1337</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1187</v>
-      </c>
-      <c r="I47" t="s">
-        <v>1336</v>
-      </c>
-      <c r="J47" t="s">
-        <v>1074</v>
-      </c>
-      <c r="K47" t="s">
-        <v>1489</v>
       </c>
       <c r="L47"/>
       <c r="M47"/>
@@ -12461,31 +12455,31 @@
         <v>120</v>
       </c>
       <c r="C48" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D48" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F48" t="s">
         <v>1490</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>1491</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>1492</v>
       </c>
-      <c r="G48" t="s">
+      <c r="I48" t="s">
         <v>1493</v>
       </c>
-      <c r="H48" t="s">
+      <c r="J48" t="s">
         <v>1494</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>1495</v>
-      </c>
-      <c r="J48" t="s">
-        <v>1496</v>
-      </c>
-      <c r="K48" t="s">
-        <v>1497</v>
       </c>
       <c r="L48"/>
       <c r="M48"/>
@@ -12499,31 +12493,31 @@
         <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="D49" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F49" t="s">
         <v>1498</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
+        <v>1059</v>
+      </c>
+      <c r="H49" t="s">
         <v>1499</v>
       </c>
-      <c r="F49" t="s">
-        <v>1500</v>
-      </c>
-      <c r="G49" t="s">
-        <v>1061</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1501</v>
-      </c>
       <c r="I49" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="J49" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="K49" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="L49"/>
       <c r="M49"/>
@@ -12537,40 +12531,40 @@
         <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="D50" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F50" t="s">
         <v>1502</v>
       </c>
-      <c r="E50" t="s">
+      <c r="G50" t="s">
         <v>1503</v>
       </c>
-      <c r="F50" t="s">
+      <c r="H50" t="s">
         <v>1504</v>
       </c>
-      <c r="G50" t="s">
+      <c r="I50" t="s">
         <v>1505</v>
       </c>
-      <c r="H50" t="s">
+      <c r="J50" t="s">
         <v>1506</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>1507</v>
       </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
         <v>1508</v>
       </c>
-      <c r="K50" t="s">
+      <c r="M50" t="s">
         <v>1509</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>1510</v>
-      </c>
-      <c r="M50" t="s">
-        <v>1511</v>
-      </c>
-      <c r="N50" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="51">
@@ -12581,40 +12575,40 @@
         <v>116</v>
       </c>
       <c r="C51" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="D51" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="E51" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1381</v>
+      </c>
+      <c r="I51" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J51" t="s">
+        <v>1512</v>
+      </c>
+      <c r="K51" t="s">
         <v>1513</v>
       </c>
-      <c r="F51" t="s">
-        <v>1437</v>
-      </c>
-      <c r="G51" t="s">
-        <v>1110</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1383</v>
-      </c>
-      <c r="I51" t="s">
-        <v>1088</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="L51" t="s">
         <v>1514</v>
       </c>
-      <c r="K51" t="s">
+      <c r="M51" t="s">
+        <v>1015</v>
+      </c>
+      <c r="N51" t="s">
         <v>1515</v>
-      </c>
-      <c r="L51" t="s">
-        <v>1516</v>
-      </c>
-      <c r="M51" t="s">
-        <v>1017</v>
-      </c>
-      <c r="N51" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="52">
@@ -12625,40 +12619,40 @@
         <v>116</v>
       </c>
       <c r="C52" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I52" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J52" t="s">
         <v>1264</v>
       </c>
-      <c r="D52" t="s">
+      <c r="K52" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L52" t="s">
         <v>1518</v>
       </c>
-      <c r="E52" t="s">
-        <v>1112</v>
-      </c>
-      <c r="F52" t="s">
-        <v>1112</v>
-      </c>
-      <c r="G52" t="s">
-        <v>1065</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1090</v>
-      </c>
-      <c r="I52" t="s">
+      <c r="M52" t="s">
         <v>1519</v>
       </c>
-      <c r="J52" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K52" t="s">
-        <v>1449</v>
-      </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>1520</v>
-      </c>
-      <c r="M52" t="s">
-        <v>1521</v>
-      </c>
-      <c r="N52" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="53">
@@ -12669,40 +12663,40 @@
         <v>116</v>
       </c>
       <c r="C53" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="D53" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E53" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1511</v>
+      </c>
+      <c r="H53" t="s">
         <v>1523</v>
       </c>
-      <c r="F53" t="s">
+      <c r="I53" t="s">
+        <v>1057</v>
+      </c>
+      <c r="J53" t="s">
+        <v>1264</v>
+      </c>
+      <c r="K53" t="s">
+        <v>1342</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1518</v>
+      </c>
+      <c r="M53" t="s">
         <v>1524</v>
       </c>
-      <c r="G53" t="s">
-        <v>1513</v>
-      </c>
-      <c r="H53" t="s">
+      <c r="N53" t="s">
         <v>1525</v>
-      </c>
-      <c r="I53" t="s">
-        <v>1059</v>
-      </c>
-      <c r="J53" t="s">
-        <v>1266</v>
-      </c>
-      <c r="K53" t="s">
-        <v>1344</v>
-      </c>
-      <c r="L53" t="s">
-        <v>1520</v>
-      </c>
-      <c r="M53" t="s">
-        <v>1526</v>
-      </c>
-      <c r="N53" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="54">
@@ -12713,40 +12707,40 @@
         <v>116</v>
       </c>
       <c r="C54" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="D54" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E54" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1527</v>
+      </c>
+      <c r="H54" t="s">
         <v>1528</v>
       </c>
-      <c r="F54" t="s">
-        <v>1074</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="I54" t="s">
+        <v>1441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K54" t="s">
+        <v>1438</v>
+      </c>
+      <c r="L54" t="s">
         <v>1529</v>
       </c>
-      <c r="H54" t="s">
+      <c r="M54" t="s">
         <v>1530</v>
       </c>
-      <c r="I54" t="s">
-        <v>1443</v>
-      </c>
-      <c r="J54" t="s">
-        <v>1197</v>
-      </c>
-      <c r="K54" t="s">
-        <v>1440</v>
-      </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>1531</v>
-      </c>
-      <c r="M54" t="s">
-        <v>1532</v>
-      </c>
-      <c r="N54" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="55">
@@ -12757,40 +12751,40 @@
         <v>116</v>
       </c>
       <c r="C55" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="D55" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="E55" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1533</v>
+      </c>
+      <c r="I55" t="s">
         <v>1534</v>
       </c>
-      <c r="F55" t="s">
-        <v>1073</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1062</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="J55" t="s">
+        <v>1342</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L55" t="s">
         <v>1535</v>
       </c>
-      <c r="I55" t="s">
+      <c r="M55" t="s">
         <v>1536</v>
       </c>
-      <c r="J55" t="s">
-        <v>1344</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1349</v>
-      </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>1537</v>
-      </c>
-      <c r="M55" t="s">
-        <v>1538</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="56">
@@ -12801,40 +12795,40 @@
         <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="D56" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="E56" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F56" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="G56" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="H56" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I56" t="s">
+        <v>1538</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1075</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1257</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1539</v>
+      </c>
+      <c r="M56" t="s">
         <v>1540</v>
       </c>
-      <c r="J56" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1259</v>
-      </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>1541</v>
-      </c>
-      <c r="M56" t="s">
-        <v>1542</v>
-      </c>
-      <c r="N56" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="57">
@@ -12845,40 +12839,40 @@
         <v>116</v>
       </c>
       <c r="C57" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="D57" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E57" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F57" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="G57" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="H57" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="I57" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="J57" t="s">
+        <v>1542</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1543</v>
+      </c>
+      <c r="M57" t="s">
         <v>1544</v>
       </c>
-      <c r="K57" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>1545</v>
-      </c>
-      <c r="M57" t="s">
-        <v>1546</v>
-      </c>
-      <c r="N57" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="58">
@@ -12892,37 +12886,37 @@
         <v>137</v>
       </c>
       <c r="D58" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E58" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="F58" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G58" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1158</v>
+      </c>
+      <c r="I58" t="s">
+        <v>1547</v>
+      </c>
+      <c r="J58" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L58" t="s">
         <v>1548</v>
       </c>
-      <c r="H58" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I58" t="s">
+      <c r="M58" t="s">
         <v>1549</v>
       </c>
-      <c r="J58" t="s">
-        <v>1212</v>
-      </c>
-      <c r="K58" t="s">
-        <v>1139</v>
-      </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>1550</v>
-      </c>
-      <c r="M58" t="s">
-        <v>1551</v>
-      </c>
-      <c r="N58" t="s">
-        <v>1552</v>
       </c>
     </row>
     <row r="59">
@@ -12933,40 +12927,40 @@
         <v>116</v>
       </c>
       <c r="C59" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="D59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1291</v>
+      </c>
+      <c r="I59" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J59" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K59" t="s">
         <v>1094</v>
       </c>
-      <c r="E59" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F59" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1146</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1293</v>
-      </c>
-      <c r="I59" t="s">
-        <v>1094</v>
-      </c>
-      <c r="J59" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K59" t="s">
-        <v>1096</v>
-      </c>
       <c r="L59" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="M59" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="N59" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="60">
@@ -12977,40 +12971,40 @@
         <v>116</v>
       </c>
       <c r="C60" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D60" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F60" t="s">
         <v>1555</v>
       </c>
-      <c r="E60" t="s">
+      <c r="G60" t="s">
         <v>1556</v>
       </c>
-      <c r="F60" t="s">
+      <c r="H60" t="s">
         <v>1557</v>
       </c>
-      <c r="G60" t="s">
+      <c r="I60" t="s">
         <v>1558</v>
       </c>
-      <c r="H60" t="s">
+      <c r="J60" t="s">
         <v>1559</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>1560</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>1561</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>1562</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>1563</v>
-      </c>
-      <c r="M60" t="s">
-        <v>1564</v>
-      </c>
-      <c r="N60" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="61">
@@ -13021,40 +13015,40 @@
         <v>116</v>
       </c>
       <c r="C61" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="D61" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1565</v>
+      </c>
+      <c r="F61" t="s">
         <v>1566</v>
       </c>
-      <c r="E61" t="s">
+      <c r="G61" t="s">
         <v>1567</v>
       </c>
-      <c r="F61" t="s">
+      <c r="H61" t="s">
         <v>1568</v>
       </c>
-      <c r="G61" t="s">
+      <c r="I61" t="s">
         <v>1569</v>
       </c>
-      <c r="H61" t="s">
+      <c r="J61" t="s">
         <v>1570</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>1571</v>
       </c>
-      <c r="J61" t="s">
+      <c r="L61" t="s">
         <v>1572</v>
       </c>
-      <c r="K61" t="s">
+      <c r="M61" t="s">
         <v>1573</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>1574</v>
-      </c>
-      <c r="M61" t="s">
-        <v>1575</v>
-      </c>
-      <c r="N61" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="62">
@@ -13065,40 +13059,40 @@
         <v>116</v>
       </c>
       <c r="C62" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D62" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E62" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="F62" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="G62" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="H62" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="I62" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="J62" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="K62" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="L62" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="M62" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="N62" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="63">
@@ -13109,40 +13103,40 @@
         <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D63" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E63" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="F63" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G63" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="H63" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I63" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="J63" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="K63" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="L63" t="s">
+        <v>1576</v>
+      </c>
+      <c r="M63" t="s">
+        <v>1577</v>
+      </c>
+      <c r="N63" t="s">
         <v>1578</v>
-      </c>
-      <c r="M63" t="s">
-        <v>1579</v>
-      </c>
-      <c r="N63" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="64">
@@ -13153,31 +13147,31 @@
         <v>116</v>
       </c>
       <c r="C64" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="D64" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F64" t="s">
         <v>1581</v>
       </c>
-      <c r="E64" t="s">
+      <c r="G64" t="s">
         <v>1582</v>
       </c>
-      <c r="F64" t="s">
+      <c r="H64" t="s">
         <v>1583</v>
       </c>
-      <c r="G64" t="s">
+      <c r="I64" t="s">
+        <v>1494</v>
+      </c>
+      <c r="J64" t="s">
         <v>1584</v>
       </c>
-      <c r="H64" t="s">
+      <c r="K64" t="s">
         <v>1585</v>
-      </c>
-      <c r="I64" t="s">
-        <v>1496</v>
-      </c>
-      <c r="J64" t="s">
-        <v>1586</v>
-      </c>
-      <c r="K64" t="s">
-        <v>1587</v>
       </c>
       <c r="L64"/>
       <c r="M64"/>
@@ -13191,40 +13185,40 @@
         <v>116</v>
       </c>
       <c r="C65" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D65" t="s">
         <v>1332</v>
       </c>
-      <c r="D65" t="s">
-        <v>1334</v>
-      </c>
       <c r="E65" t="s">
+        <v>1586</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I65" t="s">
+        <v>1587</v>
+      </c>
+      <c r="J65" t="s">
+        <v>1093</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1511</v>
+      </c>
+      <c r="L65" t="s">
         <v>1588</v>
       </c>
-      <c r="F65" t="s">
-        <v>1122</v>
-      </c>
-      <c r="G65" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1513</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="M65" t="s">
         <v>1589</v>
       </c>
-      <c r="J65" t="s">
-        <v>1095</v>
-      </c>
-      <c r="K65" t="s">
-        <v>1513</v>
-      </c>
-      <c r="L65" t="s">
-        <v>1590</v>
-      </c>
-      <c r="M65" t="s">
-        <v>1591</v>
-      </c>
       <c r="N65" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Supplemental_Tables.xlsx
+++ b/docs/Supplemental_Tables.xlsx
@@ -6,20 +6,20 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ST1-postshake_ttable" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ST3-Affect_Descriptives" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ST4-Affect_Models" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ST5-Affect_ModelFit_Indices" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="ST6-Affect_HOV" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="ST7-Affect_Models_ED" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="ST8-BISS_Models" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="ST9-BISS_ModelFit_Indices" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="ST10-BISS_HOV" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="ST11-BISS_Models_ED" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="ST12-BiomarkerChange" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="ST13-BiomarkerChange_ED" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="ST14-ExResponseCorrelations" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="ST15-FullResponseCorrelations" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="ST4-postshake_ttable" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ST5-Affect_Descriptives" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ST6-Affect_Models" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ST7-Affect_ModelFit_Indices" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ST8-Affect_HOV" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ST9-Affect_Models_ED" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ST10-BISS_Models" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="ST11-BISS_ModelFit_Indices" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="ST12-BISS_HOV" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="ST13-BISS_Models_ED" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ST14-BiomarkerChange" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ST15-BiomarkerChange_ED" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="ST16-ExResponseCorrelations" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="ST17-FullResponseCorrelations" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
 </workbook>
 </file>
